--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9">
@@ -1113,45 +1113,45 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E13" s="6" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F13" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G13" s="6" t="inlineStr"/>
-      <c r="H13" s="6" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I13" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K13" s="3" t="inlineStr">
@@ -1310,10 +1310,10 @@
         <v>8</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
         <v>6</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
         <v>6</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
         <v>6</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
         <v>6</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
         <v>6</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
         <v>6</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1856,10 +1856,10 @@
         <v>6</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1934,10 +1934,10 @@
         <v>6</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2012,10 +2012,10 @@
         <v>6</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2090,10 +2090,10 @@
         <v>6</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2168,10 +2168,10 @@
         <v>6</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -4084,45 +4084,45 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B69" s="6" t="inlineStr">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B69" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C69" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D69" s="6" t="inlineStr">
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D69" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E69" s="6" t="inlineStr">
+      <c r="E69" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F69" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G69" s="6" t="inlineStr"/>
-      <c r="H69" s="6" t="inlineStr">
+      <c r="F69" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G69" s="5" t="inlineStr"/>
+      <c r="H69" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I69" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I69" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6516,45 +6516,45 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B125" s="6" t="inlineStr">
+      <c r="A125" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B125" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C125" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D125" s="6" t="inlineStr">
+      <c r="C125" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D125" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E125" s="6" t="inlineStr">
+      <c r="E125" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F125" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G125" s="6" t="inlineStr"/>
-      <c r="H125" s="6" t="inlineStr">
+      <c r="F125" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G125" s="5" t="inlineStr"/>
+      <c r="H125" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I125" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I125" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8948,45 +8948,45 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B181" s="6" t="inlineStr">
+      <c r="A181" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B181" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C181" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D181" s="6" t="inlineStr">
+      <c r="C181" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D181" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E181" s="6" t="inlineStr">
+      <c r="E181" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F181" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G181" s="6" t="inlineStr"/>
-      <c r="H181" s="6" t="inlineStr">
+      <c r="F181" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G181" s="5" t="inlineStr"/>
+      <c r="H181" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I181" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I181" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11380,45 +11380,45 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B237" s="6" t="inlineStr">
+      <c r="A237" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B237" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C237" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D237" s="6" t="inlineStr">
+      <c r="C237" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D237" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E237" s="6" t="inlineStr">
+      <c r="E237" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F237" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G237" s="6" t="inlineStr"/>
-      <c r="H237" s="6" t="inlineStr">
+      <c r="F237" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G237" s="5" t="inlineStr"/>
+      <c r="H237" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I237" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I237" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13812,45 +13812,45 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B293" s="6" t="inlineStr">
+      <c r="A293" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B293" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C293" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D293" s="6" t="inlineStr">
+      <c r="C293" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D293" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E293" s="6" t="inlineStr">
+      <c r="E293" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F293" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G293" s="6" t="inlineStr"/>
-      <c r="H293" s="6" t="inlineStr">
+      <c r="F293" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G293" s="5" t="inlineStr"/>
+      <c r="H293" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I293" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I293" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -16244,45 +16244,45 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B349" s="6" t="inlineStr">
+      <c r="A349" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B349" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C349" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D349" s="6" t="inlineStr">
+      <c r="C349" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D349" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E349" s="6" t="inlineStr">
+      <c r="E349" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F349" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G349" s="6" t="inlineStr"/>
-      <c r="H349" s="6" t="inlineStr">
+      <c r="F349" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G349" s="5" t="inlineStr"/>
+      <c r="H349" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I349" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I349" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -18676,45 +18676,45 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B405" s="6" t="inlineStr">
+      <c r="A405" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B405" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C405" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D405" s="6" t="inlineStr">
+      <c r="C405" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D405" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E405" s="6" t="inlineStr">
+      <c r="E405" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F405" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G405" s="6" t="inlineStr"/>
-      <c r="H405" s="6" t="inlineStr">
+      <c r="F405" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G405" s="5" t="inlineStr"/>
+      <c r="H405" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I405" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I405" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -21108,45 +21108,45 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B461" s="6" t="inlineStr">
+      <c r="A461" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B461" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C461" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D461" s="6" t="inlineStr">
+      <c r="C461" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D461" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E461" s="6" t="inlineStr">
+      <c r="E461" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F461" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G461" s="6" t="inlineStr"/>
-      <c r="H461" s="6" t="inlineStr">
+      <c r="F461" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G461" s="5" t="inlineStr"/>
+      <c r="H461" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I461" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I461" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -23540,45 +23540,45 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B517" s="6" t="inlineStr">
+      <c r="A517" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B517" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C517" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D517" s="6" t="inlineStr">
+      <c r="C517" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D517" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E517" s="6" t="inlineStr">
+      <c r="E517" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F517" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G517" s="6" t="inlineStr"/>
-      <c r="H517" s="6" t="inlineStr">
+      <c r="F517" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G517" s="5" t="inlineStr"/>
+      <c r="H517" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I517" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I517" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -25972,45 +25972,45 @@
       </c>
     </row>
     <row r="573">
-      <c r="A573" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B573" s="6" t="inlineStr">
+      <c r="A573" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B573" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C573" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D573" s="6" t="inlineStr">
+      <c r="C573" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D573" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E573" s="6" t="inlineStr">
+      <c r="E573" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F573" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G573" s="6" t="inlineStr"/>
-      <c r="H573" s="6" t="inlineStr">
+      <c r="F573" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G573" s="5" t="inlineStr"/>
+      <c r="H573" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I573" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I573" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -28404,45 +28404,45 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B629" s="6" t="inlineStr">
+      <c r="A629" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B629" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C629" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D629" s="6" t="inlineStr">
+      <c r="C629" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D629" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E629" s="6" t="inlineStr">
+      <c r="E629" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F629" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G629" s="6" t="inlineStr"/>
-      <c r="H629" s="6" t="inlineStr">
+      <c r="F629" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G629" s="5" t="inlineStr"/>
+      <c r="H629" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I629" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I629" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9">
@@ -1310,10 +1310,10 @@
         <v>8</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
         <v>6</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
         <v>6</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
         <v>6</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
         <v>6</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
         <v>6</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
         <v>6</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1856,10 +1856,10 @@
         <v>6</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1934,10 +1934,10 @@
         <v>6</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2012,10 +2012,10 @@
         <v>6</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2090,10 +2090,10 @@
         <v>6</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2168,10 +2168,10 @@
         <v>6</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -2868,45 +2868,45 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B41" s="6" t="inlineStr">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C41" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D41" s="6" t="inlineStr">
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="E41" s="6" t="inlineStr">
+      <c r="E41" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F41" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G41" s="6" t="inlineStr"/>
-      <c r="H41" s="6" t="inlineStr">
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G41" s="5" t="inlineStr"/>
+      <c r="H41" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I41" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I41" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5300,45 +5300,45 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B97" s="6" t="inlineStr">
+      <c r="A97" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B97" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C97" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D97" s="6" t="inlineStr">
+      <c r="C97" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D97" s="5" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="E97" s="6" t="inlineStr">
+      <c r="E97" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F97" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G97" s="6" t="inlineStr"/>
-      <c r="H97" s="6" t="inlineStr">
+      <c r="F97" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G97" s="5" t="inlineStr"/>
+      <c r="H97" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I97" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I97" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7732,45 +7732,45 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B153" s="6" t="inlineStr">
+      <c r="A153" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B153" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C153" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D153" s="6" t="inlineStr">
+      <c r="C153" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D153" s="5" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="E153" s="6" t="inlineStr">
+      <c r="E153" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F153" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G153" s="6" t="inlineStr"/>
-      <c r="H153" s="6" t="inlineStr">
+      <c r="F153" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G153" s="5" t="inlineStr"/>
+      <c r="H153" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I153" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I153" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10164,45 +10164,45 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B209" s="6" t="inlineStr">
+      <c r="A209" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B209" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C209" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D209" s="6" t="inlineStr">
+      <c r="C209" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D209" s="5" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="E209" s="6" t="inlineStr">
+      <c r="E209" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F209" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G209" s="6" t="inlineStr"/>
-      <c r="H209" s="6" t="inlineStr">
+      <c r="F209" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G209" s="5" t="inlineStr"/>
+      <c r="H209" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I209" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I209" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -12596,45 +12596,45 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B265" s="6" t="inlineStr">
+      <c r="A265" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B265" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C265" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D265" s="6" t="inlineStr">
+      <c r="C265" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D265" s="5" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="E265" s="6" t="inlineStr">
+      <c r="E265" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F265" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G265" s="6" t="inlineStr"/>
-      <c r="H265" s="6" t="inlineStr">
+      <c r="F265" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G265" s="5" t="inlineStr"/>
+      <c r="H265" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I265" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I265" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15028,45 +15028,45 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B321" s="6" t="inlineStr">
+      <c r="A321" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B321" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C321" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D321" s="6" t="inlineStr">
+      <c r="C321" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D321" s="5" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="E321" s="6" t="inlineStr">
+      <c r="E321" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F321" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G321" s="6" t="inlineStr"/>
-      <c r="H321" s="6" t="inlineStr">
+      <c r="F321" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G321" s="5" t="inlineStr"/>
+      <c r="H321" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I321" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I321" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -17460,45 +17460,45 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B377" s="6" t="inlineStr">
+      <c r="A377" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B377" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C377" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D377" s="6" t="inlineStr">
+      <c r="C377" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D377" s="5" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="E377" s="6" t="inlineStr">
+      <c r="E377" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F377" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G377" s="6" t="inlineStr"/>
-      <c r="H377" s="6" t="inlineStr">
+      <c r="F377" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G377" s="5" t="inlineStr"/>
+      <c r="H377" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I377" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I377" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -19892,45 +19892,45 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B433" s="6" t="inlineStr">
+      <c r="A433" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B433" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C433" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D433" s="6" t="inlineStr">
+      <c r="C433" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D433" s="5" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="E433" s="6" t="inlineStr">
+      <c r="E433" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F433" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G433" s="6" t="inlineStr"/>
-      <c r="H433" s="6" t="inlineStr">
+      <c r="F433" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G433" s="5" t="inlineStr"/>
+      <c r="H433" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I433" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I433" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -22324,45 +22324,45 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B489" s="6" t="inlineStr">
+      <c r="A489" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B489" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C489" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D489" s="6" t="inlineStr">
+      <c r="C489" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D489" s="5" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="E489" s="6" t="inlineStr">
+      <c r="E489" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F489" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G489" s="6" t="inlineStr"/>
-      <c r="H489" s="6" t="inlineStr">
+      <c r="F489" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G489" s="5" t="inlineStr"/>
+      <c r="H489" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I489" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I489" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -24756,45 +24756,45 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B545" s="6" t="inlineStr">
+      <c r="A545" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B545" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C545" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D545" s="6" t="inlineStr">
+      <c r="C545" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D545" s="5" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="E545" s="6" t="inlineStr">
+      <c r="E545" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F545" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G545" s="6" t="inlineStr"/>
-      <c r="H545" s="6" t="inlineStr">
+      <c r="F545" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G545" s="5" t="inlineStr"/>
+      <c r="H545" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I545" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I545" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -27188,45 +27188,45 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B601" s="6" t="inlineStr">
+      <c r="A601" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B601" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C601" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D601" s="6" t="inlineStr">
+      <c r="C601" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D601" s="5" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="E601" s="6" t="inlineStr">
+      <c r="E601" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F601" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G601" s="6" t="inlineStr"/>
-      <c r="H601" s="6" t="inlineStr">
+      <c r="F601" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G601" s="5" t="inlineStr"/>
+      <c r="H601" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I601" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I601" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -29620,45 +29620,45 @@
       </c>
     </row>
     <row r="657">
-      <c r="A657" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B657" s="6" t="inlineStr">
+      <c r="A657" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B657" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C657" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D657" s="6" t="inlineStr">
+      <c r="C657" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D657" s="5" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="E657" s="6" t="inlineStr">
+      <c r="E657" s="5" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F657" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G657" s="6" t="inlineStr"/>
-      <c r="H657" s="6" t="inlineStr">
+      <c r="F657" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G657" s="5" t="inlineStr"/>
+      <c r="H657" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I657" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I657" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>11.0%</t>
+          <t>12.5%</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>69.2%</t>
+          <t>69.7%</t>
         </is>
       </c>
     </row>
@@ -1619,22 +1619,22 @@
         <v>56</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>32</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
-          <t>10.7%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>93.5%</t>
+          <t>89.5%</t>
         </is>
       </c>
     </row>
@@ -1697,22 +1697,22 @@
         <v>56</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>32</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
-          <t>10.7%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>83.3%</t>
+          <t>80.4%</t>
         </is>
       </c>
     </row>
@@ -1775,22 +1775,22 @@
         <v>56</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>32</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
-          <t>10.7%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>94.3%</t>
+          <t>90.5%</t>
         </is>
       </c>
     </row>
@@ -1853,22 +1853,22 @@
         <v>56</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>32</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
-          <t>10.7%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>94.9%</t>
+          <t>90.2%</t>
         </is>
       </c>
     </row>
@@ -1931,22 +1931,22 @@
         <v>56</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>32</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
-          <t>10.7%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>72.2%</t>
+          <t>69.2%</t>
         </is>
       </c>
     </row>
@@ -11165,45 +11165,49 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B232" s="5" t="inlineStr">
+      <c r="A232" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C232" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D232" s="5" t="inlineStr">
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E232" s="5" t="inlineStr">
+      <c r="E232" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F232" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G232" s="5" t="inlineStr"/>
-      <c r="H232" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I232" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F232" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G232" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
+        <is>
+          <t>24/31</t>
+        </is>
+      </c>
+      <c r="I232" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -12381,45 +12385,49 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B260" s="5" t="inlineStr">
+      <c r="A260" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C260" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D260" s="5" t="inlineStr">
+      <c r="C260" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="E260" s="5" t="inlineStr">
+      <c r="E260" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F260" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G260" s="5" t="inlineStr"/>
-      <c r="H260" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I260" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F260" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G260" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>24/31</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -13597,45 +13605,49 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B288" s="5" t="inlineStr">
+      <c r="A288" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B288" s="2" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C288" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D288" s="5" t="inlineStr">
+      <c r="C288" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D288" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E288" s="5" t="inlineStr">
+      <c r="E288" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F288" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G288" s="5" t="inlineStr"/>
-      <c r="H288" s="5" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I288" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F288" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G288" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H288" s="2" t="inlineStr">
+        <is>
+          <t>20/28</t>
+        </is>
+      </c>
+      <c r="I288" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -14813,45 +14825,49 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B316" s="5" t="inlineStr">
+      <c r="A316" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B316" s="2" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C316" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D316" s="5" t="inlineStr">
+      <c r="C316" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D316" s="2" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="E316" s="5" t="inlineStr">
+      <c r="E316" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F316" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G316" s="5" t="inlineStr"/>
-      <c r="H316" s="5" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I316" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F316" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G316" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H316" s="2" t="inlineStr">
+        <is>
+          <t>20/28</t>
+        </is>
+      </c>
+      <c r="I316" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -16029,45 +16045,49 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B344" s="5" t="inlineStr">
+      <c r="A344" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B344" s="2" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C344" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D344" s="5" t="inlineStr">
+      <c r="C344" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D344" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E344" s="5" t="inlineStr">
+      <c r="E344" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F344" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G344" s="5" t="inlineStr"/>
-      <c r="H344" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I344" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F344" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G344" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H344" s="2" t="inlineStr">
+        <is>
+          <t>23/29</t>
+        </is>
+      </c>
+      <c r="I344" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -17245,45 +17265,49 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B372" s="5" t="inlineStr">
+      <c r="A372" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B372" s="2" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C372" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D372" s="5" t="inlineStr">
+      <c r="C372" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D372" s="2" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="E372" s="5" t="inlineStr">
+      <c r="E372" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F372" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G372" s="5" t="inlineStr"/>
-      <c r="H372" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I372" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F372" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G372" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H372" s="2" t="inlineStr">
+        <is>
+          <t>23/29</t>
+        </is>
+      </c>
+      <c r="I372" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -18461,45 +18485,49 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B400" s="5" t="inlineStr">
+      <c r="A400" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B400" s="2" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C400" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D400" s="5" t="inlineStr">
+      <c r="C400" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D400" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E400" s="5" t="inlineStr">
+      <c r="E400" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F400" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G400" s="5" t="inlineStr"/>
-      <c r="H400" s="5" t="inlineStr">
-        <is>
-          <t>0/33</t>
-        </is>
-      </c>
-      <c r="I400" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F400" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G400" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H400" s="2" t="inlineStr">
+        <is>
+          <t>25/33</t>
+        </is>
+      </c>
+      <c r="I400" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -19677,45 +19705,49 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B428" s="5" t="inlineStr">
+      <c r="A428" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B428" s="2" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C428" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D428" s="5" t="inlineStr">
+      <c r="C428" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D428" s="2" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="E428" s="5" t="inlineStr">
+      <c r="E428" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F428" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G428" s="5" t="inlineStr"/>
-      <c r="H428" s="5" t="inlineStr">
-        <is>
-          <t>0/33</t>
-        </is>
-      </c>
-      <c r="I428" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F428" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G428" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H428" s="2" t="inlineStr">
+        <is>
+          <t>25/33</t>
+        </is>
+      </c>
+      <c r="I428" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -20893,45 +20925,49 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B456" s="5" t="inlineStr">
+      <c r="A456" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B456" s="2" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C456" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D456" s="5" t="inlineStr">
+      <c r="C456" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D456" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E456" s="5" t="inlineStr">
+      <c r="E456" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F456" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G456" s="5" t="inlineStr"/>
-      <c r="H456" s="5" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I456" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F456" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G456" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H456" s="2" t="inlineStr">
+        <is>
+          <t>18/30</t>
+        </is>
+      </c>
+      <c r="I456" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -22109,45 +22145,49 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B484" s="5" t="inlineStr">
+      <c r="A484" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B484" s="2" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C484" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D484" s="5" t="inlineStr">
+      <c r="C484" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D484" s="2" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="E484" s="5" t="inlineStr">
+      <c r="E484" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F484" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G484" s="5" t="inlineStr"/>
-      <c r="H484" s="5" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I484" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F484" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G484" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H484" s="2" t="inlineStr">
+        <is>
+          <t>18/30</t>
+        </is>
+      </c>
+      <c r="I484" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12.8%</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>69.7%</t>
+          <t>69.2%</t>
         </is>
       </c>
     </row>
@@ -2009,22 +2009,22 @@
         <v>56</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>32</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
-          <t>10.7%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>49.4%</t>
+          <t>49.1%</t>
         </is>
       </c>
     </row>
@@ -23365,45 +23365,49 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B512" s="5" t="inlineStr">
+      <c r="A512" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B512" s="2" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C512" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D512" s="5" t="inlineStr">
+      <c r="C512" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D512" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E512" s="5" t="inlineStr">
+      <c r="E512" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F512" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G512" s="5" t="inlineStr"/>
-      <c r="H512" s="5" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I512" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F512" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G512" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H512" s="2" t="inlineStr">
+        <is>
+          <t>13/27</t>
+        </is>
+      </c>
+      <c r="I512" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -24581,45 +24585,49 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B540" s="5" t="inlineStr">
+      <c r="A540" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B540" s="2" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C540" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D540" s="5" t="inlineStr">
+      <c r="C540" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D540" s="2" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="E540" s="5" t="inlineStr">
+      <c r="E540" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F540" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G540" s="5" t="inlineStr"/>
-      <c r="H540" s="5" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I540" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F540" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G540" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H540" s="2" t="inlineStr">
+        <is>
+          <t>13/27</t>
+        </is>
+      </c>
+      <c r="I540" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9">
@@ -1161,45 +1161,45 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E14" s="6" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="6" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I14" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I14" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -1310,10 +1310,10 @@
         <v>8</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
         <v>6</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
         <v>6</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
         <v>6</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
         <v>8</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
         <v>8</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
         <v>8</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1934,10 +1934,10 @@
         <v>8</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2012,10 +2012,10 @@
         <v>8</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2090,10 +2090,10 @@
         <v>6</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2168,10 +2168,10 @@
         <v>6</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -4127,45 +4127,45 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B70" s="6" t="inlineStr">
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B70" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C70" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D70" s="6" t="inlineStr">
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E70" s="6" t="inlineStr">
+      <c r="E70" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F70" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G70" s="6" t="inlineStr"/>
-      <c r="H70" s="6" t="inlineStr">
+      <c r="F70" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G70" s="5" t="inlineStr"/>
+      <c r="H70" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I70" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I70" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6559,45 +6559,45 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B126" s="6" t="inlineStr">
+      <c r="A126" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B126" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C126" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D126" s="6" t="inlineStr">
+      <c r="C126" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D126" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E126" s="6" t="inlineStr">
+      <c r="E126" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F126" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G126" s="6" t="inlineStr"/>
-      <c r="H126" s="6" t="inlineStr">
+      <c r="F126" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G126" s="5" t="inlineStr"/>
+      <c r="H126" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I126" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I126" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8991,45 +8991,45 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B182" s="6" t="inlineStr">
+      <c r="A182" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B182" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C182" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D182" s="6" t="inlineStr">
+      <c r="C182" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D182" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E182" s="6" t="inlineStr">
+      <c r="E182" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F182" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G182" s="6" t="inlineStr"/>
-      <c r="H182" s="6" t="inlineStr">
+      <c r="F182" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G182" s="5" t="inlineStr"/>
+      <c r="H182" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I182" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I182" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11427,45 +11427,45 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B238" s="6" t="inlineStr">
+      <c r="A238" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B238" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C238" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D238" s="6" t="inlineStr">
+      <c r="C238" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D238" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E238" s="6" t="inlineStr">
+      <c r="E238" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F238" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G238" s="6" t="inlineStr"/>
-      <c r="H238" s="6" t="inlineStr">
+      <c r="F238" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G238" s="5" t="inlineStr"/>
+      <c r="H238" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I238" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I238" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13867,45 +13867,45 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B294" s="6" t="inlineStr">
+      <c r="A294" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B294" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C294" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D294" s="6" t="inlineStr">
+      <c r="C294" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D294" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E294" s="6" t="inlineStr">
+      <c r="E294" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F294" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G294" s="6" t="inlineStr"/>
-      <c r="H294" s="6" t="inlineStr">
+      <c r="F294" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G294" s="5" t="inlineStr"/>
+      <c r="H294" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I294" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I294" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -16307,45 +16307,45 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B350" s="6" t="inlineStr">
+      <c r="A350" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B350" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C350" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D350" s="6" t="inlineStr">
+      <c r="C350" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D350" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E350" s="6" t="inlineStr">
+      <c r="E350" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F350" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G350" s="6" t="inlineStr"/>
-      <c r="H350" s="6" t="inlineStr">
+      <c r="F350" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G350" s="5" t="inlineStr"/>
+      <c r="H350" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I350" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I350" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -18747,45 +18747,45 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B406" s="6" t="inlineStr">
+      <c r="A406" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B406" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C406" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D406" s="6" t="inlineStr">
+      <c r="C406" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D406" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E406" s="6" t="inlineStr">
+      <c r="E406" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F406" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G406" s="6" t="inlineStr"/>
-      <c r="H406" s="6" t="inlineStr">
+      <c r="F406" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G406" s="5" t="inlineStr"/>
+      <c r="H406" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I406" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I406" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -21187,45 +21187,45 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B462" s="6" t="inlineStr">
+      <c r="A462" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B462" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C462" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D462" s="6" t="inlineStr">
+      <c r="C462" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D462" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E462" s="6" t="inlineStr">
+      <c r="E462" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F462" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G462" s="6" t="inlineStr"/>
-      <c r="H462" s="6" t="inlineStr">
+      <c r="F462" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G462" s="5" t="inlineStr"/>
+      <c r="H462" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I462" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I462" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -23627,45 +23627,45 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B518" s="6" t="inlineStr">
+      <c r="A518" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B518" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C518" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D518" s="6" t="inlineStr">
+      <c r="C518" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D518" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E518" s="6" t="inlineStr">
+      <c r="E518" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F518" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G518" s="6" t="inlineStr"/>
-      <c r="H518" s="6" t="inlineStr">
+      <c r="F518" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G518" s="5" t="inlineStr"/>
+      <c r="H518" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I518" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I518" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -26063,45 +26063,45 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B574" s="6" t="inlineStr">
+      <c r="A574" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B574" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C574" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D574" s="6" t="inlineStr">
+      <c r="C574" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D574" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E574" s="6" t="inlineStr">
+      <c r="E574" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F574" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G574" s="6" t="inlineStr"/>
-      <c r="H574" s="6" t="inlineStr">
+      <c r="F574" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G574" s="5" t="inlineStr"/>
+      <c r="H574" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I574" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I574" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -28495,45 +28495,45 @@
       </c>
     </row>
     <row r="630">
-      <c r="A630" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B630" s="6" t="inlineStr">
+      <c r="A630" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B630" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C630" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D630" s="6" t="inlineStr">
+      <c r="C630" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D630" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E630" s="6" t="inlineStr">
+      <c r="E630" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F630" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G630" s="6" t="inlineStr"/>
-      <c r="H630" s="6" t="inlineStr">
+      <c r="F630" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G630" s="5" t="inlineStr"/>
+      <c r="H630" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I630" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I630" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9">
@@ -969,7 +969,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>12.8%</t>
+          <t>14.3%</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>69.2%</t>
+          <t>68.7%</t>
         </is>
       </c>
     </row>
@@ -1310,10 +1310,10 @@
         <v>8</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1385,22 +1385,22 @@
         <v>56</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
-          <t>10.7%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>57.0%</t>
+          <t>57.3%</t>
         </is>
       </c>
     </row>
@@ -1463,22 +1463,22 @@
         <v>56</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>10.7%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>28.1%</t>
+          <t>35.5%</t>
         </is>
       </c>
     </row>
@@ -1541,22 +1541,22 @@
         <v>56</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
-          <t>10.7%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>77.8%</t>
+          <t>73.8%</t>
         </is>
       </c>
     </row>
@@ -1622,10 +1622,10 @@
         <v>8</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
         <v>8</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
         <v>8</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1934,10 +1934,10 @@
         <v>8</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2012,10 +2012,10 @@
         <v>8</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2087,22 +2087,22 @@
         <v>56</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
-          <t>10.7%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>59.8%</t>
+          <t>65.5%</t>
         </is>
       </c>
     </row>
@@ -2165,22 +2165,22 @@
         <v>56</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
-          <t>10.7%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="S26" s="4" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>48.3%</t>
         </is>
       </c>
     </row>
@@ -2911,45 +2911,45 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B42" s="6" t="inlineStr">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C42" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D42" s="6" t="inlineStr">
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E42" s="6" t="inlineStr">
+      <c r="E42" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F42" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G42" s="6" t="inlineStr"/>
-      <c r="H42" s="6" t="inlineStr">
+      <c r="F42" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G42" s="5" t="inlineStr"/>
+      <c r="H42" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I42" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I42" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -3869,45 +3869,49 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B64" s="5" t="inlineStr">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C64" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D64" s="5" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E64" s="5" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F64" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G64" s="5" t="inlineStr"/>
-      <c r="H64" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I64" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>18/31</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -5085,45 +5089,49 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B92" s="5" t="inlineStr">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C92" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D92" s="5" t="inlineStr">
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="E92" s="5" t="inlineStr">
+      <c r="E92" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F92" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G92" s="5" t="inlineStr"/>
-      <c r="H92" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I92" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>18/31</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -5343,45 +5351,45 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B98" s="6" t="inlineStr">
+      <c r="A98" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B98" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C98" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D98" s="6" t="inlineStr">
+      <c r="C98" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D98" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E98" s="6" t="inlineStr">
+      <c r="E98" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F98" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G98" s="6" t="inlineStr"/>
-      <c r="H98" s="6" t="inlineStr">
+      <c r="F98" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G98" s="5" t="inlineStr"/>
+      <c r="H98" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I98" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I98" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6301,45 +6309,49 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B120" s="5" t="inlineStr">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C120" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D120" s="5" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E120" s="5" t="inlineStr">
+      <c r="E120" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F120" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G120" s="5" t="inlineStr"/>
-      <c r="H120" s="5" t="inlineStr">
-        <is>
-          <t>0/19</t>
-        </is>
-      </c>
-      <c r="I120" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>11/19</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -7517,45 +7529,49 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B148" s="5" t="inlineStr">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C148" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D148" s="5" t="inlineStr">
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="E148" s="5" t="inlineStr">
+      <c r="E148" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F148" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G148" s="5" t="inlineStr"/>
-      <c r="H148" s="5" t="inlineStr">
-        <is>
-          <t>0/19</t>
-        </is>
-      </c>
-      <c r="I148" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F148" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G148" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H148" s="2" t="inlineStr">
+        <is>
+          <t>11/19</t>
+        </is>
+      </c>
+      <c r="I148" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -7775,45 +7791,45 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B154" s="6" t="inlineStr">
+      <c r="A154" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B154" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C154" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D154" s="6" t="inlineStr">
+      <c r="C154" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D154" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E154" s="6" t="inlineStr">
+      <c r="E154" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F154" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G154" s="6" t="inlineStr"/>
-      <c r="H154" s="6" t="inlineStr">
+      <c r="F154" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G154" s="5" t="inlineStr"/>
+      <c r="H154" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I154" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I154" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8733,45 +8749,49 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B176" s="5" t="inlineStr">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C176" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D176" s="5" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E176" s="5" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F176" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G176" s="5" t="inlineStr"/>
-      <c r="H176" s="5" t="inlineStr">
-        <is>
-          <t>0/21</t>
-        </is>
-      </c>
-      <c r="I176" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>13/21</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -9949,45 +9969,49 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B204" s="5" t="inlineStr">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C204" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D204" s="5" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="E204" s="5" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F204" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G204" s="5" t="inlineStr"/>
-      <c r="H204" s="5" t="inlineStr">
-        <is>
-          <t>0/21</t>
-        </is>
-      </c>
-      <c r="I204" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>13/21</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10207,45 +10231,45 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B210" s="6" t="inlineStr">
+      <c r="A210" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B210" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C210" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D210" s="6" t="inlineStr">
+      <c r="C210" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D210" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E210" s="6" t="inlineStr">
+      <c r="E210" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F210" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G210" s="6" t="inlineStr"/>
-      <c r="H210" s="6" t="inlineStr">
+      <c r="F210" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G210" s="5" t="inlineStr"/>
+      <c r="H210" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I210" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I210" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -12647,45 +12671,45 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B266" s="6" t="inlineStr">
+      <c r="A266" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B266" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C266" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D266" s="6" t="inlineStr">
+      <c r="C266" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D266" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E266" s="6" t="inlineStr">
+      <c r="E266" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F266" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G266" s="6" t="inlineStr"/>
-      <c r="H266" s="6" t="inlineStr">
+      <c r="F266" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G266" s="5" t="inlineStr"/>
+      <c r="H266" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I266" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I266" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15087,45 +15111,45 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B322" s="6" t="inlineStr">
+      <c r="A322" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B322" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C322" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D322" s="6" t="inlineStr">
+      <c r="C322" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D322" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E322" s="6" t="inlineStr">
+      <c r="E322" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F322" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G322" s="6" t="inlineStr"/>
-      <c r="H322" s="6" t="inlineStr">
+      <c r="F322" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G322" s="5" t="inlineStr"/>
+      <c r="H322" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I322" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I322" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -17527,45 +17551,45 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B378" s="6" t="inlineStr">
+      <c r="A378" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B378" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C378" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D378" s="6" t="inlineStr">
+      <c r="C378" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D378" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E378" s="6" t="inlineStr">
+      <c r="E378" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F378" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G378" s="6" t="inlineStr"/>
-      <c r="H378" s="6" t="inlineStr">
+      <c r="F378" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G378" s="5" t="inlineStr"/>
+      <c r="H378" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I378" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I378" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -19967,45 +19991,45 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B434" s="6" t="inlineStr">
+      <c r="A434" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B434" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C434" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D434" s="6" t="inlineStr">
+      <c r="C434" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D434" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E434" s="6" t="inlineStr">
+      <c r="E434" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F434" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G434" s="6" t="inlineStr"/>
-      <c r="H434" s="6" t="inlineStr">
+      <c r="F434" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G434" s="5" t="inlineStr"/>
+      <c r="H434" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I434" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I434" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -22407,45 +22431,45 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B490" s="6" t="inlineStr">
+      <c r="A490" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B490" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C490" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D490" s="6" t="inlineStr">
+      <c r="C490" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D490" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E490" s="6" t="inlineStr">
+      <c r="E490" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F490" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G490" s="6" t="inlineStr"/>
-      <c r="H490" s="6" t="inlineStr">
+      <c r="F490" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G490" s="5" t="inlineStr"/>
+      <c r="H490" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I490" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I490" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -24847,45 +24871,45 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B546" s="6" t="inlineStr">
+      <c r="A546" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B546" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C546" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D546" s="6" t="inlineStr">
+      <c r="C546" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D546" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E546" s="6" t="inlineStr">
+      <c r="E546" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F546" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G546" s="6" t="inlineStr"/>
-      <c r="H546" s="6" t="inlineStr">
+      <c r="F546" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G546" s="5" t="inlineStr"/>
+      <c r="H546" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I546" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I546" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -25805,45 +25829,49 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B568" s="5" t="inlineStr">
+      <c r="A568" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B568" s="2" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C568" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D568" s="5" t="inlineStr">
+      <c r="C568" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D568" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E568" s="5" t="inlineStr">
+      <c r="E568" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F568" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G568" s="5" t="inlineStr"/>
-      <c r="H568" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I568" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F568" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G568" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H568" s="2" t="inlineStr">
+        <is>
+          <t>24/29</t>
+        </is>
+      </c>
+      <c r="I568" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -27021,45 +27049,49 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B596" s="5" t="inlineStr">
+      <c r="A596" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B596" s="2" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C596" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D596" s="5" t="inlineStr">
+      <c r="C596" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D596" s="2" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="E596" s="5" t="inlineStr">
+      <c r="E596" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F596" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G596" s="5" t="inlineStr"/>
-      <c r="H596" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I596" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F596" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G596" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H596" s="2" t="inlineStr">
+        <is>
+          <t>24/29</t>
+        </is>
+      </c>
+      <c r="I596" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -27279,45 +27311,45 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B602" s="6" t="inlineStr">
+      <c r="A602" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B602" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C602" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D602" s="6" t="inlineStr">
+      <c r="C602" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D602" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E602" s="6" t="inlineStr">
+      <c r="E602" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F602" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G602" s="6" t="inlineStr"/>
-      <c r="H602" s="6" t="inlineStr">
+      <c r="F602" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G602" s="5" t="inlineStr"/>
+      <c r="H602" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I602" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I602" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -28237,45 +28269,49 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B624" s="5" t="inlineStr">
+      <c r="A624" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B624" s="2" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C624" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D624" s="5" t="inlineStr">
+      <c r="C624" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D624" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E624" s="5" t="inlineStr">
+      <c r="E624" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F624" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G624" s="5" t="inlineStr"/>
-      <c r="H624" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I624" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F624" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G624" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H624" s="2" t="inlineStr">
+        <is>
+          <t>18/29</t>
+        </is>
+      </c>
+      <c r="I624" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -29453,45 +29489,49 @@
       </c>
     </row>
     <row r="652">
-      <c r="A652" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B652" s="5" t="inlineStr">
+      <c r="A652" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B652" s="2" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C652" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D652" s="5" t="inlineStr">
+      <c r="C652" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D652" s="2" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="E652" s="5" t="inlineStr">
+      <c r="E652" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F652" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G652" s="5" t="inlineStr"/>
-      <c r="H652" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I652" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F652" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G652" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H652" s="2" t="inlineStr">
+        <is>
+          <t>18/29</t>
+        </is>
+      </c>
+      <c r="I652" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -29711,45 +29751,45 @@
       </c>
     </row>
     <row r="658">
-      <c r="A658" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B658" s="6" t="inlineStr">
+      <c r="A658" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B658" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C658" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D658" s="6" t="inlineStr">
+      <c r="C658" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D658" s="5" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E658" s="6" t="inlineStr">
+      <c r="E658" s="5" t="inlineStr">
         <is>
           <t>28/12/2025</t>
         </is>
       </c>
-      <c r="F658" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G658" s="6" t="inlineStr"/>
-      <c r="H658" s="6" t="inlineStr">
+      <c r="F658" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G658" s="5" t="inlineStr"/>
+      <c r="H658" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I658" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I658" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -713,45 +713,49 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14/27</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
@@ -811,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
@@ -862,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +973,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>17.3%</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1026,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>68.7%</t>
+          <t>60.8%</t>
         </is>
       </c>
     </row>
@@ -1307,22 +1311,22 @@
         <v>56</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>30</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S15" s="4" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>70.4%</t>
         </is>
       </c>
     </row>
@@ -1385,22 +1389,22 @@
         <v>56</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>30</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>57.3%</t>
+          <t>48.4%</t>
         </is>
       </c>
     </row>
@@ -1463,22 +1467,22 @@
         <v>56</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>30</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>35.5%</t>
+          <t>35.8%</t>
         </is>
       </c>
     </row>
@@ -1541,22 +1545,22 @@
         <v>56</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>30</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>73.8%</t>
+          <t>67.6%</t>
         </is>
       </c>
     </row>
@@ -1619,22 +1623,22 @@
         <v>56</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>30</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>89.5%</t>
+          <t>80.6%</t>
         </is>
       </c>
     </row>
@@ -1697,22 +1701,22 @@
         <v>56</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>30</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>80.4%</t>
+          <t>65.7%</t>
         </is>
       </c>
     </row>
@@ -1775,22 +1779,22 @@
         <v>56</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>30</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>90.5%</t>
+          <t>74.5%</t>
         </is>
       </c>
     </row>
@@ -1853,22 +1857,22 @@
         <v>56</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>30</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>90.2%</t>
+          <t>73.3%</t>
         </is>
       </c>
     </row>
@@ -1931,22 +1935,22 @@
         <v>56</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>30</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>69.2%</t>
+          <t>58.0%</t>
         </is>
       </c>
     </row>
@@ -2087,22 +2091,22 @@
         <v>56</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>30</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>65.5%</t>
+          <t>53.1%</t>
         </is>
       </c>
     </row>
@@ -2505,45 +2509,49 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D33" s="5" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G33" s="5" t="inlineStr"/>
-      <c r="H33" s="5" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I33" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>14/27</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
       <c r="K33" s="4" t="inlineStr">
@@ -3740,45 +3748,49 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B61" s="5" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C61" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D61" s="5" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E61" s="5" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F61" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G61" s="5" t="inlineStr"/>
-      <c r="H61" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I61" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>4/31</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -4960,45 +4972,49 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B89" s="5" t="inlineStr">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C89" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D89" s="5" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E89" s="5" t="inlineStr">
+      <c r="E89" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F89" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G89" s="5" t="inlineStr"/>
-      <c r="H89" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I89" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>4/31</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -6180,45 +6196,49 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B117" s="5" t="inlineStr">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C117" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D117" s="5" t="inlineStr">
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E117" s="5" t="inlineStr">
+      <c r="E117" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F117" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G117" s="5" t="inlineStr"/>
-      <c r="H117" s="5" t="inlineStr">
-        <is>
-          <t>0/19</t>
-        </is>
-      </c>
-      <c r="I117" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H117" s="2" t="inlineStr">
+        <is>
+          <t>7/19</t>
+        </is>
+      </c>
+      <c r="I117" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -7400,45 +7420,49 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B145" s="5" t="inlineStr">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C145" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D145" s="5" t="inlineStr">
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E145" s="5" t="inlineStr">
+      <c r="E145" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F145" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G145" s="5" t="inlineStr"/>
-      <c r="H145" s="5" t="inlineStr">
-        <is>
-          <t>0/19</t>
-        </is>
-      </c>
-      <c r="I145" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F145" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>7/19</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -8620,45 +8644,49 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B173" s="5" t="inlineStr">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C173" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D173" s="5" t="inlineStr">
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E173" s="5" t="inlineStr">
+      <c r="E173" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F173" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G173" s="5" t="inlineStr"/>
-      <c r="H173" s="5" t="inlineStr">
-        <is>
-          <t>0/21</t>
-        </is>
-      </c>
-      <c r="I173" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G173" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>9/21</t>
+        </is>
+      </c>
+      <c r="I173" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -9840,45 +9868,49 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B201" s="5" t="inlineStr">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C201" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D201" s="5" t="inlineStr">
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E201" s="5" t="inlineStr">
+      <c r="E201" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F201" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G201" s="5" t="inlineStr"/>
-      <c r="H201" s="5" t="inlineStr">
-        <is>
-          <t>0/21</t>
-        </is>
-      </c>
-      <c r="I201" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
+        <is>
+          <t>9/21</t>
+        </is>
+      </c>
+      <c r="I201" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -11060,45 +11092,49 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B229" s="5" t="inlineStr">
+      <c r="A229" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C229" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D229" s="5" t="inlineStr">
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E229" s="5" t="inlineStr">
+      <c r="E229" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F229" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G229" s="5" t="inlineStr"/>
-      <c r="H229" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I229" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F229" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G229" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H229" s="2" t="inlineStr">
+        <is>
+          <t>14/31</t>
+        </is>
+      </c>
+      <c r="I229" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -12280,45 +12316,49 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B257" s="5" t="inlineStr">
+      <c r="A257" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B257" s="2" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C257" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D257" s="5" t="inlineStr">
+      <c r="C257" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E257" s="5" t="inlineStr">
+      <c r="E257" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F257" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G257" s="5" t="inlineStr"/>
-      <c r="H257" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I257" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F257" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>14/31</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -13500,45 +13540,49 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B285" s="5" t="inlineStr">
+      <c r="A285" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B285" s="2" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C285" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D285" s="5" t="inlineStr">
+      <c r="C285" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D285" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E285" s="5" t="inlineStr">
+      <c r="E285" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F285" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G285" s="5" t="inlineStr"/>
-      <c r="H285" s="5" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I285" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F285" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G285" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H285" s="2" t="inlineStr">
+        <is>
+          <t>2/28</t>
+        </is>
+      </c>
+      <c r="I285" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -14720,45 +14764,49 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B313" s="5" t="inlineStr">
+      <c r="A313" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B313" s="2" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C313" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D313" s="5" t="inlineStr">
+      <c r="C313" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D313" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E313" s="5" t="inlineStr">
+      <c r="E313" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F313" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G313" s="5" t="inlineStr"/>
-      <c r="H313" s="5" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I313" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F313" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G313" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H313" s="2" t="inlineStr">
+        <is>
+          <t>2/28</t>
+        </is>
+      </c>
+      <c r="I313" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -15940,45 +15988,49 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B341" s="5" t="inlineStr">
+      <c r="A341" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B341" s="2" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C341" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D341" s="5" t="inlineStr">
+      <c r="C341" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D341" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E341" s="5" t="inlineStr">
+      <c r="E341" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F341" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G341" s="5" t="inlineStr"/>
-      <c r="H341" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I341" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F341" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G341" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H341" s="2" t="inlineStr">
+        <is>
+          <t>3/29</t>
+        </is>
+      </c>
+      <c r="I341" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -17160,45 +17212,49 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B369" s="5" t="inlineStr">
+      <c r="A369" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B369" s="2" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C369" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D369" s="5" t="inlineStr">
+      <c r="C369" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D369" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E369" s="5" t="inlineStr">
+      <c r="E369" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F369" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G369" s="5" t="inlineStr"/>
-      <c r="H369" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I369" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F369" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G369" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H369" s="2" t="inlineStr">
+        <is>
+          <t>3/29</t>
+        </is>
+      </c>
+      <c r="I369" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -18380,45 +18436,49 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B397" s="5" t="inlineStr">
+      <c r="A397" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B397" s="2" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C397" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D397" s="5" t="inlineStr">
+      <c r="C397" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D397" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E397" s="5" t="inlineStr">
+      <c r="E397" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F397" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G397" s="5" t="inlineStr"/>
-      <c r="H397" s="5" t="inlineStr">
-        <is>
-          <t>0/33</t>
-        </is>
-      </c>
-      <c r="I397" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F397" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G397" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H397" s="2" t="inlineStr">
+        <is>
+          <t>2/33</t>
+        </is>
+      </c>
+      <c r="I397" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -19600,45 +19660,49 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B425" s="5" t="inlineStr">
+      <c r="A425" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B425" s="2" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C425" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D425" s="5" t="inlineStr">
+      <c r="C425" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D425" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E425" s="5" t="inlineStr">
+      <c r="E425" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F425" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G425" s="5" t="inlineStr"/>
-      <c r="H425" s="5" t="inlineStr">
-        <is>
-          <t>0/33</t>
-        </is>
-      </c>
-      <c r="I425" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F425" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G425" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H425" s="2" t="inlineStr">
+        <is>
+          <t>2/33</t>
+        </is>
+      </c>
+      <c r="I425" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -20820,45 +20884,49 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B453" s="5" t="inlineStr">
+      <c r="A453" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B453" s="2" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C453" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D453" s="5" t="inlineStr">
+      <c r="C453" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D453" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E453" s="5" t="inlineStr">
+      <c r="E453" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F453" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G453" s="5" t="inlineStr"/>
-      <c r="H453" s="5" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I453" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F453" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G453" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H453" s="2" t="inlineStr">
+        <is>
+          <t>4/30</t>
+        </is>
+      </c>
+      <c r="I453" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -22040,45 +22108,49 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B481" s="5" t="inlineStr">
+      <c r="A481" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B481" s="2" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C481" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D481" s="5" t="inlineStr">
+      <c r="C481" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D481" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E481" s="5" t="inlineStr">
+      <c r="E481" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F481" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G481" s="5" t="inlineStr"/>
-      <c r="H481" s="5" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I481" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F481" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G481" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H481" s="2" t="inlineStr">
+        <is>
+          <t>4/30</t>
+        </is>
+      </c>
+      <c r="I481" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -25700,45 +25772,49 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B565" s="5" t="inlineStr">
+      <c r="A565" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B565" s="2" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C565" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D565" s="5" t="inlineStr">
+      <c r="C565" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D565" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E565" s="5" t="inlineStr">
+      <c r="E565" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F565" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G565" s="5" t="inlineStr"/>
-      <c r="H565" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I565" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F565" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G565" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H565" s="2" t="inlineStr">
+        <is>
+          <t>1/29</t>
+        </is>
+      </c>
+      <c r="I565" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -26920,45 +26996,49 @@
       </c>
     </row>
     <row r="593">
-      <c r="A593" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B593" s="5" t="inlineStr">
+      <c r="A593" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B593" s="2" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C593" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D593" s="5" t="inlineStr">
+      <c r="C593" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D593" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E593" s="5" t="inlineStr">
+      <c r="E593" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F593" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G593" s="5" t="inlineStr"/>
-      <c r="H593" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I593" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F593" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G593" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H593" s="2" t="inlineStr">
+        <is>
+          <t>1/29</t>
+        </is>
+      </c>
+      <c r="I593" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -750,7 +750,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14/27</t>
+          <t>19/27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>60.8%</t>
+          <t>61.9%</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="S15" s="4" t="inlineStr">
         <is>
-          <t>70.4%</t>
+          <t>74.1%</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>67.6%</t>
+          <t>72.4%</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>80.6%</t>
+          <t>83.9%</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>65.7%</t>
+          <t>66.4%</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>14/27</t>
+          <t>19/27</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -8681,7 +8681,7 @@
       </c>
       <c r="H173" s="2" t="inlineStr">
         <is>
-          <t>9/21</t>
+          <t>14/21</t>
         </is>
       </c>
       <c r="I173" s="2" t="inlineStr">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="H201" s="2" t="inlineStr">
         <is>
-          <t>9/21</t>
+          <t>14/21</t>
         </is>
       </c>
       <c r="I201" s="2" t="inlineStr">
@@ -11129,7 +11129,7 @@
       </c>
       <c r="H229" s="2" t="inlineStr">
         <is>
-          <t>14/31</t>
+          <t>19/31</t>
         </is>
       </c>
       <c r="I229" s="2" t="inlineStr">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="H257" s="2" t="inlineStr">
         <is>
-          <t>14/31</t>
+          <t>19/31</t>
         </is>
       </c>
       <c r="I257" s="2" t="inlineStr">
@@ -13577,7 +13577,7 @@
       </c>
       <c r="H285" s="2" t="inlineStr">
         <is>
-          <t>2/28</t>
+          <t>3/28</t>
         </is>
       </c>
       <c r="I285" s="2" t="inlineStr">
@@ -14801,7 +14801,7 @@
       </c>
       <c r="H313" s="2" t="inlineStr">
         <is>
-          <t>2/28</t>
+          <t>3/28</t>
         </is>
       </c>
       <c r="I313" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -1026,7 +1026,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>61.9%</t>
+          <t>66.9%</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>83.9%</t>
+          <t>89.7%</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>66.4%</t>
+          <t>83.6%</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>74.5%</t>
+          <t>89.0%</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>73.3%</t>
+          <t>84.8%</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>58.0%</t>
+          <t>66.0%</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>53.1%</t>
+          <t>54.5%</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
       </c>
       <c r="H229" s="2" t="inlineStr">
         <is>
-          <t>19/31</t>
+          <t>28/31</t>
         </is>
       </c>
       <c r="I229" s="2" t="inlineStr">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="H257" s="2" t="inlineStr">
         <is>
-          <t>19/31</t>
+          <t>28/31</t>
         </is>
       </c>
       <c r="I257" s="2" t="inlineStr">
@@ -13577,7 +13577,7 @@
       </c>
       <c r="H285" s="2" t="inlineStr">
         <is>
-          <t>3/28</t>
+          <t>27/28</t>
         </is>
       </c>
       <c r="I285" s="2" t="inlineStr">
@@ -14801,7 +14801,7 @@
       </c>
       <c r="H313" s="2" t="inlineStr">
         <is>
-          <t>3/28</t>
+          <t>27/28</t>
         </is>
       </c>
       <c r="I313" s="2" t="inlineStr">
@@ -16025,7 +16025,7 @@
       </c>
       <c r="H341" s="2" t="inlineStr">
         <is>
-          <t>3/29</t>
+          <t>24/29</t>
         </is>
       </c>
       <c r="I341" s="2" t="inlineStr">
@@ -17249,7 +17249,7 @@
       </c>
       <c r="H369" s="2" t="inlineStr">
         <is>
-          <t>3/29</t>
+          <t>24/29</t>
         </is>
       </c>
       <c r="I369" s="2" t="inlineStr">
@@ -18473,7 +18473,7 @@
       </c>
       <c r="H397" s="2" t="inlineStr">
         <is>
-          <t>2/33</t>
+          <t>21/33</t>
         </is>
       </c>
       <c r="I397" s="2" t="inlineStr">
@@ -19697,7 +19697,7 @@
       </c>
       <c r="H425" s="2" t="inlineStr">
         <is>
-          <t>2/33</t>
+          <t>21/33</t>
         </is>
       </c>
       <c r="I425" s="2" t="inlineStr">
@@ -20921,7 +20921,7 @@
       </c>
       <c r="H453" s="2" t="inlineStr">
         <is>
-          <t>4/30</t>
+          <t>16/30</t>
         </is>
       </c>
       <c r="I453" s="2" t="inlineStr">
@@ -22145,7 +22145,7 @@
       </c>
       <c r="H481" s="2" t="inlineStr">
         <is>
-          <t>4/30</t>
+          <t>16/30</t>
         </is>
       </c>
       <c r="I481" s="2" t="inlineStr">
@@ -25809,7 +25809,7 @@
       </c>
       <c r="H565" s="2" t="inlineStr">
         <is>
-          <t>1/29</t>
+          <t>3/29</t>
         </is>
       </c>
       <c r="I565" s="2" t="inlineStr">
@@ -27033,7 +27033,7 @@
       </c>
       <c r="H593" s="2" t="inlineStr">
         <is>
-          <t>1/29</t>
+          <t>3/29</t>
         </is>
       </c>
       <c r="I593" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8">
@@ -973,7 +973,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>17.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>66.9%</t>
+          <t>67.3%</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>48.4%</t>
+          <t>55.5%</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>84.8%</t>
+          <t>89.1%</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>66.0%</t>
+          <t>67.3%</t>
         </is>
       </c>
     </row>
@@ -2013,22 +2013,22 @@
         <v>56</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>30</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>49.1%</t>
+          <t>43.0%</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>54.5%</t>
+          <t>62.8%</t>
         </is>
       </c>
     </row>
@@ -2169,22 +2169,22 @@
         <v>56</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>30</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="S26" s="4" t="inlineStr">
         <is>
-          <t>48.3%</t>
+          <t>45.5%</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>4/31</t>
+          <t>15/31</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>4/31</t>
+          <t>15/31</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
@@ -18473,7 +18473,7 @@
       </c>
       <c r="H397" s="2" t="inlineStr">
         <is>
-          <t>21/33</t>
+          <t>28/33</t>
         </is>
       </c>
       <c r="I397" s="2" t="inlineStr">
@@ -19697,7 +19697,7 @@
       </c>
       <c r="H425" s="2" t="inlineStr">
         <is>
-          <t>21/33</t>
+          <t>28/33</t>
         </is>
       </c>
       <c r="I425" s="2" t="inlineStr">
@@ -20921,7 +20921,7 @@
       </c>
       <c r="H453" s="2" t="inlineStr">
         <is>
-          <t>16/30</t>
+          <t>18/30</t>
         </is>
       </c>
       <c r="I453" s="2" t="inlineStr">
@@ -22145,7 +22145,7 @@
       </c>
       <c r="H481" s="2" t="inlineStr">
         <is>
-          <t>16/30</t>
+          <t>18/30</t>
         </is>
       </c>
       <c r="I481" s="2" t="inlineStr">
@@ -23332,45 +23332,49 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B509" s="5" t="inlineStr">
+      <c r="A509" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B509" s="2" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C509" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D509" s="5" t="inlineStr">
+      <c r="C509" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D509" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E509" s="5" t="inlineStr">
+      <c r="E509" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F509" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G509" s="5" t="inlineStr"/>
-      <c r="H509" s="5" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I509" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F509" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G509" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H509" s="2" t="inlineStr">
+        <is>
+          <t>5/27</t>
+        </is>
+      </c>
+      <c r="I509" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -24552,45 +24556,49 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B537" s="5" t="inlineStr">
+      <c r="A537" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B537" s="2" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C537" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D537" s="5" t="inlineStr">
+      <c r="C537" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D537" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E537" s="5" t="inlineStr">
+      <c r="E537" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F537" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G537" s="5" t="inlineStr"/>
-      <c r="H537" s="5" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I537" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F537" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G537" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H537" s="2" t="inlineStr">
+        <is>
+          <t>5/27</t>
+        </is>
+      </c>
+      <c r="I537" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -25809,7 +25817,7 @@
       </c>
       <c r="H565" s="2" t="inlineStr">
         <is>
-          <t>3/29</t>
+          <t>15/29</t>
         </is>
       </c>
       <c r="I565" s="2" t="inlineStr">
@@ -27033,7 +27041,7 @@
       </c>
       <c r="H593" s="2" t="inlineStr">
         <is>
-          <t>3/29</t>
+          <t>15/29</t>
         </is>
       </c>
       <c r="I593" s="2" t="inlineStr">
@@ -28220,45 +28228,49 @@
       </c>
     </row>
     <row r="621">
-      <c r="A621" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B621" s="5" t="inlineStr">
+      <c r="A621" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B621" s="2" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C621" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D621" s="5" t="inlineStr">
+      <c r="C621" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D621" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E621" s="5" t="inlineStr">
+      <c r="E621" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F621" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G621" s="5" t="inlineStr"/>
-      <c r="H621" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I621" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F621" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G621" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H621" s="2" t="inlineStr">
+        <is>
+          <t>10/29</t>
+        </is>
+      </c>
+      <c r="I621" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -29440,45 +29452,49 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B649" s="5" t="inlineStr">
+      <c r="A649" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B649" s="2" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C649" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D649" s="5" t="inlineStr">
+      <c r="C649" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D649" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E649" s="5" t="inlineStr">
+      <c r="E649" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F649" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G649" s="5" t="inlineStr"/>
-      <c r="H649" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I649" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F649" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G649" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H649" s="2" t="inlineStr">
+        <is>
+          <t>10/29</t>
+        </is>
+      </c>
+      <c r="I649" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9">
@@ -1253,45 +1253,45 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E15" s="6" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F15" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G15" s="6" t="inlineStr"/>
-      <c r="H15" s="6" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I15" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K15" s="4" t="inlineStr">
@@ -1314,10 +1314,10 @@
         <v>10</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1392,10 +1392,10 @@
         <v>10</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1470,10 +1470,10 @@
         <v>10</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1548,10 +1548,10 @@
         <v>10</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1626,10 +1626,10 @@
         <v>10</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1704,10 +1704,10 @@
         <v>10</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1782,10 +1782,10 @@
         <v>10</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1860,10 +1860,10 @@
         <v>10</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1938,10 +1938,10 @@
         <v>10</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2016,10 +2016,10 @@
         <v>10</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2094,10 +2094,10 @@
         <v>10</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2172,10 +2172,10 @@
         <v>10</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -4186,45 +4186,45 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B71" s="6" t="inlineStr">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B71" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C71" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D71" s="6" t="inlineStr">
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D71" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E71" s="6" t="inlineStr">
+      <c r="E71" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F71" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G71" s="6" t="inlineStr"/>
-      <c r="H71" s="6" t="inlineStr">
+      <c r="F71" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G71" s="5" t="inlineStr"/>
+      <c r="H71" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I71" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I71" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6634,45 +6634,45 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B127" s="6" t="inlineStr">
+      <c r="A127" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B127" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C127" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D127" s="6" t="inlineStr">
+      <c r="C127" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D127" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E127" s="6" t="inlineStr">
+      <c r="E127" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F127" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G127" s="6" t="inlineStr"/>
-      <c r="H127" s="6" t="inlineStr">
+      <c r="F127" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G127" s="5" t="inlineStr"/>
+      <c r="H127" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I127" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I127" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9082,45 +9082,45 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B183" s="6" t="inlineStr">
+      <c r="A183" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B183" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C183" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D183" s="6" t="inlineStr">
+      <c r="C183" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D183" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E183" s="6" t="inlineStr">
+      <c r="E183" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F183" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G183" s="6" t="inlineStr"/>
-      <c r="H183" s="6" t="inlineStr">
+      <c r="F183" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G183" s="5" t="inlineStr"/>
+      <c r="H183" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I183" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I183" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11530,45 +11530,45 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B239" s="6" t="inlineStr">
+      <c r="A239" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B239" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C239" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D239" s="6" t="inlineStr">
+      <c r="C239" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D239" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E239" s="6" t="inlineStr">
+      <c r="E239" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F239" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G239" s="6" t="inlineStr"/>
-      <c r="H239" s="6" t="inlineStr">
+      <c r="F239" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G239" s="5" t="inlineStr"/>
+      <c r="H239" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I239" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I239" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13978,45 +13978,45 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B295" s="6" t="inlineStr">
+      <c r="A295" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B295" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C295" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D295" s="6" t="inlineStr">
+      <c r="C295" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D295" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E295" s="6" t="inlineStr">
+      <c r="E295" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F295" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G295" s="6" t="inlineStr"/>
-      <c r="H295" s="6" t="inlineStr">
+      <c r="F295" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G295" s="5" t="inlineStr"/>
+      <c r="H295" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I295" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I295" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -16426,45 +16426,45 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B351" s="6" t="inlineStr">
+      <c r="A351" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B351" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C351" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D351" s="6" t="inlineStr">
+      <c r="C351" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D351" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E351" s="6" t="inlineStr">
+      <c r="E351" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F351" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G351" s="6" t="inlineStr"/>
-      <c r="H351" s="6" t="inlineStr">
+      <c r="F351" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G351" s="5" t="inlineStr"/>
+      <c r="H351" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I351" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I351" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -18874,45 +18874,45 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B407" s="6" t="inlineStr">
+      <c r="A407" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B407" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C407" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D407" s="6" t="inlineStr">
+      <c r="C407" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D407" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E407" s="6" t="inlineStr">
+      <c r="E407" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F407" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G407" s="6" t="inlineStr"/>
-      <c r="H407" s="6" t="inlineStr">
+      <c r="F407" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G407" s="5" t="inlineStr"/>
+      <c r="H407" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I407" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I407" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -21322,45 +21322,45 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B463" s="6" t="inlineStr">
+      <c r="A463" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B463" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C463" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D463" s="6" t="inlineStr">
+      <c r="C463" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D463" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E463" s="6" t="inlineStr">
+      <c r="E463" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F463" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G463" s="6" t="inlineStr"/>
-      <c r="H463" s="6" t="inlineStr">
+      <c r="F463" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G463" s="5" t="inlineStr"/>
+      <c r="H463" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I463" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I463" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -23770,45 +23770,45 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B519" s="6" t="inlineStr">
+      <c r="A519" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B519" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C519" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D519" s="6" t="inlineStr">
+      <c r="C519" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D519" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E519" s="6" t="inlineStr">
+      <c r="E519" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F519" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G519" s="6" t="inlineStr"/>
-      <c r="H519" s="6" t="inlineStr">
+      <c r="F519" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G519" s="5" t="inlineStr"/>
+      <c r="H519" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I519" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I519" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -26218,45 +26218,45 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B575" s="6" t="inlineStr">
+      <c r="A575" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B575" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C575" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D575" s="6" t="inlineStr">
+      <c r="C575" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D575" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E575" s="6" t="inlineStr">
+      <c r="E575" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F575" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G575" s="6" t="inlineStr"/>
-      <c r="H575" s="6" t="inlineStr">
+      <c r="F575" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G575" s="5" t="inlineStr"/>
+      <c r="H575" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I575" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I575" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -28666,45 +28666,45 @@
       </c>
     </row>
     <row r="631">
-      <c r="A631" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B631" s="6" t="inlineStr">
+      <c r="A631" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B631" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C631" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D631" s="6" t="inlineStr">
+      <c r="C631" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D631" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E631" s="6" t="inlineStr">
+      <c r="E631" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F631" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G631" s="6" t="inlineStr"/>
-      <c r="H631" s="6" t="inlineStr">
+      <c r="F631" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G631" s="5" t="inlineStr"/>
+      <c r="H631" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I631" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I631" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -973,7 +973,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>17.9%</t>
+          <t>18.5%</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>67.3%</t>
+          <t>65.9%</t>
         </is>
       </c>
     </row>
@@ -1935,22 +1935,22 @@
         <v>56</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>29</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
-          <t>17.9%</t>
+          <t>21.4%</t>
         </is>
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>67.3%</t>
+          <t>56.7%</t>
         </is>
       </c>
     </row>
@@ -2091,22 +2091,22 @@
         <v>56</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>29</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
-          <t>17.9%</t>
+          <t>21.4%</t>
         </is>
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>59.2%</t>
         </is>
       </c>
     </row>
@@ -21064,45 +21064,49 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B457" s="5" t="inlineStr">
+      <c r="A457" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C457" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D457" s="5" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D457" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E457" s="5" t="inlineStr">
+      <c r="E457" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F457" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G457" s="5" t="inlineStr"/>
-      <c r="H457" s="5" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I457" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F457" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G457" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>1/30</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -22288,45 +22292,49 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B485" s="5" t="inlineStr">
+      <c r="A485" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B485" s="2" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C485" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D485" s="5" t="inlineStr">
+      <c r="C485" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D485" s="2" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="E485" s="5" t="inlineStr">
+      <c r="E485" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F485" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G485" s="5" t="inlineStr"/>
-      <c r="H485" s="5" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I485" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F485" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G485" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H485" s="2" t="inlineStr">
+        <is>
+          <t>1/30</t>
+        </is>
+      </c>
+      <c r="I485" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -25960,45 +25968,49 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B569" s="5" t="inlineStr">
+      <c r="A569" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B569" s="2" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C569" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D569" s="5" t="inlineStr">
+      <c r="C569" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D569" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E569" s="5" t="inlineStr">
+      <c r="E569" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F569" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G569" s="5" t="inlineStr"/>
-      <c r="H569" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I569" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F569" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G569" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H569" s="2" t="inlineStr">
+        <is>
+          <t>12/29</t>
+        </is>
+      </c>
+      <c r="I569" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -27184,45 +27196,49 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B597" s="5" t="inlineStr">
+      <c r="A597" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B597" s="2" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C597" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D597" s="5" t="inlineStr">
+      <c r="C597" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D597" s="2" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="E597" s="5" t="inlineStr">
+      <c r="E597" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F597" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G597" s="5" t="inlineStr"/>
-      <c r="H597" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I597" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F597" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G597" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H597" s="2" t="inlineStr">
+        <is>
+          <t>12/29</t>
+        </is>
+      </c>
+      <c r="I597" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9">
@@ -973,7 +973,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>18.5%</t>
+          <t>21.1%</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>65.9%</t>
+          <t>62.7%</t>
         </is>
       </c>
     </row>
@@ -1314,10 +1314,10 @@
         <v>10</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1389,22 +1389,22 @@
         <v>56</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
-          <t>17.9%</t>
+          <t>21.4%</t>
         </is>
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>55.5%</t>
+          <t>50.5%</t>
         </is>
       </c>
     </row>
@@ -1467,22 +1467,22 @@
         <v>56</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>17.9%</t>
+          <t>21.4%</t>
         </is>
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>35.8%</t>
+          <t>34.2%</t>
         </is>
       </c>
     </row>
@@ -1545,22 +1545,22 @@
         <v>56</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
-          <t>17.9%</t>
+          <t>21.4%</t>
         </is>
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>72.4%</t>
+          <t>70.6%</t>
         </is>
       </c>
     </row>
@@ -1623,22 +1623,22 @@
         <v>56</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
-          <t>17.9%</t>
+          <t>21.4%</t>
         </is>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>89.7%</t>
+          <t>75.8%</t>
         </is>
       </c>
     </row>
@@ -1701,22 +1701,22 @@
         <v>56</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
-          <t>17.9%</t>
+          <t>21.4%</t>
         </is>
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>83.6%</t>
+          <t>70.2%</t>
         </is>
       </c>
     </row>
@@ -1779,22 +1779,22 @@
         <v>56</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
-          <t>17.9%</t>
+          <t>21.4%</t>
         </is>
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>89.0%</t>
+          <t>75.3%</t>
         </is>
       </c>
     </row>
@@ -1857,22 +1857,22 @@
         <v>56</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
-          <t>17.9%</t>
+          <t>21.4%</t>
         </is>
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>89.1%</t>
+          <t>86.4%</t>
         </is>
       </c>
     </row>
@@ -1938,10 +1938,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>56.7%</t>
+          <t>67.2%</t>
         </is>
       </c>
     </row>
@@ -2013,22 +2013,22 @@
         <v>56</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
-          <t>17.9%</t>
+          <t>21.4%</t>
         </is>
       </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>43.0%</t>
+          <t>41.4%</t>
         </is>
       </c>
     </row>
@@ -2094,10 +2094,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>59.2%</t>
+          <t>62.1%</t>
         </is>
       </c>
     </row>
@@ -2169,22 +2169,22 @@
         <v>56</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
-          <t>17.9%</t>
+          <t>21.4%</t>
         </is>
       </c>
       <c r="S26" s="4" t="inlineStr">
         <is>
-          <t>45.5%</t>
+          <t>46.6%</t>
         </is>
       </c>
     </row>
@@ -2962,45 +2962,45 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B43" s="6" t="inlineStr">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C43" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D43" s="6" t="inlineStr">
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="E43" s="6" t="inlineStr">
+      <c r="E43" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F43" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G43" s="6" t="inlineStr"/>
-      <c r="H43" s="6" t="inlineStr">
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G43" s="5" t="inlineStr"/>
+      <c r="H43" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I43" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I43" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -3928,45 +3928,49 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B65" s="5" t="inlineStr">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C65" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D65" s="5" t="inlineStr">
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E65" s="5" t="inlineStr">
+      <c r="E65" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F65" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G65" s="5" t="inlineStr"/>
-      <c r="H65" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I65" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>8/31</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -5152,45 +5156,49 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B93" s="5" t="inlineStr">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C93" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D93" s="5" t="inlineStr">
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="E93" s="5" t="inlineStr">
+      <c r="E93" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F93" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G93" s="5" t="inlineStr"/>
-      <c r="H93" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I93" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="inlineStr">
+        <is>
+          <t>8/31</t>
+        </is>
+      </c>
+      <c r="I93" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -5410,45 +5418,45 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B99" s="6" t="inlineStr">
+      <c r="A99" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B99" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C99" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D99" s="6" t="inlineStr">
+      <c r="C99" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D99" s="5" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="E99" s="6" t="inlineStr">
+      <c r="E99" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F99" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G99" s="6" t="inlineStr"/>
-      <c r="H99" s="6" t="inlineStr">
+      <c r="F99" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G99" s="5" t="inlineStr"/>
+      <c r="H99" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I99" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I99" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6376,45 +6384,49 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B121" s="5" t="inlineStr">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C121" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D121" s="5" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E121" s="5" t="inlineStr">
+      <c r="E121" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F121" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G121" s="5" t="inlineStr"/>
-      <c r="H121" s="5" t="inlineStr">
-        <is>
-          <t>0/19</t>
-        </is>
-      </c>
-      <c r="I121" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>5/19</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -7600,45 +7612,49 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B149" s="5" t="inlineStr">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C149" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D149" s="5" t="inlineStr">
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="E149" s="5" t="inlineStr">
+      <c r="E149" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F149" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G149" s="5" t="inlineStr"/>
-      <c r="H149" s="5" t="inlineStr">
-        <is>
-          <t>0/19</t>
-        </is>
-      </c>
-      <c r="I149" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F149" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G149" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H149" s="2" t="inlineStr">
+        <is>
+          <t>5/19</t>
+        </is>
+      </c>
+      <c r="I149" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -7858,45 +7874,45 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B155" s="6" t="inlineStr">
+      <c r="A155" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B155" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C155" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D155" s="6" t="inlineStr">
+      <c r="C155" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D155" s="5" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="E155" s="6" t="inlineStr">
+      <c r="E155" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F155" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G155" s="6" t="inlineStr"/>
-      <c r="H155" s="6" t="inlineStr">
+      <c r="F155" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G155" s="5" t="inlineStr"/>
+      <c r="H155" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I155" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I155" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8824,45 +8840,49 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B177" s="5" t="inlineStr">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C177" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D177" s="5" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E177" s="5" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F177" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G177" s="5" t="inlineStr"/>
-      <c r="H177" s="5" t="inlineStr">
-        <is>
-          <t>0/21</t>
-        </is>
-      </c>
-      <c r="I177" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>13/21</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10048,45 +10068,49 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B205" s="5" t="inlineStr">
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C205" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D205" s="5" t="inlineStr">
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="E205" s="5" t="inlineStr">
+      <c r="E205" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F205" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G205" s="5" t="inlineStr"/>
-      <c r="H205" s="5" t="inlineStr">
-        <is>
-          <t>0/21</t>
-        </is>
-      </c>
-      <c r="I205" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
+        <is>
+          <t>13/21</t>
+        </is>
+      </c>
+      <c r="I205" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10306,45 +10330,45 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B211" s="6" t="inlineStr">
+      <c r="A211" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B211" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C211" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D211" s="6" t="inlineStr">
+      <c r="C211" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D211" s="5" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="E211" s="6" t="inlineStr">
+      <c r="E211" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F211" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G211" s="6" t="inlineStr"/>
-      <c r="H211" s="6" t="inlineStr">
+      <c r="F211" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G211" s="5" t="inlineStr"/>
+      <c r="H211" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I211" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I211" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11272,45 +11296,49 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B233" s="5" t="inlineStr">
+      <c r="A233" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C233" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D233" s="5" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D233" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E233" s="5" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F233" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G233" s="5" t="inlineStr"/>
-      <c r="H233" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I233" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F233" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G233" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
+        <is>
+          <t>2/31</t>
+        </is>
+      </c>
+      <c r="I233" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -12496,45 +12524,49 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B261" s="5" t="inlineStr">
+      <c r="A261" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B261" s="2" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C261" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D261" s="5" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D261" s="2" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="E261" s="5" t="inlineStr">
+      <c r="E261" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F261" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G261" s="5" t="inlineStr"/>
-      <c r="H261" s="5" t="inlineStr">
-        <is>
-          <t>0/31</t>
-        </is>
-      </c>
-      <c r="I261" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F261" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G261" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>2/31</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -12754,45 +12786,45 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B267" s="6" t="inlineStr">
+      <c r="A267" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B267" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C267" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D267" s="6" t="inlineStr">
+      <c r="C267" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D267" s="5" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="E267" s="6" t="inlineStr">
+      <c r="E267" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F267" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G267" s="6" t="inlineStr"/>
-      <c r="H267" s="6" t="inlineStr">
+      <c r="F267" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G267" s="5" t="inlineStr"/>
+      <c r="H267" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I267" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I267" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13720,45 +13752,49 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B289" s="5" t="inlineStr">
+      <c r="A289" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B289" s="2" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C289" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D289" s="5" t="inlineStr">
+      <c r="C289" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D289" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E289" s="5" t="inlineStr">
+      <c r="E289" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F289" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G289" s="5" t="inlineStr"/>
-      <c r="H289" s="5" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I289" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F289" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G289" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H289" s="2" t="inlineStr">
+        <is>
+          <t>1/28</t>
+        </is>
+      </c>
+      <c r="I289" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -14944,45 +14980,49 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B317" s="5" t="inlineStr">
+      <c r="A317" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B317" s="2" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C317" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D317" s="5" t="inlineStr">
+      <c r="C317" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D317" s="2" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="E317" s="5" t="inlineStr">
+      <c r="E317" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F317" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G317" s="5" t="inlineStr"/>
-      <c r="H317" s="5" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I317" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F317" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G317" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H317" s="2" t="inlineStr">
+        <is>
+          <t>1/28</t>
+        </is>
+      </c>
+      <c r="I317" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -15202,45 +15242,45 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B323" s="6" t="inlineStr">
+      <c r="A323" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B323" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C323" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D323" s="6" t="inlineStr">
+      <c r="C323" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D323" s="5" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="E323" s="6" t="inlineStr">
+      <c r="E323" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F323" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G323" s="6" t="inlineStr"/>
-      <c r="H323" s="6" t="inlineStr">
+      <c r="F323" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G323" s="5" t="inlineStr"/>
+      <c r="H323" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I323" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I323" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -16168,45 +16208,49 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B345" s="5" t="inlineStr">
+      <c r="A345" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B345" s="2" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C345" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D345" s="5" t="inlineStr">
+      <c r="C345" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D345" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E345" s="5" t="inlineStr">
+      <c r="E345" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F345" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G345" s="5" t="inlineStr"/>
-      <c r="H345" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I345" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F345" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G345" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H345" s="2" t="inlineStr">
+        <is>
+          <t>2/29</t>
+        </is>
+      </c>
+      <c r="I345" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -17392,45 +17436,49 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B373" s="5" t="inlineStr">
+      <c r="A373" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B373" s="2" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C373" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D373" s="5" t="inlineStr">
+      <c r="C373" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D373" s="2" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="E373" s="5" t="inlineStr">
+      <c r="E373" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F373" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G373" s="5" t="inlineStr"/>
-      <c r="H373" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I373" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F373" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G373" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H373" s="2" t="inlineStr">
+        <is>
+          <t>2/29</t>
+        </is>
+      </c>
+      <c r="I373" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -17650,45 +17698,45 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B379" s="6" t="inlineStr">
+      <c r="A379" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B379" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C379" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D379" s="6" t="inlineStr">
+      <c r="C379" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D379" s="5" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="E379" s="6" t="inlineStr">
+      <c r="E379" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F379" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G379" s="6" t="inlineStr"/>
-      <c r="H379" s="6" t="inlineStr">
+      <c r="F379" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G379" s="5" t="inlineStr"/>
+      <c r="H379" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I379" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I379" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -18616,45 +18664,49 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B401" s="5" t="inlineStr">
+      <c r="A401" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B401" s="2" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C401" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D401" s="5" t="inlineStr">
+      <c r="C401" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D401" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E401" s="5" t="inlineStr">
+      <c r="E401" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F401" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G401" s="5" t="inlineStr"/>
-      <c r="H401" s="5" t="inlineStr">
-        <is>
-          <t>0/33</t>
-        </is>
-      </c>
-      <c r="I401" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F401" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G401" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H401" s="2" t="inlineStr">
+        <is>
+          <t>24/33</t>
+        </is>
+      </c>
+      <c r="I401" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -19840,45 +19892,49 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B429" s="5" t="inlineStr">
+      <c r="A429" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B429" s="2" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C429" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D429" s="5" t="inlineStr">
+      <c r="C429" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D429" s="2" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="E429" s="5" t="inlineStr">
+      <c r="E429" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F429" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G429" s="5" t="inlineStr"/>
-      <c r="H429" s="5" t="inlineStr">
-        <is>
-          <t>0/33</t>
-        </is>
-      </c>
-      <c r="I429" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F429" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G429" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H429" s="2" t="inlineStr">
+        <is>
+          <t>24/33</t>
+        </is>
+      </c>
+      <c r="I429" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -20098,45 +20154,45 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B435" s="6" t="inlineStr">
+      <c r="A435" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B435" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C435" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D435" s="6" t="inlineStr">
+      <c r="C435" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D435" s="5" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="E435" s="6" t="inlineStr">
+      <c r="E435" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F435" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G435" s="6" t="inlineStr"/>
-      <c r="H435" s="6" t="inlineStr">
+      <c r="F435" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G435" s="5" t="inlineStr"/>
+      <c r="H435" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I435" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I435" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -21101,7 +21157,7 @@
       </c>
       <c r="H457" s="2" t="inlineStr">
         <is>
-          <t>1/30</t>
+          <t>20/30</t>
         </is>
       </c>
       <c r="I457" s="2" t="inlineStr">
@@ -22329,7 +22385,7 @@
       </c>
       <c r="H485" s="2" t="inlineStr">
         <is>
-          <t>1/30</t>
+          <t>20/30</t>
         </is>
       </c>
       <c r="I485" s="2" t="inlineStr">
@@ -22554,45 +22610,45 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B491" s="6" t="inlineStr">
+      <c r="A491" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B491" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C491" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D491" s="6" t="inlineStr">
+      <c r="C491" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D491" s="5" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="E491" s="6" t="inlineStr">
+      <c r="E491" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F491" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G491" s="6" t="inlineStr"/>
-      <c r="H491" s="6" t="inlineStr">
+      <c r="F491" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G491" s="5" t="inlineStr"/>
+      <c r="H491" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I491" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I491" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -23520,45 +23576,49 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B513" s="5" t="inlineStr">
+      <c r="A513" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B513" s="2" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C513" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D513" s="5" t="inlineStr">
+      <c r="C513" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D513" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E513" s="5" t="inlineStr">
+      <c r="E513" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F513" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G513" s="5" t="inlineStr"/>
-      <c r="H513" s="5" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I513" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F513" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G513" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H513" s="2" t="inlineStr">
+        <is>
+          <t>9/27</t>
+        </is>
+      </c>
+      <c r="I513" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -24744,45 +24804,49 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B541" s="5" t="inlineStr">
+      <c r="A541" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B541" s="2" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C541" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D541" s="5" t="inlineStr">
+      <c r="C541" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D541" s="2" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="E541" s="5" t="inlineStr">
+      <c r="E541" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F541" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G541" s="5" t="inlineStr"/>
-      <c r="H541" s="5" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I541" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F541" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G541" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H541" s="2" t="inlineStr">
+        <is>
+          <t>9/27</t>
+        </is>
+      </c>
+      <c r="I541" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -25002,45 +25066,45 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B547" s="6" t="inlineStr">
+      <c r="A547" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B547" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C547" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D547" s="6" t="inlineStr">
+      <c r="C547" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D547" s="5" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="E547" s="6" t="inlineStr">
+      <c r="E547" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F547" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G547" s="6" t="inlineStr"/>
-      <c r="H547" s="6" t="inlineStr">
+      <c r="F547" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G547" s="5" t="inlineStr"/>
+      <c r="H547" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I547" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I547" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -26005,7 +26069,7 @@
       </c>
       <c r="H569" s="2" t="inlineStr">
         <is>
-          <t>12/29</t>
+          <t>17/29</t>
         </is>
       </c>
       <c r="I569" s="2" t="inlineStr">
@@ -27233,7 +27297,7 @@
       </c>
       <c r="H597" s="2" t="inlineStr">
         <is>
-          <t>12/29</t>
+          <t>17/29</t>
         </is>
       </c>
       <c r="I597" s="2" t="inlineStr">
@@ -27458,45 +27522,45 @@
       </c>
     </row>
     <row r="603">
-      <c r="A603" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B603" s="6" t="inlineStr">
+      <c r="A603" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B603" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C603" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D603" s="6" t="inlineStr">
+      <c r="C603" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D603" s="5" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="E603" s="6" t="inlineStr">
+      <c r="E603" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F603" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G603" s="6" t="inlineStr"/>
-      <c r="H603" s="6" t="inlineStr">
+      <c r="F603" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G603" s="5" t="inlineStr"/>
+      <c r="H603" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I603" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I603" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -28424,45 +28488,49 @@
       </c>
     </row>
     <row r="625">
-      <c r="A625" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B625" s="5" t="inlineStr">
+      <c r="A625" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B625" s="2" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C625" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D625" s="5" t="inlineStr">
+      <c r="C625" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D625" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E625" s="5" t="inlineStr">
+      <c r="E625" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F625" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G625" s="5" t="inlineStr"/>
-      <c r="H625" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I625" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F625" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G625" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H625" s="2" t="inlineStr">
+        <is>
+          <t>15/29</t>
+        </is>
+      </c>
+      <c r="I625" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -29648,45 +29716,49 @@
       </c>
     </row>
     <row r="653">
-      <c r="A653" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B653" s="5" t="inlineStr">
+      <c r="A653" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B653" s="2" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C653" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D653" s="5" t="inlineStr">
+      <c r="C653" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D653" s="2" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="E653" s="5" t="inlineStr">
+      <c r="E653" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F653" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G653" s="5" t="inlineStr"/>
-      <c r="H653" s="5" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I653" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F653" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G653" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H653" s="2" t="inlineStr">
+        <is>
+          <t>15/29</t>
+        </is>
+      </c>
+      <c r="I653" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -29906,45 +29978,45 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B659" s="6" t="inlineStr">
+      <c r="A659" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B659" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C659" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D659" s="6" t="inlineStr">
+      <c r="C659" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D659" s="5" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="E659" s="6" t="inlineStr">
+      <c r="E659" s="5" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F659" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G659" s="6" t="inlineStr"/>
-      <c r="H659" s="6" t="inlineStr">
+      <c r="F659" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G659" s="5" t="inlineStr"/>
+      <c r="H659" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I659" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I659" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8">
@@ -925,45 +925,49 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>21/27</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
       <c r="K9" s="4" t="inlineStr">
@@ -973,7 +977,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>21.1%</t>
+          <t>21.4%</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1030,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>62.7%</t>
+          <t>64.2%</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1315,22 @@
         <v>56</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>28</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
-          <t>17.9%</t>
+          <t>21.4%</t>
         </is>
       </c>
       <c r="S15" s="4" t="inlineStr">
         <is>
-          <t>74.1%</t>
+          <t>74.7%</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1564,7 @@
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>70.6%</t>
+          <t>75.4%</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1642,7 @@
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>75.8%</t>
+          <t>85.5%</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1720,7 @@
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>70.2%</t>
+          <t>71.4%</t>
         </is>
       </c>
     </row>
@@ -2704,45 +2708,49 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C37" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="E37" s="5" t="inlineStr">
+      <c r="E37" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F37" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G37" s="5" t="inlineStr"/>
-      <c r="H37" s="5" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I37" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>21/27</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -8877,7 +8885,7 @@
       </c>
       <c r="H177" s="2" t="inlineStr">
         <is>
-          <t>13/21</t>
+          <t>19/21</t>
         </is>
       </c>
       <c r="I177" s="2" t="inlineStr">
@@ -10105,7 +10113,7 @@
       </c>
       <c r="H205" s="2" t="inlineStr">
         <is>
-          <t>13/21</t>
+          <t>19/21</t>
         </is>
       </c>
       <c r="I205" s="2" t="inlineStr">
@@ -11333,7 +11341,7 @@
       </c>
       <c r="H233" s="2" t="inlineStr">
         <is>
-          <t>2/31</t>
+          <t>20/31</t>
         </is>
       </c>
       <c r="I233" s="2" t="inlineStr">
@@ -12561,7 +12569,7 @@
       </c>
       <c r="H261" s="2" t="inlineStr">
         <is>
-          <t>2/31</t>
+          <t>20/31</t>
         </is>
       </c>
       <c r="I261" s="2" t="inlineStr">
@@ -13789,7 +13797,7 @@
       </c>
       <c r="H289" s="2" t="inlineStr">
         <is>
-          <t>1/28</t>
+          <t>3/28</t>
         </is>
       </c>
       <c r="I289" s="2" t="inlineStr">
@@ -15017,7 +15025,7 @@
       </c>
       <c r="H317" s="2" t="inlineStr">
         <is>
-          <t>1/28</t>
+          <t>3/28</t>
         </is>
       </c>
       <c r="I317" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -1030,7 +1030,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>64.2%</t>
+          <t>64.7%</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>71.4%</t>
+          <t>73.2%</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>78.7%</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>86.4%</t>
+          <t>87.4%</t>
         </is>
       </c>
     </row>
@@ -13797,7 +13797,7 @@
       </c>
       <c r="H289" s="2" t="inlineStr">
         <is>
-          <t>3/28</t>
+          <t>6/28</t>
         </is>
       </c>
       <c r="I289" s="2" t="inlineStr">
@@ -15025,7 +15025,7 @@
       </c>
       <c r="H317" s="2" t="inlineStr">
         <is>
-          <t>3/28</t>
+          <t>6/28</t>
         </is>
       </c>
       <c r="I317" s="2" t="inlineStr">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="H345" s="2" t="inlineStr">
         <is>
-          <t>2/29</t>
+          <t>8/29</t>
         </is>
       </c>
       <c r="I345" s="2" t="inlineStr">
@@ -17481,7 +17481,7 @@
       </c>
       <c r="H373" s="2" t="inlineStr">
         <is>
-          <t>2/29</t>
+          <t>8/29</t>
         </is>
       </c>
       <c r="I373" s="2" t="inlineStr">
@@ -18709,7 +18709,7 @@
       </c>
       <c r="H401" s="2" t="inlineStr">
         <is>
-          <t>24/33</t>
+          <t>26/33</t>
         </is>
       </c>
       <c r="I401" s="2" t="inlineStr">
@@ -19937,7 +19937,7 @@
       </c>
       <c r="H429" s="2" t="inlineStr">
         <is>
-          <t>24/33</t>
+          <t>26/33</t>
         </is>
       </c>
       <c r="I429" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1335,45 +1335,45 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E16" s="6" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F16" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G16" s="6" t="inlineStr"/>
-      <c r="H16" s="6" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="inlineStr"/>
+      <c r="H16" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I16" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I16" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K16" s="4" t="inlineStr">
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>12</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -4241,45 +4241,45 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B72" s="6" t="inlineStr">
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B72" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C72" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D72" s="6" t="inlineStr">
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D72" s="5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E72" s="6" t="inlineStr">
+      <c r="E72" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F72" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G72" s="6" t="inlineStr"/>
-      <c r="H72" s="6" t="inlineStr">
+      <c r="F72" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G72" s="5" t="inlineStr"/>
+      <c r="H72" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I72" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I72" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6697,45 +6697,45 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B128" s="6" t="inlineStr">
+      <c r="A128" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B128" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C128" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D128" s="6" t="inlineStr">
+      <c r="C128" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D128" s="5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E128" s="6" t="inlineStr">
+      <c r="E128" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F128" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G128" s="6" t="inlineStr"/>
-      <c r="H128" s="6" t="inlineStr">
+      <c r="F128" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G128" s="5" t="inlineStr"/>
+      <c r="H128" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I128" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I128" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9153,45 +9153,45 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B184" s="6" t="inlineStr">
+      <c r="A184" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B184" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C184" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D184" s="6" t="inlineStr">
+      <c r="C184" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D184" s="5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E184" s="6" t="inlineStr">
+      <c r="E184" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F184" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G184" s="6" t="inlineStr"/>
-      <c r="H184" s="6" t="inlineStr">
+      <c r="F184" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G184" s="5" t="inlineStr"/>
+      <c r="H184" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I184" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I184" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11609,45 +11609,45 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B240" s="6" t="inlineStr">
+      <c r="A240" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B240" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C240" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D240" s="6" t="inlineStr">
+      <c r="C240" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D240" s="5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E240" s="6" t="inlineStr">
+      <c r="E240" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F240" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G240" s="6" t="inlineStr"/>
-      <c r="H240" s="6" t="inlineStr">
+      <c r="F240" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G240" s="5" t="inlineStr"/>
+      <c r="H240" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I240" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I240" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -14065,45 +14065,45 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B296" s="6" t="inlineStr">
+      <c r="A296" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B296" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C296" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D296" s="6" t="inlineStr">
+      <c r="C296" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D296" s="5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E296" s="6" t="inlineStr">
+      <c r="E296" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F296" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G296" s="6" t="inlineStr"/>
-      <c r="H296" s="6" t="inlineStr">
+      <c r="F296" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G296" s="5" t="inlineStr"/>
+      <c r="H296" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I296" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I296" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -16521,45 +16521,45 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B352" s="6" t="inlineStr">
+      <c r="A352" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B352" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C352" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D352" s="6" t="inlineStr">
+      <c r="C352" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D352" s="5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E352" s="6" t="inlineStr">
+      <c r="E352" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F352" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G352" s="6" t="inlineStr"/>
-      <c r="H352" s="6" t="inlineStr">
+      <c r="F352" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G352" s="5" t="inlineStr"/>
+      <c r="H352" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I352" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I352" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -18977,45 +18977,45 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B408" s="6" t="inlineStr">
+      <c r="A408" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B408" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C408" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D408" s="6" t="inlineStr">
+      <c r="C408" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D408" s="5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E408" s="6" t="inlineStr">
+      <c r="E408" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F408" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G408" s="6" t="inlineStr"/>
-      <c r="H408" s="6" t="inlineStr">
+      <c r="F408" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G408" s="5" t="inlineStr"/>
+      <c r="H408" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I408" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I408" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -21433,45 +21433,45 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B464" s="6" t="inlineStr">
+      <c r="A464" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B464" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C464" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D464" s="6" t="inlineStr">
+      <c r="C464" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D464" s="5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E464" s="6" t="inlineStr">
+      <c r="E464" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F464" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G464" s="6" t="inlineStr"/>
-      <c r="H464" s="6" t="inlineStr">
+      <c r="F464" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G464" s="5" t="inlineStr"/>
+      <c r="H464" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I464" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I464" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -23889,45 +23889,45 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B520" s="6" t="inlineStr">
+      <c r="A520" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B520" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C520" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D520" s="6" t="inlineStr">
+      <c r="C520" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D520" s="5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E520" s="6" t="inlineStr">
+      <c r="E520" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F520" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G520" s="6" t="inlineStr"/>
-      <c r="H520" s="6" t="inlineStr">
+      <c r="F520" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G520" s="5" t="inlineStr"/>
+      <c r="H520" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I520" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I520" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -26345,45 +26345,45 @@
       </c>
     </row>
     <row r="576">
-      <c r="A576" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B576" s="6" t="inlineStr">
+      <c r="A576" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B576" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C576" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D576" s="6" t="inlineStr">
+      <c r="C576" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D576" s="5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E576" s="6" t="inlineStr">
+      <c r="E576" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F576" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G576" s="6" t="inlineStr"/>
-      <c r="H576" s="6" t="inlineStr">
+      <c r="F576" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G576" s="5" t="inlineStr"/>
+      <c r="H576" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I576" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I576" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -28801,45 +28801,45 @@
       </c>
     </row>
     <row r="632">
-      <c r="A632" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B632" s="6" t="inlineStr">
+      <c r="A632" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B632" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C632" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D632" s="6" t="inlineStr">
+      <c r="C632" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D632" s="5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E632" s="6" t="inlineStr">
+      <c r="E632" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F632" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G632" s="6" t="inlineStr"/>
-      <c r="H632" s="6" t="inlineStr">
+      <c r="F632" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G632" s="5" t="inlineStr"/>
+      <c r="H632" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I632" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I632" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>12</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -3013,45 +3013,45 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B44" s="6" t="inlineStr">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C44" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D44" s="6" t="inlineStr">
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="E44" s="6" t="inlineStr">
+      <c r="E44" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F44" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G44" s="6" t="inlineStr"/>
-      <c r="H44" s="6" t="inlineStr">
+      <c r="F44" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G44" s="5" t="inlineStr"/>
+      <c r="H44" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I44" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I44" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5469,45 +5469,45 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B100" s="6" t="inlineStr">
+      <c r="A100" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B100" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C100" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D100" s="6" t="inlineStr">
+      <c r="C100" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D100" s="5" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="E100" s="6" t="inlineStr">
+      <c r="E100" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F100" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G100" s="6" t="inlineStr"/>
-      <c r="H100" s="6" t="inlineStr">
+      <c r="F100" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G100" s="5" t="inlineStr"/>
+      <c r="H100" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I100" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I100" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7925,45 +7925,45 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B156" s="6" t="inlineStr">
+      <c r="A156" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B156" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C156" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D156" s="6" t="inlineStr">
+      <c r="C156" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D156" s="5" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="E156" s="6" t="inlineStr">
+      <c r="E156" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F156" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G156" s="6" t="inlineStr"/>
-      <c r="H156" s="6" t="inlineStr">
+      <c r="F156" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G156" s="5" t="inlineStr"/>
+      <c r="H156" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I156" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I156" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10381,45 +10381,45 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B212" s="6" t="inlineStr">
+      <c r="A212" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B212" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C212" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D212" s="6" t="inlineStr">
+      <c r="C212" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D212" s="5" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="E212" s="6" t="inlineStr">
+      <c r="E212" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F212" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G212" s="6" t="inlineStr"/>
-      <c r="H212" s="6" t="inlineStr">
+      <c r="F212" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G212" s="5" t="inlineStr"/>
+      <c r="H212" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I212" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I212" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -12837,45 +12837,45 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B268" s="6" t="inlineStr">
+      <c r="A268" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B268" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C268" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D268" s="6" t="inlineStr">
+      <c r="C268" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D268" s="5" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="E268" s="6" t="inlineStr">
+      <c r="E268" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F268" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G268" s="6" t="inlineStr"/>
-      <c r="H268" s="6" t="inlineStr">
+      <c r="F268" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G268" s="5" t="inlineStr"/>
+      <c r="H268" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I268" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I268" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15293,45 +15293,45 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B324" s="6" t="inlineStr">
+      <c r="A324" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B324" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C324" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D324" s="6" t="inlineStr">
+      <c r="C324" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D324" s="5" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="E324" s="6" t="inlineStr">
+      <c r="E324" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F324" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G324" s="6" t="inlineStr"/>
-      <c r="H324" s="6" t="inlineStr">
+      <c r="F324" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G324" s="5" t="inlineStr"/>
+      <c r="H324" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I324" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I324" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -17749,45 +17749,45 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B380" s="6" t="inlineStr">
+      <c r="A380" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B380" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C380" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D380" s="6" t="inlineStr">
+      <c r="C380" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D380" s="5" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="E380" s="6" t="inlineStr">
+      <c r="E380" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F380" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G380" s="6" t="inlineStr"/>
-      <c r="H380" s="6" t="inlineStr">
+      <c r="F380" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G380" s="5" t="inlineStr"/>
+      <c r="H380" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I380" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I380" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -20205,45 +20205,45 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B436" s="6" t="inlineStr">
+      <c r="A436" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B436" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C436" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D436" s="6" t="inlineStr">
+      <c r="C436" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D436" s="5" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="E436" s="6" t="inlineStr">
+      <c r="E436" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F436" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G436" s="6" t="inlineStr"/>
-      <c r="H436" s="6" t="inlineStr">
+      <c r="F436" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G436" s="5" t="inlineStr"/>
+      <c r="H436" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I436" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I436" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -22661,45 +22661,45 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B492" s="6" t="inlineStr">
+      <c r="A492" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B492" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C492" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D492" s="6" t="inlineStr">
+      <c r="C492" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D492" s="5" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="E492" s="6" t="inlineStr">
+      <c r="E492" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F492" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G492" s="6" t="inlineStr"/>
-      <c r="H492" s="6" t="inlineStr">
+      <c r="F492" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G492" s="5" t="inlineStr"/>
+      <c r="H492" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I492" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I492" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -25117,45 +25117,45 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B548" s="6" t="inlineStr">
+      <c r="A548" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B548" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C548" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D548" s="6" t="inlineStr">
+      <c r="C548" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D548" s="5" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="E548" s="6" t="inlineStr">
+      <c r="E548" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F548" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G548" s="6" t="inlineStr"/>
-      <c r="H548" s="6" t="inlineStr">
+      <c r="F548" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G548" s="5" t="inlineStr"/>
+      <c r="H548" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I548" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I548" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -27573,45 +27573,45 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B604" s="6" t="inlineStr">
+      <c r="A604" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B604" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C604" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D604" s="6" t="inlineStr">
+      <c r="C604" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D604" s="5" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="E604" s="6" t="inlineStr">
+      <c r="E604" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F604" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G604" s="6" t="inlineStr"/>
-      <c r="H604" s="6" t="inlineStr">
+      <c r="F604" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G604" s="5" t="inlineStr"/>
+      <c r="H604" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I604" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I604" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -30029,45 +30029,45 @@
       </c>
     </row>
     <row r="660">
-      <c r="A660" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B660" s="6" t="inlineStr">
+      <c r="A660" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B660" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C660" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D660" s="6" t="inlineStr">
+      <c r="C660" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D660" s="5" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="E660" s="6" t="inlineStr">
+      <c r="E660" s="5" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F660" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G660" s="6" t="inlineStr"/>
-      <c r="H660" s="6" t="inlineStr">
+      <c r="F660" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G660" s="5" t="inlineStr"/>
+      <c r="H660" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I660" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I660" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1413,45 +1413,45 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E17" s="6" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F17" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G17" s="6" t="inlineStr"/>
-      <c r="H17" s="6" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr"/>
+      <c r="H17" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I17" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K17" s="4" t="inlineStr">
@@ -1474,10 +1474,10 @@
         <v>12</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -4284,45 +4284,45 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B73" s="6" t="inlineStr">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B73" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C73" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D73" s="6" t="inlineStr">
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D73" s="5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E73" s="6" t="inlineStr">
+      <c r="E73" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F73" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G73" s="6" t="inlineStr"/>
-      <c r="H73" s="6" t="inlineStr">
+      <c r="F73" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G73" s="5" t="inlineStr"/>
+      <c r="H73" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I73" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I73" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6740,45 +6740,45 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B129" s="6" t="inlineStr">
+      <c r="A129" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B129" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C129" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D129" s="6" t="inlineStr">
+      <c r="C129" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D129" s="5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E129" s="6" t="inlineStr">
+      <c r="E129" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F129" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G129" s="6" t="inlineStr"/>
-      <c r="H129" s="6" t="inlineStr">
+      <c r="F129" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G129" s="5" t="inlineStr"/>
+      <c r="H129" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I129" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I129" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9196,45 +9196,45 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B185" s="6" t="inlineStr">
+      <c r="A185" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B185" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C185" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D185" s="6" t="inlineStr">
+      <c r="C185" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D185" s="5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E185" s="6" t="inlineStr">
+      <c r="E185" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F185" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G185" s="6" t="inlineStr"/>
-      <c r="H185" s="6" t="inlineStr">
+      <c r="F185" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G185" s="5" t="inlineStr"/>
+      <c r="H185" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I185" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I185" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11652,45 +11652,45 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B241" s="6" t="inlineStr">
+      <c r="A241" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B241" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C241" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D241" s="6" t="inlineStr">
+      <c r="C241" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D241" s="5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E241" s="6" t="inlineStr">
+      <c r="E241" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F241" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G241" s="6" t="inlineStr"/>
-      <c r="H241" s="6" t="inlineStr">
+      <c r="F241" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G241" s="5" t="inlineStr"/>
+      <c r="H241" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I241" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I241" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -14108,45 +14108,45 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B297" s="6" t="inlineStr">
+      <c r="A297" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B297" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C297" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D297" s="6" t="inlineStr">
+      <c r="C297" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D297" s="5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E297" s="6" t="inlineStr">
+      <c r="E297" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F297" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G297" s="6" t="inlineStr"/>
-      <c r="H297" s="6" t="inlineStr">
+      <c r="F297" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G297" s="5" t="inlineStr"/>
+      <c r="H297" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I297" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I297" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -16564,45 +16564,45 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B353" s="6" t="inlineStr">
+      <c r="A353" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B353" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C353" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D353" s="6" t="inlineStr">
+      <c r="C353" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D353" s="5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E353" s="6" t="inlineStr">
+      <c r="E353" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F353" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G353" s="6" t="inlineStr"/>
-      <c r="H353" s="6" t="inlineStr">
+      <c r="F353" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G353" s="5" t="inlineStr"/>
+      <c r="H353" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I353" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I353" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -19020,45 +19020,45 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B409" s="6" t="inlineStr">
+      <c r="A409" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B409" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C409" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D409" s="6" t="inlineStr">
+      <c r="C409" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D409" s="5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E409" s="6" t="inlineStr">
+      <c r="E409" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F409" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G409" s="6" t="inlineStr"/>
-      <c r="H409" s="6" t="inlineStr">
+      <c r="F409" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G409" s="5" t="inlineStr"/>
+      <c r="H409" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I409" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I409" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -21476,45 +21476,45 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B465" s="6" t="inlineStr">
+      <c r="A465" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B465" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C465" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D465" s="6" t="inlineStr">
+      <c r="C465" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D465" s="5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E465" s="6" t="inlineStr">
+      <c r="E465" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F465" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G465" s="6" t="inlineStr"/>
-      <c r="H465" s="6" t="inlineStr">
+      <c r="F465" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G465" s="5" t="inlineStr"/>
+      <c r="H465" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I465" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I465" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -23932,45 +23932,45 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B521" s="6" t="inlineStr">
+      <c r="A521" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B521" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C521" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D521" s="6" t="inlineStr">
+      <c r="C521" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D521" s="5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E521" s="6" t="inlineStr">
+      <c r="E521" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F521" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G521" s="6" t="inlineStr"/>
-      <c r="H521" s="6" t="inlineStr">
+      <c r="F521" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G521" s="5" t="inlineStr"/>
+      <c r="H521" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I521" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I521" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -26388,45 +26388,45 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B577" s="6" t="inlineStr">
+      <c r="A577" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B577" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C577" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D577" s="6" t="inlineStr">
+      <c r="C577" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D577" s="5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E577" s="6" t="inlineStr">
+      <c r="E577" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F577" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G577" s="6" t="inlineStr"/>
-      <c r="H577" s="6" t="inlineStr">
+      <c r="F577" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G577" s="5" t="inlineStr"/>
+      <c r="H577" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I577" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I577" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -28844,45 +28844,45 @@
       </c>
     </row>
     <row r="633">
-      <c r="A633" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B633" s="6" t="inlineStr">
+      <c r="A633" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B633" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C633" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D633" s="6" t="inlineStr">
+      <c r="C633" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D633" s="5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E633" s="6" t="inlineStr">
+      <c r="E633" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F633" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G633" s="6" t="inlineStr"/>
-      <c r="H633" s="6" t="inlineStr">
+      <c r="F633" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G633" s="5" t="inlineStr"/>
+      <c r="H633" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I633" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I633" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>12</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -3056,45 +3056,45 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B45" s="6" t="inlineStr">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C45" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D45" s="6" t="inlineStr">
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E45" s="6" t="inlineStr">
+      <c r="E45" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F45" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G45" s="6" t="inlineStr"/>
-      <c r="H45" s="6" t="inlineStr">
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G45" s="5" t="inlineStr"/>
+      <c r="H45" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I45" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I45" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5512,45 +5512,45 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B101" s="6" t="inlineStr">
+      <c r="A101" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B101" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C101" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D101" s="6" t="inlineStr">
+      <c r="C101" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D101" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E101" s="6" t="inlineStr">
+      <c r="E101" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F101" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G101" s="6" t="inlineStr"/>
-      <c r="H101" s="6" t="inlineStr">
+      <c r="F101" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G101" s="5" t="inlineStr"/>
+      <c r="H101" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I101" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I101" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7968,45 +7968,45 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B157" s="6" t="inlineStr">
+      <c r="A157" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B157" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C157" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D157" s="6" t="inlineStr">
+      <c r="C157" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D157" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E157" s="6" t="inlineStr">
+      <c r="E157" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F157" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G157" s="6" t="inlineStr"/>
-      <c r="H157" s="6" t="inlineStr">
+      <c r="F157" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G157" s="5" t="inlineStr"/>
+      <c r="H157" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I157" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I157" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10424,45 +10424,45 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B213" s="6" t="inlineStr">
+      <c r="A213" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B213" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C213" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D213" s="6" t="inlineStr">
+      <c r="C213" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D213" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E213" s="6" t="inlineStr">
+      <c r="E213" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F213" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G213" s="6" t="inlineStr"/>
-      <c r="H213" s="6" t="inlineStr">
+      <c r="F213" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G213" s="5" t="inlineStr"/>
+      <c r="H213" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I213" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I213" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -12880,45 +12880,45 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B269" s="6" t="inlineStr">
+      <c r="A269" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B269" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C269" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D269" s="6" t="inlineStr">
+      <c r="C269" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D269" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E269" s="6" t="inlineStr">
+      <c r="E269" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F269" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G269" s="6" t="inlineStr"/>
-      <c r="H269" s="6" t="inlineStr">
+      <c r="F269" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G269" s="5" t="inlineStr"/>
+      <c r="H269" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I269" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I269" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15336,45 +15336,45 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B325" s="6" t="inlineStr">
+      <c r="A325" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B325" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C325" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D325" s="6" t="inlineStr">
+      <c r="C325" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D325" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E325" s="6" t="inlineStr">
+      <c r="E325" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F325" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G325" s="6" t="inlineStr"/>
-      <c r="H325" s="6" t="inlineStr">
+      <c r="F325" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G325" s="5" t="inlineStr"/>
+      <c r="H325" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I325" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I325" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -17792,45 +17792,45 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B381" s="6" t="inlineStr">
+      <c r="A381" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B381" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C381" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D381" s="6" t="inlineStr">
+      <c r="C381" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D381" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E381" s="6" t="inlineStr">
+      <c r="E381" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F381" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G381" s="6" t="inlineStr"/>
-      <c r="H381" s="6" t="inlineStr">
+      <c r="F381" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G381" s="5" t="inlineStr"/>
+      <c r="H381" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I381" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I381" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -20248,45 +20248,45 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B437" s="6" t="inlineStr">
+      <c r="A437" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B437" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C437" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D437" s="6" t="inlineStr">
+      <c r="C437" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D437" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E437" s="6" t="inlineStr">
+      <c r="E437" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F437" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G437" s="6" t="inlineStr"/>
-      <c r="H437" s="6" t="inlineStr">
+      <c r="F437" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G437" s="5" t="inlineStr"/>
+      <c r="H437" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I437" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I437" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -22704,45 +22704,45 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B493" s="6" t="inlineStr">
+      <c r="A493" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B493" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C493" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D493" s="6" t="inlineStr">
+      <c r="C493" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D493" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E493" s="6" t="inlineStr">
+      <c r="E493" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F493" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G493" s="6" t="inlineStr"/>
-      <c r="H493" s="6" t="inlineStr">
+      <c r="F493" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G493" s="5" t="inlineStr"/>
+      <c r="H493" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I493" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I493" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -25160,45 +25160,45 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B549" s="6" t="inlineStr">
+      <c r="A549" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B549" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C549" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D549" s="6" t="inlineStr">
+      <c r="C549" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D549" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E549" s="6" t="inlineStr">
+      <c r="E549" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F549" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G549" s="6" t="inlineStr"/>
-      <c r="H549" s="6" t="inlineStr">
+      <c r="F549" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G549" s="5" t="inlineStr"/>
+      <c r="H549" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I549" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I549" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -27616,45 +27616,45 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B605" s="6" t="inlineStr">
+      <c r="A605" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B605" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C605" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D605" s="6" t="inlineStr">
+      <c r="C605" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D605" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E605" s="6" t="inlineStr">
+      <c r="E605" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F605" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G605" s="6" t="inlineStr"/>
-      <c r="H605" s="6" t="inlineStr">
+      <c r="F605" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G605" s="5" t="inlineStr"/>
+      <c r="H605" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I605" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I605" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -30072,45 +30072,45 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B661" s="6" t="inlineStr">
+      <c r="A661" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B661" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C661" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D661" s="6" t="inlineStr">
+      <c r="C661" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D661" s="5" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E661" s="6" t="inlineStr">
+      <c r="E661" s="5" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F661" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G661" s="6" t="inlineStr"/>
-      <c r="H661" s="6" t="inlineStr">
+      <c r="F661" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G661" s="5" t="inlineStr"/>
+      <c r="H661" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I661" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I661" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -962,7 +962,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21/27</t>
+          <t>22/27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>64.7%</t>
+          <t>66.9%</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="S15" s="4" t="inlineStr">
         <is>
-          <t>74.7%</t>
+          <t>75.3%</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>85.5%</t>
+          <t>90.9%</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>73.2%</t>
+          <t>83.9%</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>78.7%</t>
+          <t>86.8%</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>87.4%</t>
+          <t>88.4%</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>62.1%</t>
+          <t>62.6%</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>21/27</t>
+          <t>22/27</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="H233" s="2" t="inlineStr">
         <is>
-          <t>20/31</t>
+          <t>30/31</t>
         </is>
       </c>
       <c r="I233" s="2" t="inlineStr">
@@ -12569,7 +12569,7 @@
       </c>
       <c r="H261" s="2" t="inlineStr">
         <is>
-          <t>20/31</t>
+          <t>30/31</t>
         </is>
       </c>
       <c r="I261" s="2" t="inlineStr">
@@ -13797,7 +13797,7 @@
       </c>
       <c r="H289" s="2" t="inlineStr">
         <is>
-          <t>6/28</t>
+          <t>24/28</t>
         </is>
       </c>
       <c r="I289" s="2" t="inlineStr">
@@ -15025,7 +15025,7 @@
       </c>
       <c r="H317" s="2" t="inlineStr">
         <is>
-          <t>6/28</t>
+          <t>24/28</t>
         </is>
       </c>
       <c r="I317" s="2" t="inlineStr">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="H345" s="2" t="inlineStr">
         <is>
-          <t>8/29</t>
+          <t>22/29</t>
         </is>
       </c>
       <c r="I345" s="2" t="inlineStr">
@@ -17481,7 +17481,7 @@
       </c>
       <c r="H373" s="2" t="inlineStr">
         <is>
-          <t>8/29</t>
+          <t>22/29</t>
         </is>
       </c>
       <c r="I373" s="2" t="inlineStr">
@@ -18709,7 +18709,7 @@
       </c>
       <c r="H401" s="2" t="inlineStr">
         <is>
-          <t>26/33</t>
+          <t>28/33</t>
         </is>
       </c>
       <c r="I401" s="2" t="inlineStr">
@@ -19937,7 +19937,7 @@
       </c>
       <c r="H429" s="2" t="inlineStr">
         <is>
-          <t>26/33</t>
+          <t>28/33</t>
         </is>
       </c>
       <c r="I429" s="2" t="inlineStr">
@@ -26077,7 +26077,7 @@
       </c>
       <c r="H569" s="2" t="inlineStr">
         <is>
-          <t>17/29</t>
+          <t>18/29</t>
         </is>
       </c>
       <c r="I569" s="2" t="inlineStr">
@@ -27305,7 +27305,7 @@
       </c>
       <c r="H597" s="2" t="inlineStr">
         <is>
-          <t>17/29</t>
+          <t>18/29</t>
         </is>
       </c>
       <c r="I597" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="4" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8">
@@ -977,7 +977,7 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>21.4%</t>
+          <t>21.7%</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>66.9%</t>
+          <t>66.3%</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>50.5%</t>
+          <t>53.2%</t>
         </is>
       </c>
     </row>
@@ -1471,22 +1471,22 @@
         <v>56</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>24</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>21.4%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>34.2%</t>
+          <t>30.1%</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>8/31</t>
+          <t>13/31</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>8/31</t>
+          <t>13/31</t>
         </is>
       </c>
       <c r="I93" s="2" t="inlineStr">
@@ -6654,45 +6654,49 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B127" s="5" t="inlineStr">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C127" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D127" s="5" t="inlineStr">
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E127" s="5" t="inlineStr">
+      <c r="E127" s="2" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F127" s="5" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G127" s="5" t="inlineStr"/>
-      <c r="H127" s="5" t="inlineStr">
-        <is>
-          <t>0/19</t>
-        </is>
-      </c>
-      <c r="I127" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>1/19</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -7882,45 +7886,49 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="5" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B155" s="5" t="inlineStr">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C155" s="5" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D155" s="5" t="inlineStr">
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="E155" s="5" t="inlineStr">
+      <c r="E155" s="2" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F155" s="5" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G155" s="5" t="inlineStr"/>
-      <c r="H155" s="5" t="inlineStr">
-        <is>
-          <t>0/19</t>
-        </is>
-      </c>
-      <c r="I155" s="5" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F155" s="2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G155" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="H155" s="2" t="inlineStr">
+        <is>
+          <t>1/19</t>
+        </is>
+      </c>
+      <c r="I155" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -1030,7 +1030,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>66.3%</t>
+          <t>66.4%</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>83.9%</t>
+          <t>85.1%</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>88.4%</t>
+          <t>88.9%</t>
         </is>
       </c>
     </row>
@@ -13805,7 +13805,7 @@
       </c>
       <c r="H289" s="2" t="inlineStr">
         <is>
-          <t>24/28</t>
+          <t>26/28</t>
         </is>
       </c>
       <c r="I289" s="2" t="inlineStr">
@@ -15033,7 +15033,7 @@
       </c>
       <c r="H317" s="2" t="inlineStr">
         <is>
-          <t>24/28</t>
+          <t>26/28</t>
         </is>
       </c>
       <c r="I317" s="2" t="inlineStr">
@@ -18717,7 +18717,7 @@
       </c>
       <c r="H401" s="2" t="inlineStr">
         <is>
-          <t>28/33</t>
+          <t>29/33</t>
         </is>
       </c>
       <c r="I401" s="2" t="inlineStr">
@@ -19945,7 +19945,7 @@
       </c>
       <c r="H429" s="2" t="inlineStr">
         <is>
-          <t>28/33</t>
+          <t>29/33</t>
         </is>
       </c>
       <c r="I429" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -962,7 +962,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22/27</t>
+          <t>24/27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>66.4%</t>
+          <t>67.2%</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="S15" s="4" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>76.5%</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>30.1%</t>
+          <t>33.8%</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>90.9%</t>
+          <t>91.4%</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="S26" s="4" t="inlineStr">
         <is>
-          <t>46.6%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>22/27</t>
+          <t>24/27</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="H121" s="2" t="inlineStr">
         <is>
-          <t>5/19</t>
+          <t>10/19</t>
         </is>
       </c>
       <c r="I121" s="2" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="H149" s="2" t="inlineStr">
         <is>
-          <t>5/19</t>
+          <t>10/19</t>
         </is>
       </c>
       <c r="I149" s="2" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="H233" s="2" t="inlineStr">
         <is>
-          <t>30/31</t>
+          <t>31/31</t>
         </is>
       </c>
       <c r="I233" s="2" t="inlineStr">
@@ -12577,7 +12577,7 @@
       </c>
       <c r="H261" s="2" t="inlineStr">
         <is>
-          <t>30/31</t>
+          <t>31/31</t>
         </is>
       </c>
       <c r="I261" s="2" t="inlineStr">
@@ -28541,7 +28541,7 @@
       </c>
       <c r="H625" s="2" t="inlineStr">
         <is>
-          <t>15/29</t>
+          <t>21/29</t>
         </is>
       </c>
       <c r="I625" s="2" t="inlineStr">
@@ -29769,7 +29769,7 @@
       </c>
       <c r="H653" s="2" t="inlineStr">
         <is>
-          <t>15/29</t>
+          <t>21/29</t>
         </is>
       </c>
       <c r="I653" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -1030,7 +1030,7 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>67.2%</t>
+          <t>67.8%</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>88.9%</t>
+          <t>89.4%</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>67.2%</t>
+          <t>68.3%</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>41.4%</t>
+          <t>43.8%</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>64.9%</t>
         </is>
       </c>
     </row>
@@ -18717,7 +18717,7 @@
       </c>
       <c r="H401" s="2" t="inlineStr">
         <is>
-          <t>29/33</t>
+          <t>30/33</t>
         </is>
       </c>
       <c r="I401" s="2" t="inlineStr">
@@ -19945,7 +19945,7 @@
       </c>
       <c r="H429" s="2" t="inlineStr">
         <is>
-          <t>29/33</t>
+          <t>30/33</t>
         </is>
       </c>
       <c r="I429" s="2" t="inlineStr">
@@ -21173,7 +21173,7 @@
       </c>
       <c r="H457" s="2" t="inlineStr">
         <is>
-          <t>20/30</t>
+          <t>22/30</t>
         </is>
       </c>
       <c r="I457" s="2" t="inlineStr">
@@ -22401,7 +22401,7 @@
       </c>
       <c r="H485" s="2" t="inlineStr">
         <is>
-          <t>20/30</t>
+          <t>22/30</t>
         </is>
       </c>
       <c r="I485" s="2" t="inlineStr">
@@ -23629,7 +23629,7 @@
       </c>
       <c r="H513" s="2" t="inlineStr">
         <is>
-          <t>9/27</t>
+          <t>13/27</t>
         </is>
       </c>
       <c r="I513" s="2" t="inlineStr">
@@ -24857,7 +24857,7 @@
       </c>
       <c r="H541" s="2" t="inlineStr">
         <is>
-          <t>9/27</t>
+          <t>13/27</t>
         </is>
       </c>
       <c r="I541" s="2" t="inlineStr">
@@ -26085,7 +26085,7 @@
       </c>
       <c r="H569" s="2" t="inlineStr">
         <is>
-          <t>18/29</t>
+          <t>22/29</t>
         </is>
       </c>
       <c r="I569" s="2" t="inlineStr">
@@ -27313,7 +27313,7 @@
       </c>
       <c r="H597" s="2" t="inlineStr">
         <is>
-          <t>18/29</t>
+          <t>22/29</t>
         </is>
       </c>
       <c r="I597" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1491,45 +1491,45 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D18" s="6" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E18" s="6" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F18" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G18" s="6" t="inlineStr"/>
-      <c r="H18" s="6" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="inlineStr"/>
+      <c r="H18" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I18" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K18" s="4" t="inlineStr">
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -4327,45 +4327,45 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B74" s="6" t="inlineStr">
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B74" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C74" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D74" s="6" t="inlineStr">
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D74" s="5" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E74" s="6" t="inlineStr">
+      <c r="E74" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F74" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G74" s="6" t="inlineStr"/>
-      <c r="H74" s="6" t="inlineStr">
+      <c r="F74" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G74" s="5" t="inlineStr"/>
+      <c r="H74" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I74" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I74" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6787,45 +6787,45 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B130" s="6" t="inlineStr">
+      <c r="A130" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B130" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C130" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D130" s="6" t="inlineStr">
+      <c r="C130" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D130" s="5" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E130" s="6" t="inlineStr">
+      <c r="E130" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F130" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G130" s="6" t="inlineStr"/>
-      <c r="H130" s="6" t="inlineStr">
+      <c r="F130" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G130" s="5" t="inlineStr"/>
+      <c r="H130" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I130" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I130" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9247,45 +9247,45 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B186" s="6" t="inlineStr">
+      <c r="A186" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B186" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C186" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D186" s="6" t="inlineStr">
+      <c r="C186" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D186" s="5" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E186" s="6" t="inlineStr">
+      <c r="E186" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F186" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G186" s="6" t="inlineStr"/>
-      <c r="H186" s="6" t="inlineStr">
+      <c r="F186" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G186" s="5" t="inlineStr"/>
+      <c r="H186" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I186" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I186" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11703,45 +11703,45 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B242" s="6" t="inlineStr">
+      <c r="A242" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B242" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C242" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D242" s="6" t="inlineStr">
+      <c r="C242" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D242" s="5" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E242" s="6" t="inlineStr">
+      <c r="E242" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F242" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G242" s="6" t="inlineStr"/>
-      <c r="H242" s="6" t="inlineStr">
+      <c r="F242" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G242" s="5" t="inlineStr"/>
+      <c r="H242" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I242" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I242" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -14159,45 +14159,45 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B298" s="6" t="inlineStr">
+      <c r="A298" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B298" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C298" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D298" s="6" t="inlineStr">
+      <c r="C298" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D298" s="5" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E298" s="6" t="inlineStr">
+      <c r="E298" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F298" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G298" s="6" t="inlineStr"/>
-      <c r="H298" s="6" t="inlineStr">
+      <c r="F298" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G298" s="5" t="inlineStr"/>
+      <c r="H298" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I298" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I298" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -16615,45 +16615,45 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B354" s="6" t="inlineStr">
+      <c r="A354" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B354" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C354" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D354" s="6" t="inlineStr">
+      <c r="C354" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D354" s="5" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E354" s="6" t="inlineStr">
+      <c r="E354" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F354" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G354" s="6" t="inlineStr"/>
-      <c r="H354" s="6" t="inlineStr">
+      <c r="F354" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G354" s="5" t="inlineStr"/>
+      <c r="H354" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I354" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I354" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -19071,45 +19071,45 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B410" s="6" t="inlineStr">
+      <c r="A410" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B410" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C410" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D410" s="6" t="inlineStr">
+      <c r="C410" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D410" s="5" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E410" s="6" t="inlineStr">
+      <c r="E410" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F410" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G410" s="6" t="inlineStr"/>
-      <c r="H410" s="6" t="inlineStr">
+      <c r="F410" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G410" s="5" t="inlineStr"/>
+      <c r="H410" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I410" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I410" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -21527,45 +21527,45 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B466" s="6" t="inlineStr">
+      <c r="A466" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B466" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C466" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D466" s="6" t="inlineStr">
+      <c r="C466" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D466" s="5" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E466" s="6" t="inlineStr">
+      <c r="E466" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F466" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G466" s="6" t="inlineStr"/>
-      <c r="H466" s="6" t="inlineStr">
+      <c r="F466" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G466" s="5" t="inlineStr"/>
+      <c r="H466" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I466" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I466" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -23983,45 +23983,45 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B522" s="6" t="inlineStr">
+      <c r="A522" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B522" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C522" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D522" s="6" t="inlineStr">
+      <c r="C522" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D522" s="5" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E522" s="6" t="inlineStr">
+      <c r="E522" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F522" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G522" s="6" t="inlineStr"/>
-      <c r="H522" s="6" t="inlineStr">
+      <c r="F522" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G522" s="5" t="inlineStr"/>
+      <c r="H522" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I522" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I522" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -26439,45 +26439,45 @@
       </c>
     </row>
     <row r="578">
-      <c r="A578" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B578" s="6" t="inlineStr">
+      <c r="A578" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B578" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C578" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D578" s="6" t="inlineStr">
+      <c r="C578" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D578" s="5" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E578" s="6" t="inlineStr">
+      <c r="E578" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F578" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G578" s="6" t="inlineStr"/>
-      <c r="H578" s="6" t="inlineStr">
+      <c r="F578" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G578" s="5" t="inlineStr"/>
+      <c r="H578" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I578" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I578" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -28895,45 +28895,45 @@
       </c>
     </row>
     <row r="634">
-      <c r="A634" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B634" s="6" t="inlineStr">
+      <c r="A634" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B634" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C634" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D634" s="6" t="inlineStr">
+      <c r="C634" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D634" s="5" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E634" s="6" t="inlineStr">
+      <c r="E634" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F634" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G634" s="6" t="inlineStr"/>
-      <c r="H634" s="6" t="inlineStr">
+      <c r="F634" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G634" s="5" t="inlineStr"/>
+      <c r="H634" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I634" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I634" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -3099,45 +3099,45 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B46" s="6" t="inlineStr">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C46" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D46" s="6" t="inlineStr">
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E46" s="6" t="inlineStr">
+      <c r="E46" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F46" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G46" s="6" t="inlineStr"/>
-      <c r="H46" s="6" t="inlineStr">
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G46" s="5" t="inlineStr"/>
+      <c r="H46" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I46" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I46" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5555,45 +5555,45 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B102" s="6" t="inlineStr">
+      <c r="A102" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B102" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C102" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D102" s="6" t="inlineStr">
+      <c r="C102" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D102" s="5" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E102" s="6" t="inlineStr">
+      <c r="E102" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F102" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G102" s="6" t="inlineStr"/>
-      <c r="H102" s="6" t="inlineStr">
+      <c r="F102" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G102" s="5" t="inlineStr"/>
+      <c r="H102" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I102" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I102" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8019,45 +8019,45 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B158" s="6" t="inlineStr">
+      <c r="A158" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B158" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C158" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D158" s="6" t="inlineStr">
+      <c r="C158" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D158" s="5" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E158" s="6" t="inlineStr">
+      <c r="E158" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F158" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G158" s="6" t="inlineStr"/>
-      <c r="H158" s="6" t="inlineStr">
+      <c r="F158" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G158" s="5" t="inlineStr"/>
+      <c r="H158" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I158" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I158" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10475,45 +10475,45 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B214" s="6" t="inlineStr">
+      <c r="A214" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B214" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C214" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D214" s="6" t="inlineStr">
+      <c r="C214" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D214" s="5" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E214" s="6" t="inlineStr">
+      <c r="E214" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F214" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G214" s="6" t="inlineStr"/>
-      <c r="H214" s="6" t="inlineStr">
+      <c r="F214" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G214" s="5" t="inlineStr"/>
+      <c r="H214" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I214" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I214" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -12931,45 +12931,45 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B270" s="6" t="inlineStr">
+      <c r="A270" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B270" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C270" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D270" s="6" t="inlineStr">
+      <c r="C270" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D270" s="5" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E270" s="6" t="inlineStr">
+      <c r="E270" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F270" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G270" s="6" t="inlineStr"/>
-      <c r="H270" s="6" t="inlineStr">
+      <c r="F270" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G270" s="5" t="inlineStr"/>
+      <c r="H270" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I270" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I270" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15387,45 +15387,45 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B326" s="6" t="inlineStr">
+      <c r="A326" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B326" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C326" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D326" s="6" t="inlineStr">
+      <c r="C326" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D326" s="5" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E326" s="6" t="inlineStr">
+      <c r="E326" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F326" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G326" s="6" t="inlineStr"/>
-      <c r="H326" s="6" t="inlineStr">
+      <c r="F326" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G326" s="5" t="inlineStr"/>
+      <c r="H326" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I326" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I326" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -17843,45 +17843,45 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B382" s="6" t="inlineStr">
+      <c r="A382" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B382" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C382" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D382" s="6" t="inlineStr">
+      <c r="C382" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D382" s="5" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E382" s="6" t="inlineStr">
+      <c r="E382" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F382" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G382" s="6" t="inlineStr"/>
-      <c r="H382" s="6" t="inlineStr">
+      <c r="F382" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G382" s="5" t="inlineStr"/>
+      <c r="H382" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I382" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I382" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -20299,45 +20299,45 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B438" s="6" t="inlineStr">
+      <c r="A438" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B438" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C438" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D438" s="6" t="inlineStr">
+      <c r="C438" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D438" s="5" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E438" s="6" t="inlineStr">
+      <c r="E438" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F438" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G438" s="6" t="inlineStr"/>
-      <c r="H438" s="6" t="inlineStr">
+      <c r="F438" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G438" s="5" t="inlineStr"/>
+      <c r="H438" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I438" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I438" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -22755,45 +22755,45 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B494" s="6" t="inlineStr">
+      <c r="A494" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B494" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C494" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D494" s="6" t="inlineStr">
+      <c r="C494" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D494" s="5" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E494" s="6" t="inlineStr">
+      <c r="E494" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F494" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G494" s="6" t="inlineStr"/>
-      <c r="H494" s="6" t="inlineStr">
+      <c r="F494" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G494" s="5" t="inlineStr"/>
+      <c r="H494" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I494" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I494" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -25211,45 +25211,45 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B550" s="6" t="inlineStr">
+      <c r="A550" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B550" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C550" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D550" s="6" t="inlineStr">
+      <c r="C550" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D550" s="5" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E550" s="6" t="inlineStr">
+      <c r="E550" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F550" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G550" s="6" t="inlineStr"/>
-      <c r="H550" s="6" t="inlineStr">
+      <c r="F550" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G550" s="5" t="inlineStr"/>
+      <c r="H550" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I550" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I550" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -27667,45 +27667,45 @@
       </c>
     </row>
     <row r="606">
-      <c r="A606" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B606" s="6" t="inlineStr">
+      <c r="A606" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B606" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C606" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D606" s="6" t="inlineStr">
+      <c r="C606" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D606" s="5" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E606" s="6" t="inlineStr">
+      <c r="E606" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F606" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G606" s="6" t="inlineStr"/>
-      <c r="H606" s="6" t="inlineStr">
+      <c r="F606" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G606" s="5" t="inlineStr"/>
+      <c r="H606" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I606" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I606" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -30123,45 +30123,45 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B662" s="6" t="inlineStr">
+      <c r="A662" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B662" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C662" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D662" s="6" t="inlineStr">
+      <c r="C662" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D662" s="5" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E662" s="6" t="inlineStr">
+      <c r="E662" s="5" t="inlineStr">
         <is>
           <t>04/01/2026</t>
         </is>
       </c>
-      <c r="F662" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G662" s="6" t="inlineStr"/>
-      <c r="H662" s="6" t="inlineStr">
+      <c r="F662" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G662" s="5" t="inlineStr"/>
+      <c r="H662" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I662" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I662" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1569,45 +1569,45 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E19" s="6" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F19" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G19" s="6" t="inlineStr"/>
-      <c r="H19" s="6" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr"/>
+      <c r="H19" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I19" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K19" s="4" t="inlineStr">
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -4370,45 +4370,45 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B75" s="6" t="inlineStr">
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B75" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C75" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D75" s="6" t="inlineStr">
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D75" s="5" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E75" s="6" t="inlineStr">
+      <c r="E75" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F75" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G75" s="6" t="inlineStr"/>
-      <c r="H75" s="6" t="inlineStr">
+      <c r="F75" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G75" s="5" t="inlineStr"/>
+      <c r="H75" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I75" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I75" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6830,45 +6830,45 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B131" s="6" t="inlineStr">
+      <c r="A131" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B131" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C131" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D131" s="6" t="inlineStr">
+      <c r="C131" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D131" s="5" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E131" s="6" t="inlineStr">
+      <c r="E131" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F131" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G131" s="6" t="inlineStr"/>
-      <c r="H131" s="6" t="inlineStr">
+      <c r="F131" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G131" s="5" t="inlineStr"/>
+      <c r="H131" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I131" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I131" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9290,45 +9290,45 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B187" s="6" t="inlineStr">
+      <c r="A187" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B187" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C187" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D187" s="6" t="inlineStr">
+      <c r="C187" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D187" s="5" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E187" s="6" t="inlineStr">
+      <c r="E187" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F187" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G187" s="6" t="inlineStr"/>
-      <c r="H187" s="6" t="inlineStr">
+      <c r="F187" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G187" s="5" t="inlineStr"/>
+      <c r="H187" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I187" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I187" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11746,45 +11746,45 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B243" s="6" t="inlineStr">
+      <c r="A243" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B243" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C243" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D243" s="6" t="inlineStr">
+      <c r="C243" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D243" s="5" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E243" s="6" t="inlineStr">
+      <c r="E243" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F243" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G243" s="6" t="inlineStr"/>
-      <c r="H243" s="6" t="inlineStr">
+      <c r="F243" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G243" s="5" t="inlineStr"/>
+      <c r="H243" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I243" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I243" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -14202,45 +14202,45 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B299" s="6" t="inlineStr">
+      <c r="A299" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B299" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C299" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D299" s="6" t="inlineStr">
+      <c r="C299" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D299" s="5" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E299" s="6" t="inlineStr">
+      <c r="E299" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F299" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G299" s="6" t="inlineStr"/>
-      <c r="H299" s="6" t="inlineStr">
+      <c r="F299" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G299" s="5" t="inlineStr"/>
+      <c r="H299" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I299" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I299" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -16658,45 +16658,45 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B355" s="6" t="inlineStr">
+      <c r="A355" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B355" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C355" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D355" s="6" t="inlineStr">
+      <c r="C355" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D355" s="5" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E355" s="6" t="inlineStr">
+      <c r="E355" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F355" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G355" s="6" t="inlineStr"/>
-      <c r="H355" s="6" t="inlineStr">
+      <c r="F355" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G355" s="5" t="inlineStr"/>
+      <c r="H355" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I355" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I355" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -19114,45 +19114,45 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B411" s="6" t="inlineStr">
+      <c r="A411" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B411" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C411" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D411" s="6" t="inlineStr">
+      <c r="C411" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D411" s="5" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E411" s="6" t="inlineStr">
+      <c r="E411" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F411" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G411" s="6" t="inlineStr"/>
-      <c r="H411" s="6" t="inlineStr">
+      <c r="F411" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G411" s="5" t="inlineStr"/>
+      <c r="H411" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I411" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I411" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -21570,45 +21570,45 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B467" s="6" t="inlineStr">
+      <c r="A467" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B467" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C467" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D467" s="6" t="inlineStr">
+      <c r="C467" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D467" s="5" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E467" s="6" t="inlineStr">
+      <c r="E467" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F467" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G467" s="6" t="inlineStr"/>
-      <c r="H467" s="6" t="inlineStr">
+      <c r="F467" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G467" s="5" t="inlineStr"/>
+      <c r="H467" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I467" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I467" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -24026,45 +24026,45 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B523" s="6" t="inlineStr">
+      <c r="A523" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B523" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C523" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D523" s="6" t="inlineStr">
+      <c r="C523" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D523" s="5" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E523" s="6" t="inlineStr">
+      <c r="E523" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F523" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G523" s="6" t="inlineStr"/>
-      <c r="H523" s="6" t="inlineStr">
+      <c r="F523" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G523" s="5" t="inlineStr"/>
+      <c r="H523" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I523" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I523" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -26482,45 +26482,45 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B579" s="6" t="inlineStr">
+      <c r="A579" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B579" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C579" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D579" s="6" t="inlineStr">
+      <c r="C579" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D579" s="5" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E579" s="6" t="inlineStr">
+      <c r="E579" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F579" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G579" s="6" t="inlineStr"/>
-      <c r="H579" s="6" t="inlineStr">
+      <c r="F579" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G579" s="5" t="inlineStr"/>
+      <c r="H579" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I579" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I579" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -28938,45 +28938,45 @@
       </c>
     </row>
     <row r="635">
-      <c r="A635" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B635" s="6" t="inlineStr">
+      <c r="A635" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B635" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C635" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D635" s="6" t="inlineStr">
+      <c r="C635" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D635" s="5" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E635" s="6" t="inlineStr">
+      <c r="E635" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F635" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G635" s="6" t="inlineStr"/>
-      <c r="H635" s="6" t="inlineStr">
+      <c r="F635" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G635" s="5" t="inlineStr"/>
+      <c r="H635" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I635" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I635" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -3142,45 +3142,45 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B47" s="6" t="inlineStr">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C47" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D47" s="6" t="inlineStr">
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="E47" s="6" t="inlineStr">
+      <c r="E47" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F47" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G47" s="6" t="inlineStr"/>
-      <c r="H47" s="6" t="inlineStr">
+      <c r="F47" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G47" s="5" t="inlineStr"/>
+      <c r="H47" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I47" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I47" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5598,45 +5598,45 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B103" s="6" t="inlineStr">
+      <c r="A103" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B103" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C103" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D103" s="6" t="inlineStr">
+      <c r="C103" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D103" s="5" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="E103" s="6" t="inlineStr">
+      <c r="E103" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F103" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G103" s="6" t="inlineStr"/>
-      <c r="H103" s="6" t="inlineStr">
+      <c r="F103" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G103" s="5" t="inlineStr"/>
+      <c r="H103" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I103" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I103" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8062,45 +8062,45 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B159" s="6" t="inlineStr">
+      <c r="A159" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B159" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C159" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D159" s="6" t="inlineStr">
+      <c r="C159" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D159" s="5" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="E159" s="6" t="inlineStr">
+      <c r="E159" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F159" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G159" s="6" t="inlineStr"/>
-      <c r="H159" s="6" t="inlineStr">
+      <c r="F159" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G159" s="5" t="inlineStr"/>
+      <c r="H159" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I159" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I159" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10518,45 +10518,45 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B215" s="6" t="inlineStr">
+      <c r="A215" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B215" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C215" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D215" s="6" t="inlineStr">
+      <c r="C215" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D215" s="5" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="E215" s="6" t="inlineStr">
+      <c r="E215" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F215" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G215" s="6" t="inlineStr"/>
-      <c r="H215" s="6" t="inlineStr">
+      <c r="F215" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G215" s="5" t="inlineStr"/>
+      <c r="H215" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I215" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I215" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -12974,45 +12974,45 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B271" s="6" t="inlineStr">
+      <c r="A271" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B271" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C271" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D271" s="6" t="inlineStr">
+      <c r="C271" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D271" s="5" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="E271" s="6" t="inlineStr">
+      <c r="E271" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F271" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G271" s="6" t="inlineStr"/>
-      <c r="H271" s="6" t="inlineStr">
+      <c r="F271" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G271" s="5" t="inlineStr"/>
+      <c r="H271" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I271" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I271" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15430,45 +15430,45 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B327" s="6" t="inlineStr">
+      <c r="A327" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B327" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C327" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D327" s="6" t="inlineStr">
+      <c r="C327" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D327" s="5" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="E327" s="6" t="inlineStr">
+      <c r="E327" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F327" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G327" s="6" t="inlineStr"/>
-      <c r="H327" s="6" t="inlineStr">
+      <c r="F327" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G327" s="5" t="inlineStr"/>
+      <c r="H327" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I327" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I327" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -17886,45 +17886,45 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B383" s="6" t="inlineStr">
+      <c r="A383" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B383" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C383" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D383" s="6" t="inlineStr">
+      <c r="C383" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D383" s="5" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="E383" s="6" t="inlineStr">
+      <c r="E383" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F383" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G383" s="6" t="inlineStr"/>
-      <c r="H383" s="6" t="inlineStr">
+      <c r="F383" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G383" s="5" t="inlineStr"/>
+      <c r="H383" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I383" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I383" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -20342,45 +20342,45 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B439" s="6" t="inlineStr">
+      <c r="A439" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B439" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C439" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D439" s="6" t="inlineStr">
+      <c r="C439" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D439" s="5" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="E439" s="6" t="inlineStr">
+      <c r="E439" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F439" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G439" s="6" t="inlineStr"/>
-      <c r="H439" s="6" t="inlineStr">
+      <c r="F439" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G439" s="5" t="inlineStr"/>
+      <c r="H439" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I439" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I439" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -22798,45 +22798,45 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B495" s="6" t="inlineStr">
+      <c r="A495" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B495" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C495" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D495" s="6" t="inlineStr">
+      <c r="C495" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D495" s="5" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="E495" s="6" t="inlineStr">
+      <c r="E495" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F495" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G495" s="6" t="inlineStr"/>
-      <c r="H495" s="6" t="inlineStr">
+      <c r="F495" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G495" s="5" t="inlineStr"/>
+      <c r="H495" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I495" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I495" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -25254,45 +25254,45 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B551" s="6" t="inlineStr">
+      <c r="A551" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B551" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C551" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D551" s="6" t="inlineStr">
+      <c r="C551" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D551" s="5" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="E551" s="6" t="inlineStr">
+      <c r="E551" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F551" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G551" s="6" t="inlineStr"/>
-      <c r="H551" s="6" t="inlineStr">
+      <c r="F551" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G551" s="5" t="inlineStr"/>
+      <c r="H551" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I551" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I551" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -27710,45 +27710,45 @@
       </c>
     </row>
     <row r="607">
-      <c r="A607" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B607" s="6" t="inlineStr">
+      <c r="A607" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B607" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C607" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D607" s="6" t="inlineStr">
+      <c r="C607" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D607" s="5" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="E607" s="6" t="inlineStr">
+      <c r="E607" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F607" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G607" s="6" t="inlineStr"/>
-      <c r="H607" s="6" t="inlineStr">
+      <c r="F607" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G607" s="5" t="inlineStr"/>
+      <c r="H607" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I607" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I607" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -30166,45 +30166,45 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B663" s="6" t="inlineStr">
+      <c r="A663" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B663" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C663" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D663" s="6" t="inlineStr">
+      <c r="C663" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D663" s="5" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="E663" s="6" t="inlineStr">
+      <c r="E663" s="5" t="inlineStr">
         <is>
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="F663" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G663" s="6" t="inlineStr"/>
-      <c r="H663" s="6" t="inlineStr">
+      <c r="F663" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G663" s="5" t="inlineStr"/>
+      <c r="H663" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I663" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I663" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1647,45 +1647,45 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D20" s="6" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E20" s="6" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F20" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G20" s="6" t="inlineStr"/>
-      <c r="H20" s="6" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr"/>
+      <c r="H20" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I20" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I20" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -4413,45 +4413,45 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B76" s="6" t="inlineStr">
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B76" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C76" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D76" s="6" t="inlineStr">
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D76" s="5" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E76" s="6" t="inlineStr">
+      <c r="E76" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F76" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G76" s="6" t="inlineStr"/>
-      <c r="H76" s="6" t="inlineStr">
+      <c r="F76" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G76" s="5" t="inlineStr"/>
+      <c r="H76" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I76" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I76" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6873,45 +6873,45 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B132" s="6" t="inlineStr">
+      <c r="A132" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B132" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C132" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D132" s="6" t="inlineStr">
+      <c r="C132" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D132" s="5" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E132" s="6" t="inlineStr">
+      <c r="E132" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F132" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G132" s="6" t="inlineStr"/>
-      <c r="H132" s="6" t="inlineStr">
+      <c r="F132" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G132" s="5" t="inlineStr"/>
+      <c r="H132" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I132" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I132" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9333,45 +9333,45 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B188" s="6" t="inlineStr">
+      <c r="A188" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B188" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C188" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D188" s="6" t="inlineStr">
+      <c r="C188" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D188" s="5" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E188" s="6" t="inlineStr">
+      <c r="E188" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F188" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G188" s="6" t="inlineStr"/>
-      <c r="H188" s="6" t="inlineStr">
+      <c r="F188" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G188" s="5" t="inlineStr"/>
+      <c r="H188" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I188" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I188" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11789,45 +11789,45 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B244" s="6" t="inlineStr">
+      <c r="A244" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B244" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C244" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D244" s="6" t="inlineStr">
+      <c r="C244" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D244" s="5" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E244" s="6" t="inlineStr">
+      <c r="E244" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F244" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G244" s="6" t="inlineStr"/>
-      <c r="H244" s="6" t="inlineStr">
+      <c r="F244" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G244" s="5" t="inlineStr"/>
+      <c r="H244" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I244" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I244" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -14245,45 +14245,45 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B300" s="6" t="inlineStr">
+      <c r="A300" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B300" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C300" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D300" s="6" t="inlineStr">
+      <c r="C300" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D300" s="5" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E300" s="6" t="inlineStr">
+      <c r="E300" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F300" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G300" s="6" t="inlineStr"/>
-      <c r="H300" s="6" t="inlineStr">
+      <c r="F300" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G300" s="5" t="inlineStr"/>
+      <c r="H300" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I300" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I300" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -16701,45 +16701,45 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B356" s="6" t="inlineStr">
+      <c r="A356" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B356" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C356" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D356" s="6" t="inlineStr">
+      <c r="C356" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D356" s="5" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E356" s="6" t="inlineStr">
+      <c r="E356" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F356" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G356" s="6" t="inlineStr"/>
-      <c r="H356" s="6" t="inlineStr">
+      <c r="F356" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G356" s="5" t="inlineStr"/>
+      <c r="H356" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I356" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I356" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -19157,45 +19157,45 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B412" s="6" t="inlineStr">
+      <c r="A412" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B412" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C412" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D412" s="6" t="inlineStr">
+      <c r="C412" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D412" s="5" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E412" s="6" t="inlineStr">
+      <c r="E412" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F412" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G412" s="6" t="inlineStr"/>
-      <c r="H412" s="6" t="inlineStr">
+      <c r="F412" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G412" s="5" t="inlineStr"/>
+      <c r="H412" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I412" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I412" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -21613,45 +21613,45 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B468" s="6" t="inlineStr">
+      <c r="A468" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B468" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C468" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D468" s="6" t="inlineStr">
+      <c r="C468" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D468" s="5" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E468" s="6" t="inlineStr">
+      <c r="E468" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F468" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G468" s="6" t="inlineStr"/>
-      <c r="H468" s="6" t="inlineStr">
+      <c r="F468" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G468" s="5" t="inlineStr"/>
+      <c r="H468" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I468" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I468" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -24069,45 +24069,45 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B524" s="6" t="inlineStr">
+      <c r="A524" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B524" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C524" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D524" s="6" t="inlineStr">
+      <c r="C524" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D524" s="5" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E524" s="6" t="inlineStr">
+      <c r="E524" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F524" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G524" s="6" t="inlineStr"/>
-      <c r="H524" s="6" t="inlineStr">
+      <c r="F524" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G524" s="5" t="inlineStr"/>
+      <c r="H524" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I524" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I524" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -26525,45 +26525,45 @@
       </c>
     </row>
     <row r="580">
-      <c r="A580" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B580" s="6" t="inlineStr">
+      <c r="A580" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B580" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C580" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D580" s="6" t="inlineStr">
+      <c r="C580" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D580" s="5" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E580" s="6" t="inlineStr">
+      <c r="E580" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F580" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G580" s="6" t="inlineStr"/>
-      <c r="H580" s="6" t="inlineStr">
+      <c r="F580" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G580" s="5" t="inlineStr"/>
+      <c r="H580" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I580" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I580" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -28981,45 +28981,45 @@
       </c>
     </row>
     <row r="636">
-      <c r="A636" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B636" s="6" t="inlineStr">
+      <c r="A636" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B636" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C636" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D636" s="6" t="inlineStr">
+      <c r="C636" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D636" s="5" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E636" s="6" t="inlineStr">
+      <c r="E636" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F636" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G636" s="6" t="inlineStr"/>
-      <c r="H636" s="6" t="inlineStr">
+      <c r="F636" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G636" s="5" t="inlineStr"/>
+      <c r="H636" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I636" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I636" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -3185,45 +3185,45 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B48" s="6" t="inlineStr">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C48" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D48" s="6" t="inlineStr">
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="E48" s="6" t="inlineStr">
+      <c r="E48" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F48" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G48" s="6" t="inlineStr"/>
-      <c r="H48" s="6" t="inlineStr">
+      <c r="F48" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G48" s="5" t="inlineStr"/>
+      <c r="H48" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I48" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I48" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5641,45 +5641,45 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B104" s="6" t="inlineStr">
+      <c r="A104" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B104" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C104" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D104" s="6" t="inlineStr">
+      <c r="C104" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D104" s="5" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="E104" s="6" t="inlineStr">
+      <c r="E104" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F104" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G104" s="6" t="inlineStr"/>
-      <c r="H104" s="6" t="inlineStr">
+      <c r="F104" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G104" s="5" t="inlineStr"/>
+      <c r="H104" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I104" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I104" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8105,45 +8105,45 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B160" s="6" t="inlineStr">
+      <c r="A160" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B160" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C160" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D160" s="6" t="inlineStr">
+      <c r="C160" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D160" s="5" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="E160" s="6" t="inlineStr">
+      <c r="E160" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F160" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G160" s="6" t="inlineStr"/>
-      <c r="H160" s="6" t="inlineStr">
+      <c r="F160" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G160" s="5" t="inlineStr"/>
+      <c r="H160" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I160" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I160" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10561,45 +10561,45 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B216" s="6" t="inlineStr">
+      <c r="A216" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B216" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C216" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D216" s="6" t="inlineStr">
+      <c r="C216" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D216" s="5" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="E216" s="6" t="inlineStr">
+      <c r="E216" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F216" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G216" s="6" t="inlineStr"/>
-      <c r="H216" s="6" t="inlineStr">
+      <c r="F216" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G216" s="5" t="inlineStr"/>
+      <c r="H216" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I216" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I216" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13017,45 +13017,45 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B272" s="6" t="inlineStr">
+      <c r="A272" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B272" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C272" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D272" s="6" t="inlineStr">
+      <c r="C272" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D272" s="5" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="E272" s="6" t="inlineStr">
+      <c r="E272" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F272" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G272" s="6" t="inlineStr"/>
-      <c r="H272" s="6" t="inlineStr">
+      <c r="F272" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G272" s="5" t="inlineStr"/>
+      <c r="H272" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I272" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I272" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15473,45 +15473,45 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B328" s="6" t="inlineStr">
+      <c r="A328" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B328" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C328" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D328" s="6" t="inlineStr">
+      <c r="C328" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D328" s="5" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="E328" s="6" t="inlineStr">
+      <c r="E328" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F328" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G328" s="6" t="inlineStr"/>
-      <c r="H328" s="6" t="inlineStr">
+      <c r="F328" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G328" s="5" t="inlineStr"/>
+      <c r="H328" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I328" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I328" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -17929,45 +17929,45 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B384" s="6" t="inlineStr">
+      <c r="A384" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B384" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C384" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D384" s="6" t="inlineStr">
+      <c r="C384" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D384" s="5" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="E384" s="6" t="inlineStr">
+      <c r="E384" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F384" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G384" s="6" t="inlineStr"/>
-      <c r="H384" s="6" t="inlineStr">
+      <c r="F384" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G384" s="5" t="inlineStr"/>
+      <c r="H384" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I384" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I384" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -20385,45 +20385,45 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B440" s="6" t="inlineStr">
+      <c r="A440" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B440" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C440" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D440" s="6" t="inlineStr">
+      <c r="C440" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D440" s="5" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="E440" s="6" t="inlineStr">
+      <c r="E440" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F440" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G440" s="6" t="inlineStr"/>
-      <c r="H440" s="6" t="inlineStr">
+      <c r="F440" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G440" s="5" t="inlineStr"/>
+      <c r="H440" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I440" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I440" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -22841,45 +22841,45 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B496" s="6" t="inlineStr">
+      <c r="A496" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B496" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C496" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D496" s="6" t="inlineStr">
+      <c r="C496" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D496" s="5" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="E496" s="6" t="inlineStr">
+      <c r="E496" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F496" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G496" s="6" t="inlineStr"/>
-      <c r="H496" s="6" t="inlineStr">
+      <c r="F496" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G496" s="5" t="inlineStr"/>
+      <c r="H496" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I496" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I496" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -25297,45 +25297,45 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B552" s="6" t="inlineStr">
+      <c r="A552" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B552" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C552" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D552" s="6" t="inlineStr">
+      <c r="C552" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D552" s="5" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="E552" s="6" t="inlineStr">
+      <c r="E552" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F552" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G552" s="6" t="inlineStr"/>
-      <c r="H552" s="6" t="inlineStr">
+      <c r="F552" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G552" s="5" t="inlineStr"/>
+      <c r="H552" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I552" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I552" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -27753,45 +27753,45 @@
       </c>
     </row>
     <row r="608">
-      <c r="A608" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B608" s="6" t="inlineStr">
+      <c r="A608" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B608" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C608" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D608" s="6" t="inlineStr">
+      <c r="C608" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D608" s="5" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="E608" s="6" t="inlineStr">
+      <c r="E608" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F608" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G608" s="6" t="inlineStr"/>
-      <c r="H608" s="6" t="inlineStr">
+      <c r="F608" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G608" s="5" t="inlineStr"/>
+      <c r="H608" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I608" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I608" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -30209,45 +30209,45 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B664" s="6" t="inlineStr">
+      <c r="A664" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B664" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C664" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D664" s="6" t="inlineStr">
+      <c r="C664" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D664" s="5" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="E664" s="6" t="inlineStr">
+      <c r="E664" s="5" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F664" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G664" s="6" t="inlineStr"/>
-      <c r="H664" s="6" t="inlineStr">
+      <c r="F664" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G664" s="5" t="inlineStr"/>
+      <c r="H664" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I664" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I664" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1725,45 +1725,45 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C21" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D21" s="6" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="E21" s="6" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F21" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G21" s="6" t="inlineStr"/>
-      <c r="H21" s="6" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr"/>
+      <c r="H21" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I21" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K21" s="4" t="inlineStr">
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -4456,45 +4456,45 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B77" s="6" t="inlineStr">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B77" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C77" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D77" s="6" t="inlineStr">
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D77" s="5" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="E77" s="6" t="inlineStr">
+      <c r="E77" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F77" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G77" s="6" t="inlineStr"/>
-      <c r="H77" s="6" t="inlineStr">
+      <c r="F77" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G77" s="5" t="inlineStr"/>
+      <c r="H77" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I77" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I77" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6916,45 +6916,45 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B133" s="6" t="inlineStr">
+      <c r="A133" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B133" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C133" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D133" s="6" t="inlineStr">
+      <c r="C133" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D133" s="5" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="E133" s="6" t="inlineStr">
+      <c r="E133" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F133" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G133" s="6" t="inlineStr"/>
-      <c r="H133" s="6" t="inlineStr">
+      <c r="F133" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G133" s="5" t="inlineStr"/>
+      <c r="H133" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I133" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I133" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9376,45 +9376,45 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B189" s="6" t="inlineStr">
+      <c r="A189" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B189" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C189" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D189" s="6" t="inlineStr">
+      <c r="C189" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D189" s="5" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="E189" s="6" t="inlineStr">
+      <c r="E189" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F189" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G189" s="6" t="inlineStr"/>
-      <c r="H189" s="6" t="inlineStr">
+      <c r="F189" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G189" s="5" t="inlineStr"/>
+      <c r="H189" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I189" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I189" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11832,45 +11832,45 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B245" s="6" t="inlineStr">
+      <c r="A245" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B245" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C245" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D245" s="6" t="inlineStr">
+      <c r="C245" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D245" s="5" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="E245" s="6" t="inlineStr">
+      <c r="E245" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F245" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G245" s="6" t="inlineStr"/>
-      <c r="H245" s="6" t="inlineStr">
+      <c r="F245" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G245" s="5" t="inlineStr"/>
+      <c r="H245" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I245" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I245" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -14288,45 +14288,45 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B301" s="6" t="inlineStr">
+      <c r="A301" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B301" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C301" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D301" s="6" t="inlineStr">
+      <c r="C301" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D301" s="5" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="E301" s="6" t="inlineStr">
+      <c r="E301" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F301" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G301" s="6" t="inlineStr"/>
-      <c r="H301" s="6" t="inlineStr">
+      <c r="F301" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G301" s="5" t="inlineStr"/>
+      <c r="H301" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I301" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I301" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -16744,45 +16744,45 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B357" s="6" t="inlineStr">
+      <c r="A357" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B357" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C357" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D357" s="6" t="inlineStr">
+      <c r="C357" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D357" s="5" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="E357" s="6" t="inlineStr">
+      <c r="E357" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F357" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G357" s="6" t="inlineStr"/>
-      <c r="H357" s="6" t="inlineStr">
+      <c r="F357" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G357" s="5" t="inlineStr"/>
+      <c r="H357" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I357" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I357" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -19200,45 +19200,45 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B413" s="6" t="inlineStr">
+      <c r="A413" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B413" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C413" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D413" s="6" t="inlineStr">
+      <c r="C413" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D413" s="5" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="E413" s="6" t="inlineStr">
+      <c r="E413" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F413" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G413" s="6" t="inlineStr"/>
-      <c r="H413" s="6" t="inlineStr">
+      <c r="F413" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G413" s="5" t="inlineStr"/>
+      <c r="H413" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I413" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I413" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -21656,45 +21656,45 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B469" s="6" t="inlineStr">
+      <c r="A469" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B469" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C469" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D469" s="6" t="inlineStr">
+      <c r="C469" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D469" s="5" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="E469" s="6" t="inlineStr">
+      <c r="E469" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F469" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G469" s="6" t="inlineStr"/>
-      <c r="H469" s="6" t="inlineStr">
+      <c r="F469" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G469" s="5" t="inlineStr"/>
+      <c r="H469" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I469" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I469" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -24112,45 +24112,45 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B525" s="6" t="inlineStr">
+      <c r="A525" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B525" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C525" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D525" s="6" t="inlineStr">
+      <c r="C525" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D525" s="5" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="E525" s="6" t="inlineStr">
+      <c r="E525" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F525" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G525" s="6" t="inlineStr"/>
-      <c r="H525" s="6" t="inlineStr">
+      <c r="F525" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G525" s="5" t="inlineStr"/>
+      <c r="H525" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I525" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I525" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -26568,45 +26568,45 @@
       </c>
     </row>
     <row r="581">
-      <c r="A581" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B581" s="6" t="inlineStr">
+      <c r="A581" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B581" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C581" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D581" s="6" t="inlineStr">
+      <c r="C581" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D581" s="5" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="E581" s="6" t="inlineStr">
+      <c r="E581" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F581" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G581" s="6" t="inlineStr"/>
-      <c r="H581" s="6" t="inlineStr">
+      <c r="F581" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G581" s="5" t="inlineStr"/>
+      <c r="H581" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I581" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I581" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -29024,45 +29024,45 @@
       </c>
     </row>
     <row r="637">
-      <c r="A637" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B637" s="6" t="inlineStr">
+      <c r="A637" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B637" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C637" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D637" s="6" t="inlineStr">
+      <c r="C637" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D637" s="5" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="E637" s="6" t="inlineStr">
+      <c r="E637" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F637" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G637" s="6" t="inlineStr"/>
-      <c r="H637" s="6" t="inlineStr">
+      <c r="F637" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G637" s="5" t="inlineStr"/>
+      <c r="H637" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I637" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I637" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -3228,45 +3228,45 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B49" s="6" t="inlineStr">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B49" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C49" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D49" s="6" t="inlineStr">
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="E49" s="6" t="inlineStr">
+      <c r="E49" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F49" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G49" s="6" t="inlineStr"/>
-      <c r="H49" s="6" t="inlineStr">
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G49" s="5" t="inlineStr"/>
+      <c r="H49" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I49" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I49" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5684,45 +5684,45 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B105" s="6" t="inlineStr">
+      <c r="A105" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B105" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C105" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D105" s="6" t="inlineStr">
+      <c r="C105" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D105" s="5" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="E105" s="6" t="inlineStr">
+      <c r="E105" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F105" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G105" s="6" t="inlineStr"/>
-      <c r="H105" s="6" t="inlineStr">
+      <c r="F105" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G105" s="5" t="inlineStr"/>
+      <c r="H105" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I105" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I105" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8148,45 +8148,45 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B161" s="6" t="inlineStr">
+      <c r="A161" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B161" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C161" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D161" s="6" t="inlineStr">
+      <c r="C161" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D161" s="5" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="E161" s="6" t="inlineStr">
+      <c r="E161" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F161" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G161" s="6" t="inlineStr"/>
-      <c r="H161" s="6" t="inlineStr">
+      <c r="F161" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G161" s="5" t="inlineStr"/>
+      <c r="H161" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I161" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I161" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10604,45 +10604,45 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B217" s="6" t="inlineStr">
+      <c r="A217" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B217" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C217" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D217" s="6" t="inlineStr">
+      <c r="C217" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D217" s="5" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="E217" s="6" t="inlineStr">
+      <c r="E217" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F217" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G217" s="6" t="inlineStr"/>
-      <c r="H217" s="6" t="inlineStr">
+      <c r="F217" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G217" s="5" t="inlineStr"/>
+      <c r="H217" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I217" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I217" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13060,45 +13060,45 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B273" s="6" t="inlineStr">
+      <c r="A273" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B273" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C273" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D273" s="6" t="inlineStr">
+      <c r="C273" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D273" s="5" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="E273" s="6" t="inlineStr">
+      <c r="E273" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F273" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G273" s="6" t="inlineStr"/>
-      <c r="H273" s="6" t="inlineStr">
+      <c r="F273" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G273" s="5" t="inlineStr"/>
+      <c r="H273" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I273" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I273" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15516,45 +15516,45 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B329" s="6" t="inlineStr">
+      <c r="A329" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B329" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C329" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D329" s="6" t="inlineStr">
+      <c r="C329" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D329" s="5" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="E329" s="6" t="inlineStr">
+      <c r="E329" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F329" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G329" s="6" t="inlineStr"/>
-      <c r="H329" s="6" t="inlineStr">
+      <c r="F329" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G329" s="5" t="inlineStr"/>
+      <c r="H329" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I329" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I329" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -17972,45 +17972,45 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B385" s="6" t="inlineStr">
+      <c r="A385" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B385" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C385" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D385" s="6" t="inlineStr">
+      <c r="C385" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D385" s="5" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="E385" s="6" t="inlineStr">
+      <c r="E385" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F385" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G385" s="6" t="inlineStr"/>
-      <c r="H385" s="6" t="inlineStr">
+      <c r="F385" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G385" s="5" t="inlineStr"/>
+      <c r="H385" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I385" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I385" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -20428,45 +20428,45 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B441" s="6" t="inlineStr">
+      <c r="A441" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B441" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C441" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D441" s="6" t="inlineStr">
+      <c r="C441" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D441" s="5" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="E441" s="6" t="inlineStr">
+      <c r="E441" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F441" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G441" s="6" t="inlineStr"/>
-      <c r="H441" s="6" t="inlineStr">
+      <c r="F441" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G441" s="5" t="inlineStr"/>
+      <c r="H441" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I441" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I441" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -22884,45 +22884,45 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B497" s="6" t="inlineStr">
+      <c r="A497" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B497" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C497" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D497" s="6" t="inlineStr">
+      <c r="C497" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D497" s="5" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="E497" s="6" t="inlineStr">
+      <c r="E497" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F497" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G497" s="6" t="inlineStr"/>
-      <c r="H497" s="6" t="inlineStr">
+      <c r="F497" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G497" s="5" t="inlineStr"/>
+      <c r="H497" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I497" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I497" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -25340,45 +25340,45 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B553" s="6" t="inlineStr">
+      <c r="A553" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B553" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C553" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D553" s="6" t="inlineStr">
+      <c r="C553" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D553" s="5" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="E553" s="6" t="inlineStr">
+      <c r="E553" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F553" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G553" s="6" t="inlineStr"/>
-      <c r="H553" s="6" t="inlineStr">
+      <c r="F553" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G553" s="5" t="inlineStr"/>
+      <c r="H553" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I553" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I553" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -27796,45 +27796,45 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B609" s="6" t="inlineStr">
+      <c r="A609" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B609" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C609" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D609" s="6" t="inlineStr">
+      <c r="C609" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D609" s="5" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="E609" s="6" t="inlineStr">
+      <c r="E609" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F609" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G609" s="6" t="inlineStr"/>
-      <c r="H609" s="6" t="inlineStr">
+      <c r="F609" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G609" s="5" t="inlineStr"/>
+      <c r="H609" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I609" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I609" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -30252,45 +30252,45 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B665" s="6" t="inlineStr">
+      <c r="A665" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B665" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C665" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D665" s="6" t="inlineStr">
+      <c r="C665" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D665" s="5" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="E665" s="6" t="inlineStr">
+      <c r="E665" s="5" t="inlineStr">
         <is>
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="F665" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G665" s="6" t="inlineStr"/>
-      <c r="H665" s="6" t="inlineStr">
+      <c r="F665" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G665" s="5" t="inlineStr"/>
+      <c r="H665" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I665" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I665" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1803,45 +1803,45 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C22" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D22" s="6" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="E22" s="6" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F22" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G22" s="6" t="inlineStr"/>
-      <c r="H22" s="6" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="inlineStr"/>
+      <c r="H22" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I22" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I22" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K22" s="4" t="inlineStr">
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -4499,45 +4499,45 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B78" s="6" t="inlineStr">
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B78" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C78" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D78" s="6" t="inlineStr">
+      <c r="C78" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D78" s="5" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="E78" s="6" t="inlineStr">
+      <c r="E78" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F78" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G78" s="6" t="inlineStr"/>
-      <c r="H78" s="6" t="inlineStr">
+      <c r="F78" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G78" s="5" t="inlineStr"/>
+      <c r="H78" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I78" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I78" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6959,45 +6959,45 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B134" s="6" t="inlineStr">
+      <c r="A134" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B134" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C134" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D134" s="6" t="inlineStr">
+      <c r="C134" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D134" s="5" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="E134" s="6" t="inlineStr">
+      <c r="E134" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F134" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G134" s="6" t="inlineStr"/>
-      <c r="H134" s="6" t="inlineStr">
+      <c r="F134" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G134" s="5" t="inlineStr"/>
+      <c r="H134" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I134" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I134" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9419,45 +9419,45 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B190" s="6" t="inlineStr">
+      <c r="A190" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B190" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C190" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D190" s="6" t="inlineStr">
+      <c r="C190" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D190" s="5" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="E190" s="6" t="inlineStr">
+      <c r="E190" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F190" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G190" s="6" t="inlineStr"/>
-      <c r="H190" s="6" t="inlineStr">
+      <c r="F190" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G190" s="5" t="inlineStr"/>
+      <c r="H190" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I190" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I190" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11875,45 +11875,45 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B246" s="6" t="inlineStr">
+      <c r="A246" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B246" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C246" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D246" s="6" t="inlineStr">
+      <c r="C246" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D246" s="5" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="E246" s="6" t="inlineStr">
+      <c r="E246" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F246" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G246" s="6" t="inlineStr"/>
-      <c r="H246" s="6" t="inlineStr">
+      <c r="F246" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G246" s="5" t="inlineStr"/>
+      <c r="H246" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I246" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I246" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -14331,45 +14331,45 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B302" s="6" t="inlineStr">
+      <c r="A302" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B302" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C302" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D302" s="6" t="inlineStr">
+      <c r="C302" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D302" s="5" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="E302" s="6" t="inlineStr">
+      <c r="E302" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F302" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G302" s="6" t="inlineStr"/>
-      <c r="H302" s="6" t="inlineStr">
+      <c r="F302" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G302" s="5" t="inlineStr"/>
+      <c r="H302" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I302" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I302" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -16787,45 +16787,45 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B358" s="6" t="inlineStr">
+      <c r="A358" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B358" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C358" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D358" s="6" t="inlineStr">
+      <c r="C358" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D358" s="5" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="E358" s="6" t="inlineStr">
+      <c r="E358" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F358" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G358" s="6" t="inlineStr"/>
-      <c r="H358" s="6" t="inlineStr">
+      <c r="F358" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G358" s="5" t="inlineStr"/>
+      <c r="H358" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I358" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I358" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -19243,45 +19243,45 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B414" s="6" t="inlineStr">
+      <c r="A414" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B414" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C414" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D414" s="6" t="inlineStr">
+      <c r="C414" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D414" s="5" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="E414" s="6" t="inlineStr">
+      <c r="E414" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F414" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G414" s="6" t="inlineStr"/>
-      <c r="H414" s="6" t="inlineStr">
+      <c r="F414" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G414" s="5" t="inlineStr"/>
+      <c r="H414" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I414" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I414" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -21699,45 +21699,45 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B470" s="6" t="inlineStr">
+      <c r="A470" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B470" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C470" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D470" s="6" t="inlineStr">
+      <c r="C470" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D470" s="5" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="E470" s="6" t="inlineStr">
+      <c r="E470" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F470" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G470" s="6" t="inlineStr"/>
-      <c r="H470" s="6" t="inlineStr">
+      <c r="F470" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G470" s="5" t="inlineStr"/>
+      <c r="H470" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I470" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I470" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -24155,45 +24155,45 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B526" s="6" t="inlineStr">
+      <c r="A526" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B526" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C526" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D526" s="6" t="inlineStr">
+      <c r="C526" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D526" s="5" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="E526" s="6" t="inlineStr">
+      <c r="E526" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F526" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G526" s="6" t="inlineStr"/>
-      <c r="H526" s="6" t="inlineStr">
+      <c r="F526" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G526" s="5" t="inlineStr"/>
+      <c r="H526" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I526" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I526" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -26611,45 +26611,45 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B582" s="6" t="inlineStr">
+      <c r="A582" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B582" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C582" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D582" s="6" t="inlineStr">
+      <c r="C582" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D582" s="5" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="E582" s="6" t="inlineStr">
+      <c r="E582" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F582" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G582" s="6" t="inlineStr"/>
-      <c r="H582" s="6" t="inlineStr">
+      <c r="F582" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G582" s="5" t="inlineStr"/>
+      <c r="H582" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I582" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I582" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -29067,45 +29067,45 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B638" s="6" t="inlineStr">
+      <c r="A638" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B638" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C638" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D638" s="6" t="inlineStr">
+      <c r="C638" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D638" s="5" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="E638" s="6" t="inlineStr">
+      <c r="E638" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F638" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G638" s="6" t="inlineStr"/>
-      <c r="H638" s="6" t="inlineStr">
+      <c r="F638" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G638" s="5" t="inlineStr"/>
+      <c r="H638" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I638" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I638" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -3271,45 +3271,45 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B50" s="6" t="inlineStr">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C50" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D50" s="6" t="inlineStr">
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="E50" s="6" t="inlineStr">
+      <c r="E50" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F50" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G50" s="6" t="inlineStr"/>
-      <c r="H50" s="6" t="inlineStr">
+      <c r="F50" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G50" s="5" t="inlineStr"/>
+      <c r="H50" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I50" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I50" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5727,45 +5727,45 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B106" s="6" t="inlineStr">
+      <c r="A106" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B106" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C106" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D106" s="6" t="inlineStr">
+      <c r="C106" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D106" s="5" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="E106" s="6" t="inlineStr">
+      <c r="E106" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F106" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G106" s="6" t="inlineStr"/>
-      <c r="H106" s="6" t="inlineStr">
+      <c r="F106" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G106" s="5" t="inlineStr"/>
+      <c r="H106" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I106" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I106" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8191,45 +8191,45 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B162" s="6" t="inlineStr">
+      <c r="A162" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B162" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C162" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D162" s="6" t="inlineStr">
+      <c r="C162" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D162" s="5" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="E162" s="6" t="inlineStr">
+      <c r="E162" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F162" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G162" s="6" t="inlineStr"/>
-      <c r="H162" s="6" t="inlineStr">
+      <c r="F162" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G162" s="5" t="inlineStr"/>
+      <c r="H162" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I162" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I162" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10647,45 +10647,45 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B218" s="6" t="inlineStr">
+      <c r="A218" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B218" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C218" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D218" s="6" t="inlineStr">
+      <c r="C218" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D218" s="5" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="E218" s="6" t="inlineStr">
+      <c r="E218" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F218" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G218" s="6" t="inlineStr"/>
-      <c r="H218" s="6" t="inlineStr">
+      <c r="F218" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G218" s="5" t="inlineStr"/>
+      <c r="H218" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I218" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I218" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13103,45 +13103,45 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B274" s="6" t="inlineStr">
+      <c r="A274" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B274" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C274" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D274" s="6" t="inlineStr">
+      <c r="C274" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D274" s="5" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="E274" s="6" t="inlineStr">
+      <c r="E274" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F274" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G274" s="6" t="inlineStr"/>
-      <c r="H274" s="6" t="inlineStr">
+      <c r="F274" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G274" s="5" t="inlineStr"/>
+      <c r="H274" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I274" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I274" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15559,45 +15559,45 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B330" s="6" t="inlineStr">
+      <c r="A330" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B330" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C330" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D330" s="6" t="inlineStr">
+      <c r="C330" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D330" s="5" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="E330" s="6" t="inlineStr">
+      <c r="E330" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F330" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G330" s="6" t="inlineStr"/>
-      <c r="H330" s="6" t="inlineStr">
+      <c r="F330" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G330" s="5" t="inlineStr"/>
+      <c r="H330" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I330" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I330" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -18015,45 +18015,45 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B386" s="6" t="inlineStr">
+      <c r="A386" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B386" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C386" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D386" s="6" t="inlineStr">
+      <c r="C386" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D386" s="5" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="E386" s="6" t="inlineStr">
+      <c r="E386" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F386" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G386" s="6" t="inlineStr"/>
-      <c r="H386" s="6" t="inlineStr">
+      <c r="F386" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G386" s="5" t="inlineStr"/>
+      <c r="H386" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I386" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I386" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -20471,45 +20471,45 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B442" s="6" t="inlineStr">
+      <c r="A442" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B442" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C442" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D442" s="6" t="inlineStr">
+      <c r="C442" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D442" s="5" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="E442" s="6" t="inlineStr">
+      <c r="E442" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F442" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G442" s="6" t="inlineStr"/>
-      <c r="H442" s="6" t="inlineStr">
+      <c r="F442" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G442" s="5" t="inlineStr"/>
+      <c r="H442" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I442" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I442" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -22927,45 +22927,45 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B498" s="6" t="inlineStr">
+      <c r="A498" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B498" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C498" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D498" s="6" t="inlineStr">
+      <c r="C498" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D498" s="5" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="E498" s="6" t="inlineStr">
+      <c r="E498" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F498" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G498" s="6" t="inlineStr"/>
-      <c r="H498" s="6" t="inlineStr">
+      <c r="F498" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G498" s="5" t="inlineStr"/>
+      <c r="H498" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I498" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I498" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -25383,45 +25383,45 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B554" s="6" t="inlineStr">
+      <c r="A554" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B554" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C554" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D554" s="6" t="inlineStr">
+      <c r="C554" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D554" s="5" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="E554" s="6" t="inlineStr">
+      <c r="E554" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F554" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G554" s="6" t="inlineStr"/>
-      <c r="H554" s="6" t="inlineStr">
+      <c r="F554" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G554" s="5" t="inlineStr"/>
+      <c r="H554" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I554" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I554" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -27839,45 +27839,45 @@
       </c>
     </row>
     <row r="610">
-      <c r="A610" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B610" s="6" t="inlineStr">
+      <c r="A610" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B610" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C610" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D610" s="6" t="inlineStr">
+      <c r="C610" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D610" s="5" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="E610" s="6" t="inlineStr">
+      <c r="E610" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F610" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G610" s="6" t="inlineStr"/>
-      <c r="H610" s="6" t="inlineStr">
+      <c r="F610" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G610" s="5" t="inlineStr"/>
+      <c r="H610" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I610" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I610" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -30295,45 +30295,45 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B666" s="6" t="inlineStr">
+      <c r="A666" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B666" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C666" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D666" s="6" t="inlineStr">
+      <c r="C666" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D666" s="5" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="E666" s="6" t="inlineStr">
+      <c r="E666" s="5" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F666" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G666" s="6" t="inlineStr"/>
-      <c r="H666" s="6" t="inlineStr">
+      <c r="F666" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G666" s="5" t="inlineStr"/>
+      <c r="H666" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I666" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I666" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1881,45 +1881,45 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C23" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D23" s="6" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E23" s="6" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F23" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G23" s="6" t="inlineStr"/>
-      <c r="H23" s="6" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr"/>
+      <c r="H23" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I23" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I23" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K23" s="4" t="inlineStr">
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -4542,45 +4542,45 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B79" s="6" t="inlineStr">
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B79" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C79" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D79" s="6" t="inlineStr">
+      <c r="C79" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D79" s="5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E79" s="6" t="inlineStr">
+      <c r="E79" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F79" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G79" s="6" t="inlineStr"/>
-      <c r="H79" s="6" t="inlineStr">
+      <c r="F79" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G79" s="5" t="inlineStr"/>
+      <c r="H79" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I79" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I79" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7002,45 +7002,45 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B135" s="6" t="inlineStr">
+      <c r="A135" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B135" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C135" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D135" s="6" t="inlineStr">
+      <c r="C135" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D135" s="5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E135" s="6" t="inlineStr">
+      <c r="E135" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F135" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G135" s="6" t="inlineStr"/>
-      <c r="H135" s="6" t="inlineStr">
+      <c r="F135" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G135" s="5" t="inlineStr"/>
+      <c r="H135" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I135" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I135" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9462,45 +9462,45 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B191" s="6" t="inlineStr">
+      <c r="A191" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B191" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C191" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D191" s="6" t="inlineStr">
+      <c r="C191" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D191" s="5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E191" s="6" t="inlineStr">
+      <c r="E191" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F191" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G191" s="6" t="inlineStr"/>
-      <c r="H191" s="6" t="inlineStr">
+      <c r="F191" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G191" s="5" t="inlineStr"/>
+      <c r="H191" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I191" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I191" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11918,45 +11918,45 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B247" s="6" t="inlineStr">
+      <c r="A247" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B247" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C247" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D247" s="6" t="inlineStr">
+      <c r="C247" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D247" s="5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E247" s="6" t="inlineStr">
+      <c r="E247" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F247" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G247" s="6" t="inlineStr"/>
-      <c r="H247" s="6" t="inlineStr">
+      <c r="F247" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G247" s="5" t="inlineStr"/>
+      <c r="H247" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I247" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I247" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -14374,45 +14374,45 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B303" s="6" t="inlineStr">
+      <c r="A303" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B303" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C303" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D303" s="6" t="inlineStr">
+      <c r="C303" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D303" s="5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E303" s="6" t="inlineStr">
+      <c r="E303" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F303" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G303" s="6" t="inlineStr"/>
-      <c r="H303" s="6" t="inlineStr">
+      <c r="F303" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G303" s="5" t="inlineStr"/>
+      <c r="H303" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I303" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I303" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -16830,45 +16830,45 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B359" s="6" t="inlineStr">
+      <c r="A359" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B359" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C359" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D359" s="6" t="inlineStr">
+      <c r="C359" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D359" s="5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E359" s="6" t="inlineStr">
+      <c r="E359" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F359" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G359" s="6" t="inlineStr"/>
-      <c r="H359" s="6" t="inlineStr">
+      <c r="F359" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G359" s="5" t="inlineStr"/>
+      <c r="H359" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I359" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I359" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -19286,45 +19286,45 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B415" s="6" t="inlineStr">
+      <c r="A415" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B415" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C415" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D415" s="6" t="inlineStr">
+      <c r="C415" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D415" s="5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E415" s="6" t="inlineStr">
+      <c r="E415" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F415" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G415" s="6" t="inlineStr"/>
-      <c r="H415" s="6" t="inlineStr">
+      <c r="F415" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G415" s="5" t="inlineStr"/>
+      <c r="H415" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I415" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I415" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -21742,45 +21742,45 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B471" s="6" t="inlineStr">
+      <c r="A471" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B471" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C471" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D471" s="6" t="inlineStr">
+      <c r="C471" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D471" s="5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E471" s="6" t="inlineStr">
+      <c r="E471" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F471" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G471" s="6" t="inlineStr"/>
-      <c r="H471" s="6" t="inlineStr">
+      <c r="F471" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G471" s="5" t="inlineStr"/>
+      <c r="H471" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I471" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I471" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -24198,45 +24198,45 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B527" s="6" t="inlineStr">
+      <c r="A527" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B527" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C527" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D527" s="6" t="inlineStr">
+      <c r="C527" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D527" s="5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E527" s="6" t="inlineStr">
+      <c r="E527" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F527" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G527" s="6" t="inlineStr"/>
-      <c r="H527" s="6" t="inlineStr">
+      <c r="F527" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G527" s="5" t="inlineStr"/>
+      <c r="H527" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I527" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I527" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -26654,45 +26654,45 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B583" s="6" t="inlineStr">
+      <c r="A583" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B583" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C583" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D583" s="6" t="inlineStr">
+      <c r="C583" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D583" s="5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E583" s="6" t="inlineStr">
+      <c r="E583" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F583" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G583" s="6" t="inlineStr"/>
-      <c r="H583" s="6" t="inlineStr">
+      <c r="F583" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G583" s="5" t="inlineStr"/>
+      <c r="H583" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I583" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I583" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -29110,45 +29110,45 @@
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B639" s="6" t="inlineStr">
+      <c r="A639" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B639" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C639" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D639" s="6" t="inlineStr">
+      <c r="C639" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D639" s="5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E639" s="6" t="inlineStr">
+      <c r="E639" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F639" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G639" s="6" t="inlineStr"/>
-      <c r="H639" s="6" t="inlineStr">
+      <c r="F639" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G639" s="5" t="inlineStr"/>
+      <c r="H639" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I639" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I639" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -3314,45 +3314,45 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B51" s="6" t="inlineStr">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C51" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D51" s="6" t="inlineStr">
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="E51" s="6" t="inlineStr">
+      <c r="E51" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F51" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G51" s="6" t="inlineStr"/>
-      <c r="H51" s="6" t="inlineStr">
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G51" s="5" t="inlineStr"/>
+      <c r="H51" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I51" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I51" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5770,45 +5770,45 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B107" s="6" t="inlineStr">
+      <c r="A107" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B107" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C107" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D107" s="6" t="inlineStr">
+      <c r="C107" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D107" s="5" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="E107" s="6" t="inlineStr">
+      <c r="E107" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F107" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G107" s="6" t="inlineStr"/>
-      <c r="H107" s="6" t="inlineStr">
+      <c r="F107" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G107" s="5" t="inlineStr"/>
+      <c r="H107" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I107" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I107" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8234,45 +8234,45 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B163" s="6" t="inlineStr">
+      <c r="A163" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B163" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C163" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D163" s="6" t="inlineStr">
+      <c r="C163" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D163" s="5" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="E163" s="6" t="inlineStr">
+      <c r="E163" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F163" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G163" s="6" t="inlineStr"/>
-      <c r="H163" s="6" t="inlineStr">
+      <c r="F163" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G163" s="5" t="inlineStr"/>
+      <c r="H163" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I163" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I163" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10690,45 +10690,45 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B219" s="6" t="inlineStr">
+      <c r="A219" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B219" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C219" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D219" s="6" t="inlineStr">
+      <c r="C219" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D219" s="5" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="E219" s="6" t="inlineStr">
+      <c r="E219" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F219" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G219" s="6" t="inlineStr"/>
-      <c r="H219" s="6" t="inlineStr">
+      <c r="F219" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G219" s="5" t="inlineStr"/>
+      <c r="H219" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I219" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I219" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13146,45 +13146,45 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B275" s="6" t="inlineStr">
+      <c r="A275" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B275" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C275" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D275" s="6" t="inlineStr">
+      <c r="C275" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D275" s="5" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="E275" s="6" t="inlineStr">
+      <c r="E275" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F275" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G275" s="6" t="inlineStr"/>
-      <c r="H275" s="6" t="inlineStr">
+      <c r="F275" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G275" s="5" t="inlineStr"/>
+      <c r="H275" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I275" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I275" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15602,45 +15602,45 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B331" s="6" t="inlineStr">
+      <c r="A331" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B331" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C331" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D331" s="6" t="inlineStr">
+      <c r="C331" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D331" s="5" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="E331" s="6" t="inlineStr">
+      <c r="E331" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F331" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G331" s="6" t="inlineStr"/>
-      <c r="H331" s="6" t="inlineStr">
+      <c r="F331" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G331" s="5" t="inlineStr"/>
+      <c r="H331" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I331" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I331" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -18058,45 +18058,45 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B387" s="6" t="inlineStr">
+      <c r="A387" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B387" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C387" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D387" s="6" t="inlineStr">
+      <c r="C387" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D387" s="5" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="E387" s="6" t="inlineStr">
+      <c r="E387" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F387" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G387" s="6" t="inlineStr"/>
-      <c r="H387" s="6" t="inlineStr">
+      <c r="F387" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G387" s="5" t="inlineStr"/>
+      <c r="H387" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I387" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I387" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -20514,45 +20514,45 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B443" s="6" t="inlineStr">
+      <c r="A443" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B443" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C443" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D443" s="6" t="inlineStr">
+      <c r="C443" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D443" s="5" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="E443" s="6" t="inlineStr">
+      <c r="E443" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F443" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G443" s="6" t="inlineStr"/>
-      <c r="H443" s="6" t="inlineStr">
+      <c r="F443" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G443" s="5" t="inlineStr"/>
+      <c r="H443" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I443" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I443" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -22970,45 +22970,45 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B499" s="6" t="inlineStr">
+      <c r="A499" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B499" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C499" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D499" s="6" t="inlineStr">
+      <c r="C499" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D499" s="5" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="E499" s="6" t="inlineStr">
+      <c r="E499" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F499" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G499" s="6" t="inlineStr"/>
-      <c r="H499" s="6" t="inlineStr">
+      <c r="F499" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G499" s="5" t="inlineStr"/>
+      <c r="H499" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I499" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I499" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -25426,45 +25426,45 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B555" s="6" t="inlineStr">
+      <c r="A555" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B555" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C555" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D555" s="6" t="inlineStr">
+      <c r="C555" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D555" s="5" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="E555" s="6" t="inlineStr">
+      <c r="E555" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F555" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G555" s="6" t="inlineStr"/>
-      <c r="H555" s="6" t="inlineStr">
+      <c r="F555" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G555" s="5" t="inlineStr"/>
+      <c r="H555" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I555" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I555" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -27882,45 +27882,45 @@
       </c>
     </row>
     <row r="611">
-      <c r="A611" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B611" s="6" t="inlineStr">
+      <c r="A611" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B611" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C611" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D611" s="6" t="inlineStr">
+      <c r="C611" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D611" s="5" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="E611" s="6" t="inlineStr">
+      <c r="E611" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F611" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G611" s="6" t="inlineStr"/>
-      <c r="H611" s="6" t="inlineStr">
+      <c r="F611" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G611" s="5" t="inlineStr"/>
+      <c r="H611" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I611" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I611" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -30338,45 +30338,45 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B667" s="6" t="inlineStr">
+      <c r="A667" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B667" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C667" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D667" s="6" t="inlineStr">
+      <c r="C667" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D667" s="5" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="E667" s="6" t="inlineStr">
+      <c r="E667" s="5" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F667" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G667" s="6" t="inlineStr"/>
-      <c r="H667" s="6" t="inlineStr">
+      <c r="F667" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G667" s="5" t="inlineStr"/>
+      <c r="H667" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I667" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I667" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -1959,45 +1959,45 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C24" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D24" s="6" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E24" s="6" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F24" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G24" s="6" t="inlineStr"/>
-      <c r="H24" s="6" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="inlineStr"/>
+      <c r="H24" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I24" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I24" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K24" s="4" t="inlineStr">
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -4585,45 +4585,45 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B80" s="6" t="inlineStr">
+      <c r="A80" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B80" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C80" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D80" s="6" t="inlineStr">
+      <c r="C80" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D80" s="5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E80" s="6" t="inlineStr">
+      <c r="E80" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F80" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G80" s="6" t="inlineStr"/>
-      <c r="H80" s="6" t="inlineStr">
+      <c r="F80" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G80" s="5" t="inlineStr"/>
+      <c r="H80" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I80" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I80" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7045,45 +7045,45 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B136" s="6" t="inlineStr">
+      <c r="A136" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B136" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C136" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D136" s="6" t="inlineStr">
+      <c r="C136" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D136" s="5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E136" s="6" t="inlineStr">
+      <c r="E136" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F136" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G136" s="6" t="inlineStr"/>
-      <c r="H136" s="6" t="inlineStr">
+      <c r="F136" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G136" s="5" t="inlineStr"/>
+      <c r="H136" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I136" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I136" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9505,45 +9505,45 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B192" s="6" t="inlineStr">
+      <c r="A192" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B192" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C192" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D192" s="6" t="inlineStr">
+      <c r="C192" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D192" s="5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E192" s="6" t="inlineStr">
+      <c r="E192" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F192" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G192" s="6" t="inlineStr"/>
-      <c r="H192" s="6" t="inlineStr">
+      <c r="F192" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G192" s="5" t="inlineStr"/>
+      <c r="H192" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I192" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I192" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11961,45 +11961,45 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B248" s="6" t="inlineStr">
+      <c r="A248" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B248" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C248" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D248" s="6" t="inlineStr">
+      <c r="C248" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D248" s="5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E248" s="6" t="inlineStr">
+      <c r="E248" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F248" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G248" s="6" t="inlineStr"/>
-      <c r="H248" s="6" t="inlineStr">
+      <c r="F248" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G248" s="5" t="inlineStr"/>
+      <c r="H248" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I248" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I248" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -14417,45 +14417,45 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B304" s="6" t="inlineStr">
+      <c r="A304" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B304" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C304" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D304" s="6" t="inlineStr">
+      <c r="C304" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D304" s="5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E304" s="6" t="inlineStr">
+      <c r="E304" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F304" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G304" s="6" t="inlineStr"/>
-      <c r="H304" s="6" t="inlineStr">
+      <c r="F304" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G304" s="5" t="inlineStr"/>
+      <c r="H304" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I304" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I304" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -16873,45 +16873,45 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B360" s="6" t="inlineStr">
+      <c r="A360" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B360" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C360" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D360" s="6" t="inlineStr">
+      <c r="C360" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D360" s="5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E360" s="6" t="inlineStr">
+      <c r="E360" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F360" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G360" s="6" t="inlineStr"/>
-      <c r="H360" s="6" t="inlineStr">
+      <c r="F360" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G360" s="5" t="inlineStr"/>
+      <c r="H360" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I360" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I360" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -19329,45 +19329,45 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B416" s="6" t="inlineStr">
+      <c r="A416" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B416" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C416" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D416" s="6" t="inlineStr">
+      <c r="C416" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D416" s="5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E416" s="6" t="inlineStr">
+      <c r="E416" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F416" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G416" s="6" t="inlineStr"/>
-      <c r="H416" s="6" t="inlineStr">
+      <c r="F416" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G416" s="5" t="inlineStr"/>
+      <c r="H416" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I416" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I416" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -21785,45 +21785,45 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B472" s="6" t="inlineStr">
+      <c r="A472" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B472" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C472" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D472" s="6" t="inlineStr">
+      <c r="C472" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D472" s="5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E472" s="6" t="inlineStr">
+      <c r="E472" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F472" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G472" s="6" t="inlineStr"/>
-      <c r="H472" s="6" t="inlineStr">
+      <c r="F472" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G472" s="5" t="inlineStr"/>
+      <c r="H472" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I472" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I472" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -24241,45 +24241,45 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B528" s="6" t="inlineStr">
+      <c r="A528" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B528" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C528" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D528" s="6" t="inlineStr">
+      <c r="C528" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D528" s="5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E528" s="6" t="inlineStr">
+      <c r="E528" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F528" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G528" s="6" t="inlineStr"/>
-      <c r="H528" s="6" t="inlineStr">
+      <c r="F528" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G528" s="5" t="inlineStr"/>
+      <c r="H528" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I528" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I528" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -26697,45 +26697,45 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B584" s="6" t="inlineStr">
+      <c r="A584" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B584" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C584" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D584" s="6" t="inlineStr">
+      <c r="C584" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D584" s="5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E584" s="6" t="inlineStr">
+      <c r="E584" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F584" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G584" s="6" t="inlineStr"/>
-      <c r="H584" s="6" t="inlineStr">
+      <c r="F584" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G584" s="5" t="inlineStr"/>
+      <c r="H584" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I584" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I584" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -29153,45 +29153,45 @@
       </c>
     </row>
     <row r="640">
-      <c r="A640" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B640" s="6" t="inlineStr">
+      <c r="A640" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B640" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C640" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D640" s="6" t="inlineStr">
+      <c r="C640" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D640" s="5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E640" s="6" t="inlineStr">
+      <c r="E640" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F640" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G640" s="6" t="inlineStr"/>
-      <c r="H640" s="6" t="inlineStr">
+      <c r="F640" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G640" s="5" t="inlineStr"/>
+      <c r="H640" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I640" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I640" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -3357,45 +3357,45 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B52" s="6" t="inlineStr">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C52" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D52" s="6" t="inlineStr">
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="E52" s="6" t="inlineStr">
+      <c r="E52" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F52" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G52" s="6" t="inlineStr"/>
-      <c r="H52" s="6" t="inlineStr">
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G52" s="5" t="inlineStr"/>
+      <c r="H52" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I52" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I52" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5813,45 +5813,45 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B108" s="6" t="inlineStr">
+      <c r="A108" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B108" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C108" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D108" s="6" t="inlineStr">
+      <c r="C108" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D108" s="5" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="E108" s="6" t="inlineStr">
+      <c r="E108" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F108" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G108" s="6" t="inlineStr"/>
-      <c r="H108" s="6" t="inlineStr">
+      <c r="F108" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G108" s="5" t="inlineStr"/>
+      <c r="H108" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I108" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I108" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8277,45 +8277,45 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B164" s="6" t="inlineStr">
+      <c r="A164" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B164" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C164" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D164" s="6" t="inlineStr">
+      <c r="C164" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D164" s="5" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="E164" s="6" t="inlineStr">
+      <c r="E164" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F164" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G164" s="6" t="inlineStr"/>
-      <c r="H164" s="6" t="inlineStr">
+      <c r="F164" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G164" s="5" t="inlineStr"/>
+      <c r="H164" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I164" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I164" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10733,45 +10733,45 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B220" s="6" t="inlineStr">
+      <c r="A220" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B220" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C220" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D220" s="6" t="inlineStr">
+      <c r="C220" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D220" s="5" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="E220" s="6" t="inlineStr">
+      <c r="E220" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F220" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G220" s="6" t="inlineStr"/>
-      <c r="H220" s="6" t="inlineStr">
+      <c r="F220" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G220" s="5" t="inlineStr"/>
+      <c r="H220" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I220" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I220" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13189,45 +13189,45 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B276" s="6" t="inlineStr">
+      <c r="A276" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B276" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C276" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D276" s="6" t="inlineStr">
+      <c r="C276" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D276" s="5" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="E276" s="6" t="inlineStr">
+      <c r="E276" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F276" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G276" s="6" t="inlineStr"/>
-      <c r="H276" s="6" t="inlineStr">
+      <c r="F276" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G276" s="5" t="inlineStr"/>
+      <c r="H276" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I276" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I276" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15645,45 +15645,45 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B332" s="6" t="inlineStr">
+      <c r="A332" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B332" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C332" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D332" s="6" t="inlineStr">
+      <c r="C332" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D332" s="5" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="E332" s="6" t="inlineStr">
+      <c r="E332" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F332" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G332" s="6" t="inlineStr"/>
-      <c r="H332" s="6" t="inlineStr">
+      <c r="F332" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G332" s="5" t="inlineStr"/>
+      <c r="H332" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I332" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I332" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -18101,45 +18101,45 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B388" s="6" t="inlineStr">
+      <c r="A388" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B388" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C388" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D388" s="6" t="inlineStr">
+      <c r="C388" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D388" s="5" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="E388" s="6" t="inlineStr">
+      <c r="E388" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F388" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G388" s="6" t="inlineStr"/>
-      <c r="H388" s="6" t="inlineStr">
+      <c r="F388" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G388" s="5" t="inlineStr"/>
+      <c r="H388" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I388" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I388" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -20557,45 +20557,45 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B444" s="6" t="inlineStr">
+      <c r="A444" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B444" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C444" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D444" s="6" t="inlineStr">
+      <c r="C444" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D444" s="5" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="E444" s="6" t="inlineStr">
+      <c r="E444" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F444" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G444" s="6" t="inlineStr"/>
-      <c r="H444" s="6" t="inlineStr">
+      <c r="F444" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G444" s="5" t="inlineStr"/>
+      <c r="H444" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I444" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I444" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -23013,45 +23013,45 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B500" s="6" t="inlineStr">
+      <c r="A500" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B500" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C500" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D500" s="6" t="inlineStr">
+      <c r="C500" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D500" s="5" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="E500" s="6" t="inlineStr">
+      <c r="E500" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F500" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G500" s="6" t="inlineStr"/>
-      <c r="H500" s="6" t="inlineStr">
+      <c r="F500" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G500" s="5" t="inlineStr"/>
+      <c r="H500" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I500" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I500" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -25469,45 +25469,45 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B556" s="6" t="inlineStr">
+      <c r="A556" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B556" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C556" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D556" s="6" t="inlineStr">
+      <c r="C556" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D556" s="5" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="E556" s="6" t="inlineStr">
+      <c r="E556" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F556" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G556" s="6" t="inlineStr"/>
-      <c r="H556" s="6" t="inlineStr">
+      <c r="F556" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G556" s="5" t="inlineStr"/>
+      <c r="H556" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I556" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I556" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -27925,45 +27925,45 @@
       </c>
     </row>
     <row r="612">
-      <c r="A612" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B612" s="6" t="inlineStr">
+      <c r="A612" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B612" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C612" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D612" s="6" t="inlineStr">
+      <c r="C612" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D612" s="5" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="E612" s="6" t="inlineStr">
+      <c r="E612" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F612" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G612" s="6" t="inlineStr"/>
-      <c r="H612" s="6" t="inlineStr">
+      <c r="F612" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G612" s="5" t="inlineStr"/>
+      <c r="H612" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I612" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I612" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -30381,45 +30381,45 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B668" s="6" t="inlineStr">
+      <c r="A668" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B668" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C668" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D668" s="6" t="inlineStr">
+      <c r="C668" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D668" s="5" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="E668" s="6" t="inlineStr">
+      <c r="E668" s="5" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F668" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G668" s="6" t="inlineStr"/>
-      <c r="H668" s="6" t="inlineStr">
+      <c r="F668" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G668" s="5" t="inlineStr"/>
+      <c r="H668" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I668" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I668" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2037,45 +2037,45 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C25" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D25" s="6" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E25" s="6" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F25" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G25" s="6" t="inlineStr"/>
-      <c r="H25" s="6" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="inlineStr"/>
+      <c r="H25" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I25" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I25" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -4628,45 +4628,45 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B81" s="6" t="inlineStr">
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B81" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C81" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D81" s="6" t="inlineStr">
+      <c r="C81" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D81" s="5" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E81" s="6" t="inlineStr">
+      <c r="E81" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F81" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G81" s="6" t="inlineStr"/>
-      <c r="H81" s="6" t="inlineStr">
+      <c r="F81" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G81" s="5" t="inlineStr"/>
+      <c r="H81" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I81" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I81" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7088,45 +7088,45 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B137" s="6" t="inlineStr">
+      <c r="A137" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B137" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C137" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D137" s="6" t="inlineStr">
+      <c r="C137" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D137" s="5" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E137" s="6" t="inlineStr">
+      <c r="E137" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F137" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G137" s="6" t="inlineStr"/>
-      <c r="H137" s="6" t="inlineStr">
+      <c r="F137" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G137" s="5" t="inlineStr"/>
+      <c r="H137" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I137" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I137" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9548,45 +9548,45 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B193" s="6" t="inlineStr">
+      <c r="A193" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B193" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C193" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D193" s="6" t="inlineStr">
+      <c r="C193" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D193" s="5" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E193" s="6" t="inlineStr">
+      <c r="E193" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F193" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G193" s="6" t="inlineStr"/>
-      <c r="H193" s="6" t="inlineStr">
+      <c r="F193" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G193" s="5" t="inlineStr"/>
+      <c r="H193" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I193" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I193" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -12004,45 +12004,45 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B249" s="6" t="inlineStr">
+      <c r="A249" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B249" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C249" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D249" s="6" t="inlineStr">
+      <c r="C249" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D249" s="5" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E249" s="6" t="inlineStr">
+      <c r="E249" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F249" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G249" s="6" t="inlineStr"/>
-      <c r="H249" s="6" t="inlineStr">
+      <c r="F249" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G249" s="5" t="inlineStr"/>
+      <c r="H249" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I249" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I249" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -14460,45 +14460,45 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B305" s="6" t="inlineStr">
+      <c r="A305" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B305" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C305" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D305" s="6" t="inlineStr">
+      <c r="C305" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D305" s="5" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E305" s="6" t="inlineStr">
+      <c r="E305" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F305" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G305" s="6" t="inlineStr"/>
-      <c r="H305" s="6" t="inlineStr">
+      <c r="F305" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G305" s="5" t="inlineStr"/>
+      <c r="H305" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I305" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I305" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -16916,45 +16916,45 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B361" s="6" t="inlineStr">
+      <c r="A361" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B361" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C361" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D361" s="6" t="inlineStr">
+      <c r="C361" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D361" s="5" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E361" s="6" t="inlineStr">
+      <c r="E361" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F361" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G361" s="6" t="inlineStr"/>
-      <c r="H361" s="6" t="inlineStr">
+      <c r="F361" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G361" s="5" t="inlineStr"/>
+      <c r="H361" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I361" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I361" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -19372,45 +19372,45 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B417" s="6" t="inlineStr">
+      <c r="A417" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B417" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C417" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D417" s="6" t="inlineStr">
+      <c r="C417" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D417" s="5" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E417" s="6" t="inlineStr">
+      <c r="E417" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F417" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G417" s="6" t="inlineStr"/>
-      <c r="H417" s="6" t="inlineStr">
+      <c r="F417" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G417" s="5" t="inlineStr"/>
+      <c r="H417" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I417" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I417" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -21828,45 +21828,45 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B473" s="6" t="inlineStr">
+      <c r="A473" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B473" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C473" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D473" s="6" t="inlineStr">
+      <c r="C473" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D473" s="5" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E473" s="6" t="inlineStr">
+      <c r="E473" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F473" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G473" s="6" t="inlineStr"/>
-      <c r="H473" s="6" t="inlineStr">
+      <c r="F473" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G473" s="5" t="inlineStr"/>
+      <c r="H473" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I473" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I473" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -24284,45 +24284,45 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B529" s="6" t="inlineStr">
+      <c r="A529" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B529" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C529" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D529" s="6" t="inlineStr">
+      <c r="C529" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D529" s="5" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E529" s="6" t="inlineStr">
+      <c r="E529" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F529" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G529" s="6" t="inlineStr"/>
-      <c r="H529" s="6" t="inlineStr">
+      <c r="F529" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G529" s="5" t="inlineStr"/>
+      <c r="H529" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I529" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I529" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -26740,45 +26740,45 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B585" s="6" t="inlineStr">
+      <c r="A585" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B585" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C585" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D585" s="6" t="inlineStr">
+      <c r="C585" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D585" s="5" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E585" s="6" t="inlineStr">
+      <c r="E585" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F585" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G585" s="6" t="inlineStr"/>
-      <c r="H585" s="6" t="inlineStr">
+      <c r="F585" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G585" s="5" t="inlineStr"/>
+      <c r="H585" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I585" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I585" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -29196,45 +29196,45 @@
       </c>
     </row>
     <row r="641">
-      <c r="A641" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B641" s="6" t="inlineStr">
+      <c r="A641" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B641" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C641" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D641" s="6" t="inlineStr">
+      <c r="C641" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D641" s="5" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E641" s="6" t="inlineStr">
+      <c r="E641" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F641" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G641" s="6" t="inlineStr"/>
-      <c r="H641" s="6" t="inlineStr">
+      <c r="F641" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G641" s="5" t="inlineStr"/>
+      <c r="H641" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I641" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I641" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -3400,45 +3400,45 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B53" s="6" t="inlineStr">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B53" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C53" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D53" s="6" t="inlineStr">
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="E53" s="6" t="inlineStr">
+      <c r="E53" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F53" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G53" s="6" t="inlineStr"/>
-      <c r="H53" s="6" t="inlineStr">
+      <c r="F53" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G53" s="5" t="inlineStr"/>
+      <c r="H53" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I53" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I53" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5856,45 +5856,45 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B109" s="6" t="inlineStr">
+      <c r="A109" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B109" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C109" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D109" s="6" t="inlineStr">
+      <c r="C109" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D109" s="5" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="E109" s="6" t="inlineStr">
+      <c r="E109" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F109" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G109" s="6" t="inlineStr"/>
-      <c r="H109" s="6" t="inlineStr">
+      <c r="F109" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G109" s="5" t="inlineStr"/>
+      <c r="H109" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I109" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I109" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8320,45 +8320,45 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B165" s="6" t="inlineStr">
+      <c r="A165" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B165" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C165" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D165" s="6" t="inlineStr">
+      <c r="C165" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D165" s="5" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="E165" s="6" t="inlineStr">
+      <c r="E165" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F165" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G165" s="6" t="inlineStr"/>
-      <c r="H165" s="6" t="inlineStr">
+      <c r="F165" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G165" s="5" t="inlineStr"/>
+      <c r="H165" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I165" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I165" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10776,45 +10776,45 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B221" s="6" t="inlineStr">
+      <c r="A221" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B221" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C221" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D221" s="6" t="inlineStr">
+      <c r="C221" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D221" s="5" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="E221" s="6" t="inlineStr">
+      <c r="E221" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F221" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G221" s="6" t="inlineStr"/>
-      <c r="H221" s="6" t="inlineStr">
+      <c r="F221" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G221" s="5" t="inlineStr"/>
+      <c r="H221" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I221" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I221" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13232,45 +13232,45 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B277" s="6" t="inlineStr">
+      <c r="A277" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B277" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C277" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D277" s="6" t="inlineStr">
+      <c r="C277" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D277" s="5" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="E277" s="6" t="inlineStr">
+      <c r="E277" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F277" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G277" s="6" t="inlineStr"/>
-      <c r="H277" s="6" t="inlineStr">
+      <c r="F277" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G277" s="5" t="inlineStr"/>
+      <c r="H277" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I277" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I277" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15688,45 +15688,45 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B333" s="6" t="inlineStr">
+      <c r="A333" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B333" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C333" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D333" s="6" t="inlineStr">
+      <c r="C333" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D333" s="5" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="E333" s="6" t="inlineStr">
+      <c r="E333" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F333" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G333" s="6" t="inlineStr"/>
-      <c r="H333" s="6" t="inlineStr">
+      <c r="F333" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G333" s="5" t="inlineStr"/>
+      <c r="H333" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I333" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I333" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -18144,45 +18144,45 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B389" s="6" t="inlineStr">
+      <c r="A389" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B389" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C389" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D389" s="6" t="inlineStr">
+      <c r="C389" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D389" s="5" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="E389" s="6" t="inlineStr">
+      <c r="E389" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F389" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G389" s="6" t="inlineStr"/>
-      <c r="H389" s="6" t="inlineStr">
+      <c r="F389" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G389" s="5" t="inlineStr"/>
+      <c r="H389" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I389" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I389" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -20600,45 +20600,45 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B445" s="6" t="inlineStr">
+      <c r="A445" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B445" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C445" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D445" s="6" t="inlineStr">
+      <c r="C445" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D445" s="5" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="E445" s="6" t="inlineStr">
+      <c r="E445" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F445" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G445" s="6" t="inlineStr"/>
-      <c r="H445" s="6" t="inlineStr">
+      <c r="F445" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G445" s="5" t="inlineStr"/>
+      <c r="H445" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I445" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I445" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -23056,45 +23056,45 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B501" s="6" t="inlineStr">
+      <c r="A501" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B501" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C501" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D501" s="6" t="inlineStr">
+      <c r="C501" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D501" s="5" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="E501" s="6" t="inlineStr">
+      <c r="E501" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F501" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G501" s="6" t="inlineStr"/>
-      <c r="H501" s="6" t="inlineStr">
+      <c r="F501" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G501" s="5" t="inlineStr"/>
+      <c r="H501" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I501" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I501" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -25512,45 +25512,45 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B557" s="6" t="inlineStr">
+      <c r="A557" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B557" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C557" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D557" s="6" t="inlineStr">
+      <c r="C557" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D557" s="5" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="E557" s="6" t="inlineStr">
+      <c r="E557" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F557" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G557" s="6" t="inlineStr"/>
-      <c r="H557" s="6" t="inlineStr">
+      <c r="F557" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G557" s="5" t="inlineStr"/>
+      <c r="H557" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I557" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I557" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -27968,45 +27968,45 @@
       </c>
     </row>
     <row r="613">
-      <c r="A613" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B613" s="6" t="inlineStr">
+      <c r="A613" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B613" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C613" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D613" s="6" t="inlineStr">
+      <c r="C613" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D613" s="5" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="E613" s="6" t="inlineStr">
+      <c r="E613" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F613" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G613" s="6" t="inlineStr"/>
-      <c r="H613" s="6" t="inlineStr">
+      <c r="F613" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G613" s="5" t="inlineStr"/>
+      <c r="H613" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I613" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I613" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -30424,45 +30424,45 @@
       </c>
     </row>
     <row r="669">
-      <c r="A669" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B669" s="6" t="inlineStr">
+      <c r="A669" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B669" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C669" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D669" s="6" t="inlineStr">
+      <c r="C669" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D669" s="5" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="E669" s="6" t="inlineStr">
+      <c r="E669" s="5" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F669" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G669" s="6" t="inlineStr"/>
-      <c r="H669" s="6" t="inlineStr">
+      <c r="F669" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G669" s="5" t="inlineStr"/>
+      <c r="H669" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I669" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I669" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2115,45 +2115,45 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B26" s="6" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D26" s="6" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E26" s="6" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F26" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G26" s="6" t="inlineStr"/>
-      <c r="H26" s="6" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr"/>
+      <c r="H26" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I26" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K26" s="4" t="inlineStr">
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -4671,45 +4671,45 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B82" s="6" t="inlineStr">
+      <c r="A82" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B82" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C82" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D82" s="6" t="inlineStr">
+      <c r="C82" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D82" s="5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E82" s="6" t="inlineStr">
+      <c r="E82" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F82" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G82" s="6" t="inlineStr"/>
-      <c r="H82" s="6" t="inlineStr">
+      <c r="F82" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G82" s="5" t="inlineStr"/>
+      <c r="H82" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I82" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I82" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7131,45 +7131,45 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B138" s="6" t="inlineStr">
+      <c r="A138" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B138" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C138" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D138" s="6" t="inlineStr">
+      <c r="C138" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D138" s="5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E138" s="6" t="inlineStr">
+      <c r="E138" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F138" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G138" s="6" t="inlineStr"/>
-      <c r="H138" s="6" t="inlineStr">
+      <c r="F138" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G138" s="5" t="inlineStr"/>
+      <c r="H138" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I138" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I138" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9591,45 +9591,45 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B194" s="6" t="inlineStr">
+      <c r="A194" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B194" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C194" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D194" s="6" t="inlineStr">
+      <c r="C194" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D194" s="5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E194" s="6" t="inlineStr">
+      <c r="E194" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F194" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G194" s="6" t="inlineStr"/>
-      <c r="H194" s="6" t="inlineStr">
+      <c r="F194" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G194" s="5" t="inlineStr"/>
+      <c r="H194" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I194" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I194" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -12047,45 +12047,45 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B250" s="6" t="inlineStr">
+      <c r="A250" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B250" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C250" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D250" s="6" t="inlineStr">
+      <c r="C250" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D250" s="5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E250" s="6" t="inlineStr">
+      <c r="E250" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F250" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G250" s="6" t="inlineStr"/>
-      <c r="H250" s="6" t="inlineStr">
+      <c r="F250" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G250" s="5" t="inlineStr"/>
+      <c r="H250" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I250" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I250" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -14503,45 +14503,45 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B306" s="6" t="inlineStr">
+      <c r="A306" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B306" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C306" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D306" s="6" t="inlineStr">
+      <c r="C306" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D306" s="5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E306" s="6" t="inlineStr">
+      <c r="E306" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F306" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G306" s="6" t="inlineStr"/>
-      <c r="H306" s="6" t="inlineStr">
+      <c r="F306" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G306" s="5" t="inlineStr"/>
+      <c r="H306" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I306" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I306" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -16959,45 +16959,45 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B362" s="6" t="inlineStr">
+      <c r="A362" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B362" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C362" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D362" s="6" t="inlineStr">
+      <c r="C362" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D362" s="5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E362" s="6" t="inlineStr">
+      <c r="E362" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F362" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G362" s="6" t="inlineStr"/>
-      <c r="H362" s="6" t="inlineStr">
+      <c r="F362" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G362" s="5" t="inlineStr"/>
+      <c r="H362" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I362" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I362" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -19415,45 +19415,45 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B418" s="6" t="inlineStr">
+      <c r="A418" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B418" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C418" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D418" s="6" t="inlineStr">
+      <c r="C418" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D418" s="5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E418" s="6" t="inlineStr">
+      <c r="E418" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F418" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G418" s="6" t="inlineStr"/>
-      <c r="H418" s="6" t="inlineStr">
+      <c r="F418" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G418" s="5" t="inlineStr"/>
+      <c r="H418" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I418" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I418" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -21871,45 +21871,45 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B474" s="6" t="inlineStr">
+      <c r="A474" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B474" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C474" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D474" s="6" t="inlineStr">
+      <c r="C474" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D474" s="5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E474" s="6" t="inlineStr">
+      <c r="E474" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F474" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G474" s="6" t="inlineStr"/>
-      <c r="H474" s="6" t="inlineStr">
+      <c r="F474" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G474" s="5" t="inlineStr"/>
+      <c r="H474" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I474" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I474" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -24327,45 +24327,45 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B530" s="6" t="inlineStr">
+      <c r="A530" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B530" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C530" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D530" s="6" t="inlineStr">
+      <c r="C530" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D530" s="5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E530" s="6" t="inlineStr">
+      <c r="E530" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F530" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G530" s="6" t="inlineStr"/>
-      <c r="H530" s="6" t="inlineStr">
+      <c r="F530" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G530" s="5" t="inlineStr"/>
+      <c r="H530" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I530" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I530" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -26783,45 +26783,45 @@
       </c>
     </row>
     <row r="586">
-      <c r="A586" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B586" s="6" t="inlineStr">
+      <c r="A586" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B586" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C586" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D586" s="6" t="inlineStr">
+      <c r="C586" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D586" s="5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E586" s="6" t="inlineStr">
+      <c r="E586" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F586" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G586" s="6" t="inlineStr"/>
-      <c r="H586" s="6" t="inlineStr">
+      <c r="F586" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G586" s="5" t="inlineStr"/>
+      <c r="H586" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I586" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I586" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -29239,45 +29239,45 @@
       </c>
     </row>
     <row r="642">
-      <c r="A642" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B642" s="6" t="inlineStr">
+      <c r="A642" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B642" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C642" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D642" s="6" t="inlineStr">
+      <c r="C642" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D642" s="5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E642" s="6" t="inlineStr">
+      <c r="E642" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F642" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G642" s="6" t="inlineStr"/>
-      <c r="H642" s="6" t="inlineStr">
+      <c r="F642" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G642" s="5" t="inlineStr"/>
+      <c r="H642" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I642" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I642" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -3443,45 +3443,45 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B54" s="6" t="inlineStr">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B54" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C54" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D54" s="6" t="inlineStr">
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="E54" s="6" t="inlineStr">
+      <c r="E54" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F54" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G54" s="6" t="inlineStr"/>
-      <c r="H54" s="6" t="inlineStr">
+      <c r="F54" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G54" s="5" t="inlineStr"/>
+      <c r="H54" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I54" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I54" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5899,45 +5899,45 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B110" s="6" t="inlineStr">
+      <c r="A110" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B110" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C110" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D110" s="6" t="inlineStr">
+      <c r="C110" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D110" s="5" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="E110" s="6" t="inlineStr">
+      <c r="E110" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F110" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G110" s="6" t="inlineStr"/>
-      <c r="H110" s="6" t="inlineStr">
+      <c r="F110" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G110" s="5" t="inlineStr"/>
+      <c r="H110" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I110" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I110" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8363,45 +8363,45 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B166" s="6" t="inlineStr">
+      <c r="A166" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B166" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C166" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D166" s="6" t="inlineStr">
+      <c r="C166" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D166" s="5" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="E166" s="6" t="inlineStr">
+      <c r="E166" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F166" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G166" s="6" t="inlineStr"/>
-      <c r="H166" s="6" t="inlineStr">
+      <c r="F166" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G166" s="5" t="inlineStr"/>
+      <c r="H166" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I166" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I166" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10819,45 +10819,45 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B222" s="6" t="inlineStr">
+      <c r="A222" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B222" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C222" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D222" s="6" t="inlineStr">
+      <c r="C222" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D222" s="5" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="E222" s="6" t="inlineStr">
+      <c r="E222" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F222" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G222" s="6" t="inlineStr"/>
-      <c r="H222" s="6" t="inlineStr">
+      <c r="F222" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G222" s="5" t="inlineStr"/>
+      <c r="H222" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I222" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I222" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13275,45 +13275,45 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B278" s="6" t="inlineStr">
+      <c r="A278" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B278" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C278" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D278" s="6" t="inlineStr">
+      <c r="C278" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D278" s="5" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="E278" s="6" t="inlineStr">
+      <c r="E278" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F278" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G278" s="6" t="inlineStr"/>
-      <c r="H278" s="6" t="inlineStr">
+      <c r="F278" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G278" s="5" t="inlineStr"/>
+      <c r="H278" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I278" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I278" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15731,45 +15731,45 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B334" s="6" t="inlineStr">
+      <c r="A334" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B334" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C334" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D334" s="6" t="inlineStr">
+      <c r="C334" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D334" s="5" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="E334" s="6" t="inlineStr">
+      <c r="E334" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F334" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G334" s="6" t="inlineStr"/>
-      <c r="H334" s="6" t="inlineStr">
+      <c r="F334" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G334" s="5" t="inlineStr"/>
+      <c r="H334" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I334" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I334" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -18187,45 +18187,45 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B390" s="6" t="inlineStr">
+      <c r="A390" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B390" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C390" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D390" s="6" t="inlineStr">
+      <c r="C390" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D390" s="5" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="E390" s="6" t="inlineStr">
+      <c r="E390" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F390" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G390" s="6" t="inlineStr"/>
-      <c r="H390" s="6" t="inlineStr">
+      <c r="F390" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G390" s="5" t="inlineStr"/>
+      <c r="H390" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I390" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I390" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -20643,45 +20643,45 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B446" s="6" t="inlineStr">
+      <c r="A446" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B446" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C446" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D446" s="6" t="inlineStr">
+      <c r="C446" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D446" s="5" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="E446" s="6" t="inlineStr">
+      <c r="E446" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F446" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G446" s="6" t="inlineStr"/>
-      <c r="H446" s="6" t="inlineStr">
+      <c r="F446" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G446" s="5" t="inlineStr"/>
+      <c r="H446" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I446" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I446" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -23099,45 +23099,45 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B502" s="6" t="inlineStr">
+      <c r="A502" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B502" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C502" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D502" s="6" t="inlineStr">
+      <c r="C502" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D502" s="5" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="E502" s="6" t="inlineStr">
+      <c r="E502" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F502" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G502" s="6" t="inlineStr"/>
-      <c r="H502" s="6" t="inlineStr">
+      <c r="F502" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G502" s="5" t="inlineStr"/>
+      <c r="H502" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I502" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I502" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -25555,45 +25555,45 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B558" s="6" t="inlineStr">
+      <c r="A558" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B558" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C558" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D558" s="6" t="inlineStr">
+      <c r="C558" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D558" s="5" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="E558" s="6" t="inlineStr">
+      <c r="E558" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F558" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G558" s="6" t="inlineStr"/>
-      <c r="H558" s="6" t="inlineStr">
+      <c r="F558" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G558" s="5" t="inlineStr"/>
+      <c r="H558" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I558" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I558" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -28011,45 +28011,45 @@
       </c>
     </row>
     <row r="614">
-      <c r="A614" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B614" s="6" t="inlineStr">
+      <c r="A614" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B614" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C614" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D614" s="6" t="inlineStr">
+      <c r="C614" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D614" s="5" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="E614" s="6" t="inlineStr">
+      <c r="E614" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F614" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G614" s="6" t="inlineStr"/>
-      <c r="H614" s="6" t="inlineStr">
+      <c r="F614" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G614" s="5" t="inlineStr"/>
+      <c r="H614" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I614" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I614" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -30467,45 +30467,45 @@
       </c>
     </row>
     <row r="670">
-      <c r="A670" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B670" s="6" t="inlineStr">
+      <c r="A670" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B670" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C670" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D670" s="6" t="inlineStr">
+      <c r="C670" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D670" s="5" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="E670" s="6" t="inlineStr">
+      <c r="E670" s="5" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F670" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G670" s="6" t="inlineStr"/>
-      <c r="H670" s="6" t="inlineStr">
+      <c r="F670" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G670" s="5" t="inlineStr"/>
+      <c r="H670" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I670" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I670" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -2193,45 +2193,45 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B27" s="6" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D27" s="6" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E27" s="6" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F27" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G27" s="6" t="inlineStr"/>
-      <c r="H27" s="6" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr"/>
+      <c r="H27" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I27" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -4714,45 +4714,45 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B83" s="6" t="inlineStr">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B83" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C83" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D83" s="6" t="inlineStr">
+      <c r="C83" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D83" s="5" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E83" s="6" t="inlineStr">
+      <c r="E83" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F83" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G83" s="6" t="inlineStr"/>
-      <c r="H83" s="6" t="inlineStr">
+      <c r="F83" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G83" s="5" t="inlineStr"/>
+      <c r="H83" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I83" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I83" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7174,45 +7174,45 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B139" s="6" t="inlineStr">
+      <c r="A139" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B139" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C139" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D139" s="6" t="inlineStr">
+      <c r="C139" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D139" s="5" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E139" s="6" t="inlineStr">
+      <c r="E139" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F139" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G139" s="6" t="inlineStr"/>
-      <c r="H139" s="6" t="inlineStr">
+      <c r="F139" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G139" s="5" t="inlineStr"/>
+      <c r="H139" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I139" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I139" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9634,45 +9634,45 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B195" s="6" t="inlineStr">
+      <c r="A195" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B195" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C195" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D195" s="6" t="inlineStr">
+      <c r="C195" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D195" s="5" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E195" s="6" t="inlineStr">
+      <c r="E195" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F195" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G195" s="6" t="inlineStr"/>
-      <c r="H195" s="6" t="inlineStr">
+      <c r="F195" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G195" s="5" t="inlineStr"/>
+      <c r="H195" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I195" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I195" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -12090,45 +12090,45 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B251" s="6" t="inlineStr">
+      <c r="A251" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B251" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C251" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D251" s="6" t="inlineStr">
+      <c r="C251" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D251" s="5" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E251" s="6" t="inlineStr">
+      <c r="E251" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F251" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G251" s="6" t="inlineStr"/>
-      <c r="H251" s="6" t="inlineStr">
+      <c r="F251" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G251" s="5" t="inlineStr"/>
+      <c r="H251" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I251" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I251" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -14546,45 +14546,45 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B307" s="6" t="inlineStr">
+      <c r="A307" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B307" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C307" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D307" s="6" t="inlineStr">
+      <c r="C307" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D307" s="5" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E307" s="6" t="inlineStr">
+      <c r="E307" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F307" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G307" s="6" t="inlineStr"/>
-      <c r="H307" s="6" t="inlineStr">
+      <c r="F307" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G307" s="5" t="inlineStr"/>
+      <c r="H307" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I307" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I307" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -17002,45 +17002,45 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B363" s="6" t="inlineStr">
+      <c r="A363" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B363" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C363" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D363" s="6" t="inlineStr">
+      <c r="C363" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D363" s="5" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E363" s="6" t="inlineStr">
+      <c r="E363" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F363" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G363" s="6" t="inlineStr"/>
-      <c r="H363" s="6" t="inlineStr">
+      <c r="F363" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G363" s="5" t="inlineStr"/>
+      <c r="H363" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I363" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I363" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -19458,45 +19458,45 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B419" s="6" t="inlineStr">
+      <c r="A419" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B419" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C419" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D419" s="6" t="inlineStr">
+      <c r="C419" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D419" s="5" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E419" s="6" t="inlineStr">
+      <c r="E419" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F419" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G419" s="6" t="inlineStr"/>
-      <c r="H419" s="6" t="inlineStr">
+      <c r="F419" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G419" s="5" t="inlineStr"/>
+      <c r="H419" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I419" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I419" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -21914,45 +21914,45 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B475" s="6" t="inlineStr">
+      <c r="A475" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B475" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C475" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D475" s="6" t="inlineStr">
+      <c r="C475" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D475" s="5" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E475" s="6" t="inlineStr">
+      <c r="E475" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F475" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G475" s="6" t="inlineStr"/>
-      <c r="H475" s="6" t="inlineStr">
+      <c r="F475" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G475" s="5" t="inlineStr"/>
+      <c r="H475" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I475" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I475" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -24370,45 +24370,45 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B531" s="6" t="inlineStr">
+      <c r="A531" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B531" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C531" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D531" s="6" t="inlineStr">
+      <c r="C531" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D531" s="5" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E531" s="6" t="inlineStr">
+      <c r="E531" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F531" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G531" s="6" t="inlineStr"/>
-      <c r="H531" s="6" t="inlineStr">
+      <c r="F531" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G531" s="5" t="inlineStr"/>
+      <c r="H531" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I531" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I531" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -26826,45 +26826,45 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B587" s="6" t="inlineStr">
+      <c r="A587" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B587" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C587" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D587" s="6" t="inlineStr">
+      <c r="C587" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D587" s="5" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E587" s="6" t="inlineStr">
+      <c r="E587" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F587" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G587" s="6" t="inlineStr"/>
-      <c r="H587" s="6" t="inlineStr">
+      <c r="F587" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G587" s="5" t="inlineStr"/>
+      <c r="H587" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I587" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I587" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -29282,45 +29282,45 @@
       </c>
     </row>
     <row r="643">
-      <c r="A643" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B643" s="6" t="inlineStr">
+      <c r="A643" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B643" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C643" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D643" s="6" t="inlineStr">
+      <c r="C643" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D643" s="5" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E643" s="6" t="inlineStr">
+      <c r="E643" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F643" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G643" s="6" t="inlineStr"/>
-      <c r="H643" s="6" t="inlineStr">
+      <c r="F643" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G643" s="5" t="inlineStr"/>
+      <c r="H643" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I643" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I643" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -3486,45 +3486,45 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B55" s="6" t="inlineStr">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C55" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D55" s="6" t="inlineStr">
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="E55" s="6" t="inlineStr">
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F55" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G55" s="6" t="inlineStr"/>
-      <c r="H55" s="6" t="inlineStr">
+      <c r="F55" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G55" s="5" t="inlineStr"/>
+      <c r="H55" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I55" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I55" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5942,45 +5942,45 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B111" s="6" t="inlineStr">
+      <c r="A111" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B111" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C111" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D111" s="6" t="inlineStr">
+      <c r="C111" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D111" s="5" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="E111" s="6" t="inlineStr">
+      <c r="E111" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F111" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G111" s="6" t="inlineStr"/>
-      <c r="H111" s="6" t="inlineStr">
+      <c r="F111" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G111" s="5" t="inlineStr"/>
+      <c r="H111" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I111" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I111" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8406,45 +8406,45 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B167" s="6" t="inlineStr">
+      <c r="A167" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B167" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C167" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D167" s="6" t="inlineStr">
+      <c r="C167" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D167" s="5" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="E167" s="6" t="inlineStr">
+      <c r="E167" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F167" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G167" s="6" t="inlineStr"/>
-      <c r="H167" s="6" t="inlineStr">
+      <c r="F167" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G167" s="5" t="inlineStr"/>
+      <c r="H167" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I167" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I167" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10862,45 +10862,45 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B223" s="6" t="inlineStr">
+      <c r="A223" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B223" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C223" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D223" s="6" t="inlineStr">
+      <c r="C223" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D223" s="5" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="E223" s="6" t="inlineStr">
+      <c r="E223" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F223" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G223" s="6" t="inlineStr"/>
-      <c r="H223" s="6" t="inlineStr">
+      <c r="F223" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G223" s="5" t="inlineStr"/>
+      <c r="H223" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I223" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I223" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13318,45 +13318,45 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B279" s="6" t="inlineStr">
+      <c r="A279" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B279" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C279" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D279" s="6" t="inlineStr">
+      <c r="C279" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D279" s="5" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="E279" s="6" t="inlineStr">
+      <c r="E279" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F279" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G279" s="6" t="inlineStr"/>
-      <c r="H279" s="6" t="inlineStr">
+      <c r="F279" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G279" s="5" t="inlineStr"/>
+      <c r="H279" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I279" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I279" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15774,45 +15774,45 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B335" s="6" t="inlineStr">
+      <c r="A335" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B335" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C335" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D335" s="6" t="inlineStr">
+      <c r="C335" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D335" s="5" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="E335" s="6" t="inlineStr">
+      <c r="E335" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F335" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G335" s="6" t="inlineStr"/>
-      <c r="H335" s="6" t="inlineStr">
+      <c r="F335" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G335" s="5" t="inlineStr"/>
+      <c r="H335" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I335" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I335" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -18230,45 +18230,45 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B391" s="6" t="inlineStr">
+      <c r="A391" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B391" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C391" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D391" s="6" t="inlineStr">
+      <c r="C391" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D391" s="5" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="E391" s="6" t="inlineStr">
+      <c r="E391" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F391" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G391" s="6" t="inlineStr"/>
-      <c r="H391" s="6" t="inlineStr">
+      <c r="F391" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G391" s="5" t="inlineStr"/>
+      <c r="H391" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I391" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I391" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -20686,45 +20686,45 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B447" s="6" t="inlineStr">
+      <c r="A447" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B447" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C447" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D447" s="6" t="inlineStr">
+      <c r="C447" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D447" s="5" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="E447" s="6" t="inlineStr">
+      <c r="E447" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F447" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G447" s="6" t="inlineStr"/>
-      <c r="H447" s="6" t="inlineStr">
+      <c r="F447" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G447" s="5" t="inlineStr"/>
+      <c r="H447" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I447" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I447" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -23142,45 +23142,45 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B503" s="6" t="inlineStr">
+      <c r="A503" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B503" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C503" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D503" s="6" t="inlineStr">
+      <c r="C503" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D503" s="5" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="E503" s="6" t="inlineStr">
+      <c r="E503" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F503" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G503" s="6" t="inlineStr"/>
-      <c r="H503" s="6" t="inlineStr">
+      <c r="F503" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G503" s="5" t="inlineStr"/>
+      <c r="H503" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I503" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I503" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -25598,45 +25598,45 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B559" s="6" t="inlineStr">
+      <c r="A559" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B559" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C559" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D559" s="6" t="inlineStr">
+      <c r="C559" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D559" s="5" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="E559" s="6" t="inlineStr">
+      <c r="E559" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F559" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G559" s="6" t="inlineStr"/>
-      <c r="H559" s="6" t="inlineStr">
+      <c r="F559" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G559" s="5" t="inlineStr"/>
+      <c r="H559" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I559" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I559" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -28054,45 +28054,45 @@
       </c>
     </row>
     <row r="615">
-      <c r="A615" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B615" s="6" t="inlineStr">
+      <c r="A615" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B615" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C615" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D615" s="6" t="inlineStr">
+      <c r="C615" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D615" s="5" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="E615" s="6" t="inlineStr">
+      <c r="E615" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F615" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G615" s="6" t="inlineStr"/>
-      <c r="H615" s="6" t="inlineStr">
+      <c r="F615" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G615" s="5" t="inlineStr"/>
+      <c r="H615" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I615" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I615" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -30510,45 +30510,45 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B671" s="6" t="inlineStr">
+      <c r="A671" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B671" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C671" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D671" s="6" t="inlineStr">
+      <c r="C671" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D671" s="5" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="E671" s="6" t="inlineStr">
+      <c r="E671" s="5" t="inlineStr">
         <is>
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="F671" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G671" s="6" t="inlineStr"/>
-      <c r="H671" s="6" t="inlineStr">
+      <c r="F671" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G671" s="5" t="inlineStr"/>
+      <c r="H671" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I671" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I671" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -2236,45 +2236,45 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B28" s="6" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C28" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D28" s="6" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E28" s="6" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F28" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G28" s="6" t="inlineStr"/>
-      <c r="H28" s="6" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr"/>
+      <c r="H28" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I28" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -4757,45 +4757,45 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B84" s="6" t="inlineStr">
+      <c r="A84" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B84" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C84" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D84" s="6" t="inlineStr">
+      <c r="C84" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D84" s="5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E84" s="6" t="inlineStr">
+      <c r="E84" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F84" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G84" s="6" t="inlineStr"/>
-      <c r="H84" s="6" t="inlineStr">
+      <c r="F84" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G84" s="5" t="inlineStr"/>
+      <c r="H84" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I84" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I84" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7217,45 +7217,45 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B140" s="6" t="inlineStr">
+      <c r="A140" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B140" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C140" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D140" s="6" t="inlineStr">
+      <c r="C140" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D140" s="5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E140" s="6" t="inlineStr">
+      <c r="E140" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F140" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G140" s="6" t="inlineStr"/>
-      <c r="H140" s="6" t="inlineStr">
+      <c r="F140" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G140" s="5" t="inlineStr"/>
+      <c r="H140" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I140" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I140" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9677,45 +9677,45 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B196" s="6" t="inlineStr">
+      <c r="A196" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B196" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C196" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D196" s="6" t="inlineStr">
+      <c r="C196" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D196" s="5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E196" s="6" t="inlineStr">
+      <c r="E196" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F196" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G196" s="6" t="inlineStr"/>
-      <c r="H196" s="6" t="inlineStr">
+      <c r="F196" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G196" s="5" t="inlineStr"/>
+      <c r="H196" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I196" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I196" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -12133,45 +12133,45 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B252" s="6" t="inlineStr">
+      <c r="A252" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B252" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C252" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D252" s="6" t="inlineStr">
+      <c r="C252" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D252" s="5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E252" s="6" t="inlineStr">
+      <c r="E252" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F252" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G252" s="6" t="inlineStr"/>
-      <c r="H252" s="6" t="inlineStr">
+      <c r="F252" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G252" s="5" t="inlineStr"/>
+      <c r="H252" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I252" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I252" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -14589,45 +14589,45 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B308" s="6" t="inlineStr">
+      <c r="A308" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B308" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C308" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D308" s="6" t="inlineStr">
+      <c r="C308" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D308" s="5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E308" s="6" t="inlineStr">
+      <c r="E308" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F308" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G308" s="6" t="inlineStr"/>
-      <c r="H308" s="6" t="inlineStr">
+      <c r="F308" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G308" s="5" t="inlineStr"/>
+      <c r="H308" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I308" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I308" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -17045,45 +17045,45 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B364" s="6" t="inlineStr">
+      <c r="A364" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B364" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C364" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D364" s="6" t="inlineStr">
+      <c r="C364" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D364" s="5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E364" s="6" t="inlineStr">
+      <c r="E364" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F364" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G364" s="6" t="inlineStr"/>
-      <c r="H364" s="6" t="inlineStr">
+      <c r="F364" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G364" s="5" t="inlineStr"/>
+      <c r="H364" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I364" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I364" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -19501,45 +19501,45 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B420" s="6" t="inlineStr">
+      <c r="A420" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B420" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C420" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D420" s="6" t="inlineStr">
+      <c r="C420" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D420" s="5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E420" s="6" t="inlineStr">
+      <c r="E420" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F420" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G420" s="6" t="inlineStr"/>
-      <c r="H420" s="6" t="inlineStr">
+      <c r="F420" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G420" s="5" t="inlineStr"/>
+      <c r="H420" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I420" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I420" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -21957,45 +21957,45 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B476" s="6" t="inlineStr">
+      <c r="A476" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B476" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C476" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D476" s="6" t="inlineStr">
+      <c r="C476" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D476" s="5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E476" s="6" t="inlineStr">
+      <c r="E476" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F476" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G476" s="6" t="inlineStr"/>
-      <c r="H476" s="6" t="inlineStr">
+      <c r="F476" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G476" s="5" t="inlineStr"/>
+      <c r="H476" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I476" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I476" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -24413,45 +24413,45 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B532" s="6" t="inlineStr">
+      <c r="A532" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B532" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C532" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D532" s="6" t="inlineStr">
+      <c r="C532" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D532" s="5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E532" s="6" t="inlineStr">
+      <c r="E532" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F532" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G532" s="6" t="inlineStr"/>
-      <c r="H532" s="6" t="inlineStr">
+      <c r="F532" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G532" s="5" t="inlineStr"/>
+      <c r="H532" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I532" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I532" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -26869,45 +26869,45 @@
       </c>
     </row>
     <row r="588">
-      <c r="A588" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B588" s="6" t="inlineStr">
+      <c r="A588" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B588" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C588" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D588" s="6" t="inlineStr">
+      <c r="C588" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D588" s="5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E588" s="6" t="inlineStr">
+      <c r="E588" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F588" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G588" s="6" t="inlineStr"/>
-      <c r="H588" s="6" t="inlineStr">
+      <c r="F588" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G588" s="5" t="inlineStr"/>
+      <c r="H588" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I588" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I588" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -29325,45 +29325,45 @@
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B644" s="6" t="inlineStr">
+      <c r="A644" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B644" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C644" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D644" s="6" t="inlineStr">
+      <c r="C644" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D644" s="5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E644" s="6" t="inlineStr">
+      <c r="E644" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F644" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G644" s="6" t="inlineStr"/>
-      <c r="H644" s="6" t="inlineStr">
+      <c r="F644" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G644" s="5" t="inlineStr"/>
+      <c r="H644" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I644" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I644" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -3529,45 +3529,45 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B56" s="6" t="inlineStr">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C56" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D56" s="6" t="inlineStr">
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E56" s="6" t="inlineStr">
+      <c r="E56" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F56" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G56" s="6" t="inlineStr"/>
-      <c r="H56" s="6" t="inlineStr">
+      <c r="F56" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G56" s="5" t="inlineStr"/>
+      <c r="H56" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I56" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I56" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5985,45 +5985,45 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B112" s="6" t="inlineStr">
+      <c r="A112" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B112" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C112" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D112" s="6" t="inlineStr">
+      <c r="C112" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D112" s="5" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E112" s="6" t="inlineStr">
+      <c r="E112" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F112" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G112" s="6" t="inlineStr"/>
-      <c r="H112" s="6" t="inlineStr">
+      <c r="F112" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G112" s="5" t="inlineStr"/>
+      <c r="H112" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I112" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I112" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8449,45 +8449,45 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B168" s="6" t="inlineStr">
+      <c r="A168" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B168" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C168" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D168" s="6" t="inlineStr">
+      <c r="C168" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D168" s="5" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E168" s="6" t="inlineStr">
+      <c r="E168" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F168" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G168" s="6" t="inlineStr"/>
-      <c r="H168" s="6" t="inlineStr">
+      <c r="F168" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G168" s="5" t="inlineStr"/>
+      <c r="H168" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I168" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I168" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10905,45 +10905,45 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B224" s="6" t="inlineStr">
+      <c r="A224" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B224" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C224" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D224" s="6" t="inlineStr">
+      <c r="C224" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D224" s="5" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E224" s="6" t="inlineStr">
+      <c r="E224" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F224" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G224" s="6" t="inlineStr"/>
-      <c r="H224" s="6" t="inlineStr">
+      <c r="F224" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G224" s="5" t="inlineStr"/>
+      <c r="H224" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I224" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I224" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13361,45 +13361,45 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B280" s="6" t="inlineStr">
+      <c r="A280" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B280" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C280" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D280" s="6" t="inlineStr">
+      <c r="C280" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D280" s="5" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E280" s="6" t="inlineStr">
+      <c r="E280" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F280" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G280" s="6" t="inlineStr"/>
-      <c r="H280" s="6" t="inlineStr">
+      <c r="F280" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G280" s="5" t="inlineStr"/>
+      <c r="H280" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I280" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I280" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15817,45 +15817,45 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B336" s="6" t="inlineStr">
+      <c r="A336" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B336" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C336" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D336" s="6" t="inlineStr">
+      <c r="C336" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D336" s="5" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E336" s="6" t="inlineStr">
+      <c r="E336" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F336" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G336" s="6" t="inlineStr"/>
-      <c r="H336" s="6" t="inlineStr">
+      <c r="F336" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G336" s="5" t="inlineStr"/>
+      <c r="H336" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I336" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I336" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -18273,45 +18273,45 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B392" s="6" t="inlineStr">
+      <c r="A392" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B392" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C392" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D392" s="6" t="inlineStr">
+      <c r="C392" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D392" s="5" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E392" s="6" t="inlineStr">
+      <c r="E392" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F392" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G392" s="6" t="inlineStr"/>
-      <c r="H392" s="6" t="inlineStr">
+      <c r="F392" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G392" s="5" t="inlineStr"/>
+      <c r="H392" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I392" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I392" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -20729,45 +20729,45 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B448" s="6" t="inlineStr">
+      <c r="A448" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B448" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C448" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D448" s="6" t="inlineStr">
+      <c r="C448" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D448" s="5" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E448" s="6" t="inlineStr">
+      <c r="E448" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F448" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G448" s="6" t="inlineStr"/>
-      <c r="H448" s="6" t="inlineStr">
+      <c r="F448" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G448" s="5" t="inlineStr"/>
+      <c r="H448" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I448" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I448" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -23185,45 +23185,45 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B504" s="6" t="inlineStr">
+      <c r="A504" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B504" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C504" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D504" s="6" t="inlineStr">
+      <c r="C504" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D504" s="5" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E504" s="6" t="inlineStr">
+      <c r="E504" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F504" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G504" s="6" t="inlineStr"/>
-      <c r="H504" s="6" t="inlineStr">
+      <c r="F504" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G504" s="5" t="inlineStr"/>
+      <c r="H504" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I504" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I504" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -25641,45 +25641,45 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B560" s="6" t="inlineStr">
+      <c r="A560" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B560" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C560" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D560" s="6" t="inlineStr">
+      <c r="C560" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D560" s="5" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E560" s="6" t="inlineStr">
+      <c r="E560" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F560" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G560" s="6" t="inlineStr"/>
-      <c r="H560" s="6" t="inlineStr">
+      <c r="F560" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G560" s="5" t="inlineStr"/>
+      <c r="H560" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I560" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I560" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -28097,45 +28097,45 @@
       </c>
     </row>
     <row r="616">
-      <c r="A616" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B616" s="6" t="inlineStr">
+      <c r="A616" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B616" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C616" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D616" s="6" t="inlineStr">
+      <c r="C616" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D616" s="5" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E616" s="6" t="inlineStr">
+      <c r="E616" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F616" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G616" s="6" t="inlineStr"/>
-      <c r="H616" s="6" t="inlineStr">
+      <c r="F616" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G616" s="5" t="inlineStr"/>
+      <c r="H616" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I616" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I616" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -30553,45 +30553,45 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B672" s="6" t="inlineStr">
+      <c r="A672" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B672" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C672" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D672" s="6" t="inlineStr">
+      <c r="C672" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D672" s="5" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E672" s="6" t="inlineStr">
+      <c r="E672" s="5" t="inlineStr">
         <is>
           <t>20/01/2026</t>
         </is>
       </c>
-      <c r="F672" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G672" s="6" t="inlineStr"/>
-      <c r="H672" s="6" t="inlineStr">
+      <c r="F672" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G672" s="5" t="inlineStr"/>
+      <c r="H672" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I672" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I672" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -96,9 +96,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -106,6 +103,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -2279,45 +2279,45 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B29" s="6" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C29" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D29" s="6" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="E29" s="6" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F29" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G29" s="6" t="inlineStr"/>
-      <c r="H29" s="6" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr"/>
+      <c r="H29" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I29" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K29" s="3" t="inlineStr">
@@ -2439,7 +2439,7 @@
           <t>Recorded</t>
         </is>
       </c>
-      <c r="L31" s="7" t="inlineStr">
+      <c r="L31" s="6" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
@@ -2501,7 +2501,7 @@
           <t>Not Recorded</t>
         </is>
       </c>
-      <c r="L32" s="8" t="inlineStr">
+      <c r="L32" s="7" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
@@ -2563,7 +2563,7 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="L33" s="9" t="inlineStr">
+      <c r="L33" s="8" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
@@ -3572,43 +3572,43 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B57" s="6" t="inlineStr">
+      <c r="A57" s="9" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B57" s="9" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C57" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D57" s="6" t="inlineStr">
+      <c r="C57" s="9" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E57" s="6" t="inlineStr">
+      <c r="E57" s="9" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F57" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G57" s="6" t="inlineStr"/>
-      <c r="H57" s="6" t="inlineStr">
+      <c r="F57" s="9" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G57" s="9" t="inlineStr"/>
+      <c r="H57" s="9" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I57" s="6" t="inlineStr">
+      <c r="I57" s="9" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -4800,45 +4800,45 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B85" s="6" t="inlineStr">
+      <c r="A85" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B85" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C85" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D85" s="6" t="inlineStr">
+      <c r="C85" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D85" s="5" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="E85" s="6" t="inlineStr">
+      <c r="E85" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F85" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G85" s="6" t="inlineStr"/>
-      <c r="H85" s="6" t="inlineStr">
+      <c r="F85" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G85" s="5" t="inlineStr"/>
+      <c r="H85" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I85" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I85" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6028,43 +6028,43 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B113" s="6" t="inlineStr">
+      <c r="A113" s="9" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B113" s="9" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C113" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D113" s="6" t="inlineStr">
+      <c r="C113" s="9" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D113" s="9" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E113" s="6" t="inlineStr">
+      <c r="E113" s="9" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F113" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G113" s="6" t="inlineStr"/>
-      <c r="H113" s="6" t="inlineStr">
+      <c r="F113" s="9" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G113" s="9" t="inlineStr"/>
+      <c r="H113" s="9" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I113" s="6" t="inlineStr">
+      <c r="I113" s="9" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -7260,45 +7260,45 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B141" s="6" t="inlineStr">
+      <c r="A141" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B141" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C141" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D141" s="6" t="inlineStr">
+      <c r="C141" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D141" s="5" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="E141" s="6" t="inlineStr">
+      <c r="E141" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F141" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G141" s="6" t="inlineStr"/>
-      <c r="H141" s="6" t="inlineStr">
+      <c r="F141" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G141" s="5" t="inlineStr"/>
+      <c r="H141" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I141" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I141" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8492,43 +8492,43 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B169" s="6" t="inlineStr">
+      <c r="A169" s="9" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B169" s="9" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C169" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D169" s="6" t="inlineStr">
+      <c r="C169" s="9" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D169" s="9" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E169" s="6" t="inlineStr">
+      <c r="E169" s="9" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F169" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G169" s="6" t="inlineStr"/>
-      <c r="H169" s="6" t="inlineStr">
+      <c r="F169" s="9" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G169" s="9" t="inlineStr"/>
+      <c r="H169" s="9" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I169" s="6" t="inlineStr">
+      <c r="I169" s="9" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -9720,45 +9720,45 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B197" s="6" t="inlineStr">
+      <c r="A197" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B197" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C197" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D197" s="6" t="inlineStr">
+      <c r="C197" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D197" s="5" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="E197" s="6" t="inlineStr">
+      <c r="E197" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F197" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G197" s="6" t="inlineStr"/>
-      <c r="H197" s="6" t="inlineStr">
+      <c r="F197" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G197" s="5" t="inlineStr"/>
+      <c r="H197" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I197" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I197" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10948,43 +10948,43 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B225" s="6" t="inlineStr">
+      <c r="A225" s="9" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B225" s="9" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C225" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D225" s="6" t="inlineStr">
+      <c r="C225" s="9" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D225" s="9" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E225" s="6" t="inlineStr">
+      <c r="E225" s="9" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F225" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G225" s="6" t="inlineStr"/>
-      <c r="H225" s="6" t="inlineStr">
+      <c r="F225" s="9" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G225" s="9" t="inlineStr"/>
+      <c r="H225" s="9" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I225" s="6" t="inlineStr">
+      <c r="I225" s="9" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -12176,45 +12176,45 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B253" s="6" t="inlineStr">
+      <c r="A253" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B253" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C253" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D253" s="6" t="inlineStr">
+      <c r="C253" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D253" s="5" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="E253" s="6" t="inlineStr">
+      <c r="E253" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F253" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G253" s="6" t="inlineStr"/>
-      <c r="H253" s="6" t="inlineStr">
+      <c r="F253" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G253" s="5" t="inlineStr"/>
+      <c r="H253" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I253" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I253" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13404,43 +13404,43 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B281" s="6" t="inlineStr">
+      <c r="A281" s="9" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B281" s="9" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C281" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D281" s="6" t="inlineStr">
+      <c r="C281" s="9" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D281" s="9" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E281" s="6" t="inlineStr">
+      <c r="E281" s="9" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F281" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G281" s="6" t="inlineStr"/>
-      <c r="H281" s="6" t="inlineStr">
+      <c r="F281" s="9" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G281" s="9" t="inlineStr"/>
+      <c r="H281" s="9" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I281" s="6" t="inlineStr">
+      <c r="I281" s="9" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -14632,45 +14632,45 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B309" s="6" t="inlineStr">
+      <c r="A309" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B309" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C309" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D309" s="6" t="inlineStr">
+      <c r="C309" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D309" s="5" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="E309" s="6" t="inlineStr">
+      <c r="E309" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F309" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G309" s="6" t="inlineStr"/>
-      <c r="H309" s="6" t="inlineStr">
+      <c r="F309" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G309" s="5" t="inlineStr"/>
+      <c r="H309" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I309" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I309" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15860,43 +15860,43 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B337" s="6" t="inlineStr">
+      <c r="A337" s="9" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B337" s="9" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C337" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D337" s="6" t="inlineStr">
+      <c r="C337" s="9" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D337" s="9" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E337" s="6" t="inlineStr">
+      <c r="E337" s="9" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F337" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G337" s="6" t="inlineStr"/>
-      <c r="H337" s="6" t="inlineStr">
+      <c r="F337" s="9" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G337" s="9" t="inlineStr"/>
+      <c r="H337" s="9" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I337" s="6" t="inlineStr">
+      <c r="I337" s="9" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -17088,45 +17088,45 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B365" s="6" t="inlineStr">
+      <c r="A365" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B365" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C365" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D365" s="6" t="inlineStr">
+      <c r="C365" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D365" s="5" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="E365" s="6" t="inlineStr">
+      <c r="E365" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F365" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G365" s="6" t="inlineStr"/>
-      <c r="H365" s="6" t="inlineStr">
+      <c r="F365" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G365" s="5" t="inlineStr"/>
+      <c r="H365" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I365" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I365" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -18316,43 +18316,43 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B393" s="6" t="inlineStr">
+      <c r="A393" s="9" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B393" s="9" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C393" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D393" s="6" t="inlineStr">
+      <c r="C393" s="9" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D393" s="9" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E393" s="6" t="inlineStr">
+      <c r="E393" s="9" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F393" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G393" s="6" t="inlineStr"/>
-      <c r="H393" s="6" t="inlineStr">
+      <c r="F393" s="9" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G393" s="9" t="inlineStr"/>
+      <c r="H393" s="9" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I393" s="6" t="inlineStr">
+      <c r="I393" s="9" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -19544,45 +19544,45 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B421" s="6" t="inlineStr">
+      <c r="A421" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B421" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C421" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D421" s="6" t="inlineStr">
+      <c r="C421" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D421" s="5" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="E421" s="6" t="inlineStr">
+      <c r="E421" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F421" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G421" s="6" t="inlineStr"/>
-      <c r="H421" s="6" t="inlineStr">
+      <c r="F421" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G421" s="5" t="inlineStr"/>
+      <c r="H421" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I421" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I421" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -20772,43 +20772,43 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B449" s="6" t="inlineStr">
+      <c r="A449" s="9" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B449" s="9" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C449" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D449" s="6" t="inlineStr">
+      <c r="C449" s="9" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D449" s="9" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E449" s="6" t="inlineStr">
+      <c r="E449" s="9" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F449" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G449" s="6" t="inlineStr"/>
-      <c r="H449" s="6" t="inlineStr">
+      <c r="F449" s="9" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G449" s="9" t="inlineStr"/>
+      <c r="H449" s="9" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I449" s="6" t="inlineStr">
+      <c r="I449" s="9" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -22000,45 +22000,45 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B477" s="6" t="inlineStr">
+      <c r="A477" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B477" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C477" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D477" s="6" t="inlineStr">
+      <c r="C477" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D477" s="5" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="E477" s="6" t="inlineStr">
+      <c r="E477" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F477" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G477" s="6" t="inlineStr"/>
-      <c r="H477" s="6" t="inlineStr">
+      <c r="F477" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G477" s="5" t="inlineStr"/>
+      <c r="H477" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I477" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I477" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -23228,43 +23228,43 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B505" s="6" t="inlineStr">
+      <c r="A505" s="9" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B505" s="9" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C505" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D505" s="6" t="inlineStr">
+      <c r="C505" s="9" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D505" s="9" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E505" s="6" t="inlineStr">
+      <c r="E505" s="9" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F505" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G505" s="6" t="inlineStr"/>
-      <c r="H505" s="6" t="inlineStr">
+      <c r="F505" s="9" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G505" s="9" t="inlineStr"/>
+      <c r="H505" s="9" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I505" s="6" t="inlineStr">
+      <c r="I505" s="9" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -24456,45 +24456,45 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B533" s="6" t="inlineStr">
+      <c r="A533" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B533" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C533" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D533" s="6" t="inlineStr">
+      <c r="C533" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D533" s="5" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="E533" s="6" t="inlineStr">
+      <c r="E533" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F533" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G533" s="6" t="inlineStr"/>
-      <c r="H533" s="6" t="inlineStr">
+      <c r="F533" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G533" s="5" t="inlineStr"/>
+      <c r="H533" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I533" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I533" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -25684,43 +25684,43 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B561" s="6" t="inlineStr">
+      <c r="A561" s="9" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B561" s="9" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C561" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D561" s="6" t="inlineStr">
+      <c r="C561" s="9" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D561" s="9" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E561" s="6" t="inlineStr">
+      <c r="E561" s="9" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F561" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G561" s="6" t="inlineStr"/>
-      <c r="H561" s="6" t="inlineStr">
+      <c r="F561" s="9" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G561" s="9" t="inlineStr"/>
+      <c r="H561" s="9" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I561" s="6" t="inlineStr">
+      <c r="I561" s="9" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -26912,45 +26912,45 @@
       </c>
     </row>
     <row r="589">
-      <c r="A589" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B589" s="6" t="inlineStr">
+      <c r="A589" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B589" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C589" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D589" s="6" t="inlineStr">
+      <c r="C589" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D589" s="5" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="E589" s="6" t="inlineStr">
+      <c r="E589" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F589" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G589" s="6" t="inlineStr"/>
-      <c r="H589" s="6" t="inlineStr">
+      <c r="F589" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G589" s="5" t="inlineStr"/>
+      <c r="H589" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I589" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I589" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -28140,43 +28140,43 @@
       </c>
     </row>
     <row r="617">
-      <c r="A617" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B617" s="6" t="inlineStr">
+      <c r="A617" s="9" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B617" s="9" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C617" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D617" s="6" t="inlineStr">
+      <c r="C617" s="9" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D617" s="9" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E617" s="6" t="inlineStr">
+      <c r="E617" s="9" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F617" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G617" s="6" t="inlineStr"/>
-      <c r="H617" s="6" t="inlineStr">
+      <c r="F617" s="9" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G617" s="9" t="inlineStr"/>
+      <c r="H617" s="9" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I617" s="6" t="inlineStr">
+      <c r="I617" s="9" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
@@ -29368,45 +29368,45 @@
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B645" s="6" t="inlineStr">
+      <c r="A645" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B645" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C645" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D645" s="6" t="inlineStr">
+      <c r="C645" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D645" s="5" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="E645" s="6" t="inlineStr">
+      <c r="E645" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F645" s="6" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G645" s="6" t="inlineStr"/>
-      <c r="H645" s="6" t="inlineStr">
+      <c r="F645" s="5" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G645" s="5" t="inlineStr"/>
+      <c r="H645" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I645" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I645" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -30596,43 +30596,43 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B673" s="6" t="inlineStr">
+      <c r="A673" s="9" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B673" s="9" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C673" s="6" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D673" s="6" t="inlineStr">
+      <c r="C673" s="9" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D673" s="9" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E673" s="6" t="inlineStr">
+      <c r="E673" s="9" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F673" s="6" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G673" s="6" t="inlineStr"/>
-      <c r="H673" s="6" t="inlineStr">
+      <c r="F673" s="9" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G673" s="9" t="inlineStr"/>
+      <c r="H673" s="9" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I673" s="6" t="inlineStr">
+      <c r="I673" s="9" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -103,9 +103,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,7 +863,7 @@
         </is>
       </c>
       <c r="L7" s="4" t="n">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +918,7 @@
         </is>
       </c>
       <c r="L8" s="4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1318,10 +1315,10 @@
         <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
@@ -1396,10 +1393,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
@@ -1474,10 +1471,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
@@ -1552,10 +1549,10 @@
         <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
@@ -1630,10 +1627,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
@@ -1708,10 +1705,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
@@ -1786,10 +1783,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
@@ -1864,10 +1861,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
@@ -1942,10 +1939,10 @@
         <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
@@ -2020,10 +2017,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
@@ -2098,10 +2095,10 @@
         <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
@@ -2176,10 +2173,10 @@
         <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
@@ -3572,45 +3569,45 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="inlineStr">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B57" s="5" t="inlineStr">
         <is>
           <t>B1-1</t>
         </is>
       </c>
-      <c r="C57" s="9" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D57" s="9" t="inlineStr">
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E57" s="9" t="inlineStr">
+      <c r="E57" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F57" s="9" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G57" s="9" t="inlineStr"/>
-      <c r="H57" s="9" t="inlineStr">
+      <c r="F57" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G57" s="5" t="inlineStr"/>
+      <c r="H57" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I57" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I57" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6028,45 +6025,45 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B113" s="9" t="inlineStr">
+      <c r="A113" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B113" s="5" t="inlineStr">
         <is>
           <t>B1-10</t>
         </is>
       </c>
-      <c r="C113" s="9" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D113" s="9" t="inlineStr">
+      <c r="C113" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D113" s="5" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E113" s="9" t="inlineStr">
+      <c r="E113" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F113" s="9" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G113" s="9" t="inlineStr"/>
-      <c r="H113" s="9" t="inlineStr">
+      <c r="F113" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G113" s="5" t="inlineStr"/>
+      <c r="H113" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I113" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I113" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8492,45 +8489,45 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B169" s="9" t="inlineStr">
+      <c r="A169" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B169" s="5" t="inlineStr">
         <is>
           <t>B1-11</t>
         </is>
       </c>
-      <c r="C169" s="9" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D169" s="9" t="inlineStr">
+      <c r="C169" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D169" s="5" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E169" s="9" t="inlineStr">
+      <c r="E169" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F169" s="9" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G169" s="9" t="inlineStr"/>
-      <c r="H169" s="9" t="inlineStr">
+      <c r="F169" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G169" s="5" t="inlineStr"/>
+      <c r="H169" s="5" t="inlineStr">
         <is>
           <t>0/19</t>
         </is>
       </c>
-      <c r="I169" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I169" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10948,45 +10945,45 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B225" s="9" t="inlineStr">
+      <c r="A225" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B225" s="5" t="inlineStr">
         <is>
           <t>B1-12</t>
         </is>
       </c>
-      <c r="C225" s="9" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D225" s="9" t="inlineStr">
+      <c r="C225" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D225" s="5" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E225" s="9" t="inlineStr">
+      <c r="E225" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F225" s="9" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G225" s="9" t="inlineStr"/>
-      <c r="H225" s="9" t="inlineStr">
+      <c r="F225" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G225" s="5" t="inlineStr"/>
+      <c r="H225" s="5" t="inlineStr">
         <is>
           <t>0/21</t>
         </is>
       </c>
-      <c r="I225" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I225" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13404,45 +13401,45 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B281" s="9" t="inlineStr">
+      <c r="A281" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B281" s="5" t="inlineStr">
         <is>
           <t>B1-2</t>
         </is>
       </c>
-      <c r="C281" s="9" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D281" s="9" t="inlineStr">
+      <c r="C281" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D281" s="5" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E281" s="9" t="inlineStr">
+      <c r="E281" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F281" s="9" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G281" s="9" t="inlineStr"/>
-      <c r="H281" s="9" t="inlineStr">
+      <c r="F281" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G281" s="5" t="inlineStr"/>
+      <c r="H281" s="5" t="inlineStr">
         <is>
           <t>0/31</t>
         </is>
       </c>
-      <c r="I281" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I281" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15860,45 +15857,45 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B337" s="9" t="inlineStr">
+      <c r="A337" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B337" s="5" t="inlineStr">
         <is>
           <t>B1-3</t>
         </is>
       </c>
-      <c r="C337" s="9" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D337" s="9" t="inlineStr">
+      <c r="C337" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D337" s="5" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E337" s="9" t="inlineStr">
+      <c r="E337" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F337" s="9" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G337" s="9" t="inlineStr"/>
-      <c r="H337" s="9" t="inlineStr">
+      <c r="F337" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G337" s="5" t="inlineStr"/>
+      <c r="H337" s="5" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I337" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I337" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -18316,45 +18313,45 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B393" s="9" t="inlineStr">
+      <c r="A393" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B393" s="5" t="inlineStr">
         <is>
           <t>B1-4</t>
         </is>
       </c>
-      <c r="C393" s="9" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D393" s="9" t="inlineStr">
+      <c r="C393" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D393" s="5" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E393" s="9" t="inlineStr">
+      <c r="E393" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F393" s="9" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G393" s="9" t="inlineStr"/>
-      <c r="H393" s="9" t="inlineStr">
+      <c r="F393" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G393" s="5" t="inlineStr"/>
+      <c r="H393" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I393" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I393" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -20772,45 +20769,45 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B449" s="9" t="inlineStr">
+      <c r="A449" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B449" s="5" t="inlineStr">
         <is>
           <t>B1-5</t>
         </is>
       </c>
-      <c r="C449" s="9" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D449" s="9" t="inlineStr">
+      <c r="C449" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D449" s="5" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E449" s="9" t="inlineStr">
+      <c r="E449" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F449" s="9" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G449" s="9" t="inlineStr"/>
-      <c r="H449" s="9" t="inlineStr">
+      <c r="F449" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G449" s="5" t="inlineStr"/>
+      <c r="H449" s="5" t="inlineStr">
         <is>
           <t>0/33</t>
         </is>
       </c>
-      <c r="I449" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I449" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -23228,45 +23225,45 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B505" s="9" t="inlineStr">
+      <c r="A505" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B505" s="5" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="C505" s="9" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D505" s="9" t="inlineStr">
+      <c r="C505" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D505" s="5" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E505" s="9" t="inlineStr">
+      <c r="E505" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F505" s="9" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G505" s="9" t="inlineStr"/>
-      <c r="H505" s="9" t="inlineStr">
+      <c r="F505" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G505" s="5" t="inlineStr"/>
+      <c r="H505" s="5" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I505" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I505" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -25684,45 +25681,45 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B561" s="9" t="inlineStr">
+      <c r="A561" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B561" s="5" t="inlineStr">
         <is>
           <t>B1-7</t>
         </is>
       </c>
-      <c r="C561" s="9" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D561" s="9" t="inlineStr">
+      <c r="C561" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D561" s="5" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E561" s="9" t="inlineStr">
+      <c r="E561" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F561" s="9" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G561" s="9" t="inlineStr"/>
-      <c r="H561" s="9" t="inlineStr">
+      <c r="F561" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G561" s="5" t="inlineStr"/>
+      <c r="H561" s="5" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I561" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I561" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -28140,45 +28137,45 @@
       </c>
     </row>
     <row r="617">
-      <c r="A617" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B617" s="9" t="inlineStr">
+      <c r="A617" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B617" s="5" t="inlineStr">
         <is>
           <t>B1-8</t>
         </is>
       </c>
-      <c r="C617" s="9" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D617" s="9" t="inlineStr">
+      <c r="C617" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D617" s="5" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E617" s="9" t="inlineStr">
+      <c r="E617" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F617" s="9" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G617" s="9" t="inlineStr"/>
-      <c r="H617" s="9" t="inlineStr">
+      <c r="F617" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G617" s="5" t="inlineStr"/>
+      <c r="H617" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I617" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I617" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -30596,45 +30593,45 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="9" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B673" s="9" t="inlineStr">
+      <c r="A673" s="5" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B673" s="5" t="inlineStr">
         <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C673" s="9" t="inlineStr">
-        <is>
-          <t>SURGERY POP QUIZ</t>
-        </is>
-      </c>
-      <c r="D673" s="9" t="inlineStr">
+      <c r="C673" s="5" t="inlineStr">
+        <is>
+          <t>SURGERY POP QUIZ</t>
+        </is>
+      </c>
+      <c r="D673" s="5" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E673" s="9" t="inlineStr">
+      <c r="E673" s="5" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F673" s="9" t="inlineStr">
-        <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="G673" s="9" t="inlineStr"/>
-      <c r="H673" s="9" t="inlineStr">
+      <c r="F673" s="5" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G673" s="5" t="inlineStr"/>
+      <c r="H673" s="5" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I673" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I673" s="5" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -6100,7 +6100,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6147,7 +6147,7 @@
       </c>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
@@ -6194,7 +6194,7 @@
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
@@ -6374,7 +6374,7 @@
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -7379,7 +7379,7 @@
       </c>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
@@ -7426,7 +7426,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7473,7 +7473,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -7915,7 +7915,7 @@
       </c>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -8658,7 +8658,7 @@
       </c>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
@@ -8705,7 +8705,7 @@
       </c>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr">
@@ -8885,7 +8885,7 @@
       </c>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
@@ -9792,7 +9792,7 @@
       </c>
       <c r="G198" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H198" s="2" t="inlineStr">
@@ -9839,7 +9839,7 @@
       </c>
       <c r="G199" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H199" s="2" t="inlineStr">
@@ -9886,7 +9886,7 @@
       </c>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
@@ -9933,7 +9933,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -10066,7 +10066,7 @@
       </c>
       <c r="G204" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H204" s="2" t="inlineStr">
@@ -10113,7 +10113,7 @@
       </c>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H205" s="2" t="inlineStr">
@@ -11020,7 +11020,7 @@
       </c>
       <c r="G226" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H226" s="2" t="inlineStr">
@@ -11067,7 +11067,7 @@
       </c>
       <c r="G227" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H227" s="2" t="inlineStr">
@@ -11114,7 +11114,7 @@
       </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="G229" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H229" s="2" t="inlineStr">
@@ -11294,7 +11294,7 @@
       </c>
       <c r="G232" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H232" s="2" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="G233" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H233" s="2" t="inlineStr">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="G254" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H254" s="2" t="inlineStr">
@@ -12295,7 +12295,7 @@
       </c>
       <c r="G255" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H255" s="2" t="inlineStr">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="G256" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H256" s="2" t="inlineStr">
@@ -12389,7 +12389,7 @@
       </c>
       <c r="G257" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H257" s="2" t="inlineStr">
@@ -12522,7 +12522,7 @@
       </c>
       <c r="G260" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H260" s="2" t="inlineStr">
@@ -12569,7 +12569,7 @@
       </c>
       <c r="G261" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H261" s="2" t="inlineStr">
@@ -13476,7 +13476,7 @@
       </c>
       <c r="G282" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H282" s="2" t="inlineStr">
@@ -13523,7 +13523,7 @@
       </c>
       <c r="G283" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H283" s="2" t="inlineStr">
@@ -13570,7 +13570,7 @@
       </c>
       <c r="G284" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H284" s="2" t="inlineStr">
@@ -13617,7 +13617,7 @@
       </c>
       <c r="G285" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H285" s="2" t="inlineStr">
@@ -13750,7 +13750,7 @@
       </c>
       <c r="G288" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H288" s="2" t="inlineStr">
@@ -13797,7 +13797,7 @@
       </c>
       <c r="G289" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H289" s="2" t="inlineStr">
@@ -14704,7 +14704,7 @@
       </c>
       <c r="G310" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H310" s="2" t="inlineStr">
@@ -14751,7 +14751,7 @@
       </c>
       <c r="G311" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H311" s="2" t="inlineStr">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="G312" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H312" s="2" t="inlineStr">
@@ -14845,7 +14845,7 @@
       </c>
       <c r="G313" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H313" s="2" t="inlineStr">
@@ -14978,7 +14978,7 @@
       </c>
       <c r="G316" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H316" s="2" t="inlineStr">
@@ -15025,7 +15025,7 @@
       </c>
       <c r="G317" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H317" s="2" t="inlineStr">
@@ -15932,7 +15932,7 @@
       </c>
       <c r="G338" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H338" s="2" t="inlineStr">
@@ -15979,7 +15979,7 @@
       </c>
       <c r="G339" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H339" s="2" t="inlineStr">
@@ -16026,7 +16026,7 @@
       </c>
       <c r="G340" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H340" s="2" t="inlineStr">
@@ -16073,7 +16073,7 @@
       </c>
       <c r="G341" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H341" s="2" t="inlineStr">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="G344" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H344" s="2" t="inlineStr">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="G345" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H345" s="2" t="inlineStr">
@@ -17160,7 +17160,7 @@
       </c>
       <c r="G366" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H366" s="2" t="inlineStr">
@@ -17207,7 +17207,7 @@
       </c>
       <c r="G367" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H367" s="2" t="inlineStr">
@@ -17254,7 +17254,7 @@
       </c>
       <c r="G368" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H368" s="2" t="inlineStr">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="G369" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H369" s="2" t="inlineStr">
@@ -17434,7 +17434,7 @@
       </c>
       <c r="G372" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H372" s="2" t="inlineStr">
@@ -17481,7 +17481,7 @@
       </c>
       <c r="G373" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H373" s="2" t="inlineStr">
@@ -18388,7 +18388,7 @@
       </c>
       <c r="G394" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H394" s="2" t="inlineStr">
@@ -18435,7 +18435,7 @@
       </c>
       <c r="G395" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H395" s="2" t="inlineStr">
@@ -18482,7 +18482,7 @@
       </c>
       <c r="G396" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H396" s="2" t="inlineStr">
@@ -18529,7 +18529,7 @@
       </c>
       <c r="G397" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H397" s="2" t="inlineStr">
@@ -18662,7 +18662,7 @@
       </c>
       <c r="G400" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H400" s="2" t="inlineStr">
@@ -18709,7 +18709,7 @@
       </c>
       <c r="G401" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H401" s="2" t="inlineStr">
@@ -19616,7 +19616,7 @@
       </c>
       <c r="G422" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H422" s="2" t="inlineStr">
@@ -19663,7 +19663,7 @@
       </c>
       <c r="G423" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H423" s="2" t="inlineStr">
@@ -19710,7 +19710,7 @@
       </c>
       <c r="G424" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H424" s="2" t="inlineStr">
@@ -19757,7 +19757,7 @@
       </c>
       <c r="G425" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H425" s="2" t="inlineStr">
@@ -19890,7 +19890,7 @@
       </c>
       <c r="G428" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H428" s="2" t="inlineStr">
@@ -19937,7 +19937,7 @@
       </c>
       <c r="G429" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H429" s="2" t="inlineStr">
@@ -20844,7 +20844,7 @@
       </c>
       <c r="G450" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H450" s="2" t="inlineStr">
@@ -20891,7 +20891,7 @@
       </c>
       <c r="G451" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H451" s="2" t="inlineStr">
@@ -20938,7 +20938,7 @@
       </c>
       <c r="G452" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H452" s="2" t="inlineStr">
@@ -20985,7 +20985,7 @@
       </c>
       <c r="G453" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H453" s="2" t="inlineStr">
@@ -21118,7 +21118,7 @@
       </c>
       <c r="G456" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H456" s="2" t="inlineStr">
@@ -21165,7 +21165,7 @@
       </c>
       <c r="G457" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H457" s="2" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="G478" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H478" s="2" t="inlineStr">
@@ -22119,7 +22119,7 @@
       </c>
       <c r="G479" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H479" s="2" t="inlineStr">
@@ -22166,7 +22166,7 @@
       </c>
       <c r="G480" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H480" s="2" t="inlineStr">
@@ -22213,7 +22213,7 @@
       </c>
       <c r="G481" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H481" s="2" t="inlineStr">
@@ -22346,7 +22346,7 @@
       </c>
       <c r="G484" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H484" s="2" t="inlineStr">
@@ -22393,7 +22393,7 @@
       </c>
       <c r="G485" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H485" s="2" t="inlineStr">
@@ -23300,7 +23300,7 @@
       </c>
       <c r="G506" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H506" s="2" t="inlineStr">
@@ -23347,7 +23347,7 @@
       </c>
       <c r="G507" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H507" s="2" t="inlineStr">
@@ -23394,7 +23394,7 @@
       </c>
       <c r="G508" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H508" s="2" t="inlineStr">
@@ -23441,7 +23441,7 @@
       </c>
       <c r="G509" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H509" s="2" t="inlineStr">
@@ -23574,7 +23574,7 @@
       </c>
       <c r="G512" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H512" s="2" t="inlineStr">
@@ -23621,7 +23621,7 @@
       </c>
       <c r="G513" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H513" s="2" t="inlineStr">
@@ -24528,7 +24528,7 @@
       </c>
       <c r="G534" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H534" s="2" t="inlineStr">
@@ -24575,7 +24575,7 @@
       </c>
       <c r="G535" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H535" s="2" t="inlineStr">
@@ -24622,7 +24622,7 @@
       </c>
       <c r="G536" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H536" s="2" t="inlineStr">
@@ -24669,7 +24669,7 @@
       </c>
       <c r="G537" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H537" s="2" t="inlineStr">
@@ -24802,7 +24802,7 @@
       </c>
       <c r="G540" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H540" s="2" t="inlineStr">
@@ -24849,7 +24849,7 @@
       </c>
       <c r="G541" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H541" s="2" t="inlineStr">
@@ -25756,7 +25756,7 @@
       </c>
       <c r="G562" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H562" s="2" t="inlineStr">
@@ -25803,7 +25803,7 @@
       </c>
       <c r="G563" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H563" s="2" t="inlineStr">
@@ -25850,7 +25850,7 @@
       </c>
       <c r="G564" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H564" s="2" t="inlineStr">
@@ -25897,7 +25897,7 @@
       </c>
       <c r="G565" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H565" s="2" t="inlineStr">
@@ -26030,7 +26030,7 @@
       </c>
       <c r="G568" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H568" s="2" t="inlineStr">
@@ -26077,7 +26077,7 @@
       </c>
       <c r="G569" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H569" s="2" t="inlineStr">
@@ -26984,7 +26984,7 @@
       </c>
       <c r="G590" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H590" s="2" t="inlineStr">
@@ -27031,7 +27031,7 @@
       </c>
       <c r="G591" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H591" s="2" t="inlineStr">
@@ -27078,7 +27078,7 @@
       </c>
       <c r="G592" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H592" s="2" t="inlineStr">
@@ -27125,7 +27125,7 @@
       </c>
       <c r="G593" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H593" s="2" t="inlineStr">
@@ -27258,7 +27258,7 @@
       </c>
       <c r="G596" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H596" s="2" t="inlineStr">
@@ -27305,7 +27305,7 @@
       </c>
       <c r="G597" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H597" s="2" t="inlineStr">
@@ -28212,7 +28212,7 @@
       </c>
       <c r="G618" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H618" s="2" t="inlineStr">
@@ -28259,7 +28259,7 @@
       </c>
       <c r="G619" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H619" s="2" t="inlineStr">
@@ -28306,7 +28306,7 @@
       </c>
       <c r="G620" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H620" s="2" t="inlineStr">
@@ -28353,7 +28353,7 @@
       </c>
       <c r="G621" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H621" s="2" t="inlineStr">
@@ -28486,7 +28486,7 @@
       </c>
       <c r="G624" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H624" s="2" t="inlineStr">
@@ -28533,7 +28533,7 @@
       </c>
       <c r="G625" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H625" s="2" t="inlineStr">
@@ -29440,7 +29440,7 @@
       </c>
       <c r="G646" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H646" s="2" t="inlineStr">
@@ -29487,7 +29487,7 @@
       </c>
       <c r="G647" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H647" s="2" t="inlineStr">
@@ -29534,7 +29534,7 @@
       </c>
       <c r="G648" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H648" s="2" t="inlineStr">
@@ -29581,7 +29581,7 @@
       </c>
       <c r="G649" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H649" s="2" t="inlineStr">
@@ -29714,7 +29714,7 @@
       </c>
       <c r="G652" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H652" s="2" t="inlineStr">
@@ -29761,7 +29761,7 @@
       </c>
       <c r="G653" s="2" t="inlineStr">
         <is>
-          <t>Administrator, Miss Dina Nasr</t>
+          <t>Miss Dina Nasr, Administrator</t>
         </is>
       </c>
       <c r="H653" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -6100,7 +6100,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6147,7 +6147,7 @@
       </c>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
@@ -6194,7 +6194,7 @@
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
@@ -6374,7 +6374,7 @@
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -7379,7 +7379,7 @@
       </c>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
@@ -7426,7 +7426,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7473,7 +7473,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -7915,7 +7915,7 @@
       </c>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -8658,7 +8658,7 @@
       </c>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
@@ -8705,7 +8705,7 @@
       </c>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr">
@@ -8885,7 +8885,7 @@
       </c>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
@@ -9792,7 +9792,7 @@
       </c>
       <c r="G198" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H198" s="2" t="inlineStr">
@@ -9839,7 +9839,7 @@
       </c>
       <c r="G199" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H199" s="2" t="inlineStr">
@@ -9886,7 +9886,7 @@
       </c>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
@@ -9933,7 +9933,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -10066,7 +10066,7 @@
       </c>
       <c r="G204" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H204" s="2" t="inlineStr">
@@ -10113,7 +10113,7 @@
       </c>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H205" s="2" t="inlineStr">
@@ -11020,7 +11020,7 @@
       </c>
       <c r="G226" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H226" s="2" t="inlineStr">
@@ -11067,7 +11067,7 @@
       </c>
       <c r="G227" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H227" s="2" t="inlineStr">
@@ -11114,7 +11114,7 @@
       </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="G229" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H229" s="2" t="inlineStr">
@@ -11294,7 +11294,7 @@
       </c>
       <c r="G232" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H232" s="2" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="G233" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H233" s="2" t="inlineStr">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="G254" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H254" s="2" t="inlineStr">
@@ -12295,7 +12295,7 @@
       </c>
       <c r="G255" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H255" s="2" t="inlineStr">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="G256" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H256" s="2" t="inlineStr">
@@ -12389,7 +12389,7 @@
       </c>
       <c r="G257" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H257" s="2" t="inlineStr">
@@ -12522,7 +12522,7 @@
       </c>
       <c r="G260" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H260" s="2" t="inlineStr">
@@ -12569,7 +12569,7 @@
       </c>
       <c r="G261" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H261" s="2" t="inlineStr">
@@ -13476,7 +13476,7 @@
       </c>
       <c r="G282" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H282" s="2" t="inlineStr">
@@ -13523,7 +13523,7 @@
       </c>
       <c r="G283" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H283" s="2" t="inlineStr">
@@ -13570,7 +13570,7 @@
       </c>
       <c r="G284" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H284" s="2" t="inlineStr">
@@ -13617,7 +13617,7 @@
       </c>
       <c r="G285" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H285" s="2" t="inlineStr">
@@ -13750,7 +13750,7 @@
       </c>
       <c r="G288" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H288" s="2" t="inlineStr">
@@ -13797,7 +13797,7 @@
       </c>
       <c r="G289" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H289" s="2" t="inlineStr">
@@ -14704,7 +14704,7 @@
       </c>
       <c r="G310" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H310" s="2" t="inlineStr">
@@ -14751,7 +14751,7 @@
       </c>
       <c r="G311" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H311" s="2" t="inlineStr">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="G312" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H312" s="2" t="inlineStr">
@@ -14845,7 +14845,7 @@
       </c>
       <c r="G313" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H313" s="2" t="inlineStr">
@@ -14978,7 +14978,7 @@
       </c>
       <c r="G316" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H316" s="2" t="inlineStr">
@@ -15025,7 +15025,7 @@
       </c>
       <c r="G317" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H317" s="2" t="inlineStr">
@@ -15932,7 +15932,7 @@
       </c>
       <c r="G338" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H338" s="2" t="inlineStr">
@@ -15979,7 +15979,7 @@
       </c>
       <c r="G339" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H339" s="2" t="inlineStr">
@@ -16026,7 +16026,7 @@
       </c>
       <c r="G340" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H340" s="2" t="inlineStr">
@@ -16073,7 +16073,7 @@
       </c>
       <c r="G341" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H341" s="2" t="inlineStr">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="G344" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H344" s="2" t="inlineStr">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="G345" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H345" s="2" t="inlineStr">
@@ -17160,7 +17160,7 @@
       </c>
       <c r="G366" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H366" s="2" t="inlineStr">
@@ -17207,7 +17207,7 @@
       </c>
       <c r="G367" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H367" s="2" t="inlineStr">
@@ -17254,7 +17254,7 @@
       </c>
       <c r="G368" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H368" s="2" t="inlineStr">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="G369" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H369" s="2" t="inlineStr">
@@ -17434,7 +17434,7 @@
       </c>
       <c r="G372" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H372" s="2" t="inlineStr">
@@ -17481,7 +17481,7 @@
       </c>
       <c r="G373" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H373" s="2" t="inlineStr">
@@ -18388,7 +18388,7 @@
       </c>
       <c r="G394" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H394" s="2" t="inlineStr">
@@ -18435,7 +18435,7 @@
       </c>
       <c r="G395" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H395" s="2" t="inlineStr">
@@ -18482,7 +18482,7 @@
       </c>
       <c r="G396" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H396" s="2" t="inlineStr">
@@ -18529,7 +18529,7 @@
       </c>
       <c r="G397" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H397" s="2" t="inlineStr">
@@ -18662,7 +18662,7 @@
       </c>
       <c r="G400" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H400" s="2" t="inlineStr">
@@ -18709,7 +18709,7 @@
       </c>
       <c r="G401" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H401" s="2" t="inlineStr">
@@ -19616,7 +19616,7 @@
       </c>
       <c r="G422" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H422" s="2" t="inlineStr">
@@ -19663,7 +19663,7 @@
       </c>
       <c r="G423" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H423" s="2" t="inlineStr">
@@ -19710,7 +19710,7 @@
       </c>
       <c r="G424" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H424" s="2" t="inlineStr">
@@ -19757,7 +19757,7 @@
       </c>
       <c r="G425" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H425" s="2" t="inlineStr">
@@ -19890,7 +19890,7 @@
       </c>
       <c r="G428" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H428" s="2" t="inlineStr">
@@ -19937,7 +19937,7 @@
       </c>
       <c r="G429" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H429" s="2" t="inlineStr">
@@ -20844,7 +20844,7 @@
       </c>
       <c r="G450" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H450" s="2" t="inlineStr">
@@ -20891,7 +20891,7 @@
       </c>
       <c r="G451" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H451" s="2" t="inlineStr">
@@ -20938,7 +20938,7 @@
       </c>
       <c r="G452" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H452" s="2" t="inlineStr">
@@ -20985,7 +20985,7 @@
       </c>
       <c r="G453" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H453" s="2" t="inlineStr">
@@ -21118,7 +21118,7 @@
       </c>
       <c r="G456" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H456" s="2" t="inlineStr">
@@ -21165,7 +21165,7 @@
       </c>
       <c r="G457" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H457" s="2" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="G478" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H478" s="2" t="inlineStr">
@@ -22119,7 +22119,7 @@
       </c>
       <c r="G479" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H479" s="2" t="inlineStr">
@@ -22166,7 +22166,7 @@
       </c>
       <c r="G480" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H480" s="2" t="inlineStr">
@@ -22213,7 +22213,7 @@
       </c>
       <c r="G481" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H481" s="2" t="inlineStr">
@@ -22346,7 +22346,7 @@
       </c>
       <c r="G484" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H484" s="2" t="inlineStr">
@@ -22393,7 +22393,7 @@
       </c>
       <c r="G485" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H485" s="2" t="inlineStr">
@@ -23300,7 +23300,7 @@
       </c>
       <c r="G506" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H506" s="2" t="inlineStr">
@@ -23347,7 +23347,7 @@
       </c>
       <c r="G507" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H507" s="2" t="inlineStr">
@@ -23394,7 +23394,7 @@
       </c>
       <c r="G508" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H508" s="2" t="inlineStr">
@@ -23441,7 +23441,7 @@
       </c>
       <c r="G509" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H509" s="2" t="inlineStr">
@@ -23574,7 +23574,7 @@
       </c>
       <c r="G512" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H512" s="2" t="inlineStr">
@@ -23621,7 +23621,7 @@
       </c>
       <c r="G513" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H513" s="2" t="inlineStr">
@@ -24528,7 +24528,7 @@
       </c>
       <c r="G534" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H534" s="2" t="inlineStr">
@@ -24575,7 +24575,7 @@
       </c>
       <c r="G535" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H535" s="2" t="inlineStr">
@@ -24622,7 +24622,7 @@
       </c>
       <c r="G536" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H536" s="2" t="inlineStr">
@@ -24669,7 +24669,7 @@
       </c>
       <c r="G537" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H537" s="2" t="inlineStr">
@@ -24802,7 +24802,7 @@
       </c>
       <c r="G540" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H540" s="2" t="inlineStr">
@@ -24849,7 +24849,7 @@
       </c>
       <c r="G541" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H541" s="2" t="inlineStr">
@@ -25756,7 +25756,7 @@
       </c>
       <c r="G562" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H562" s="2" t="inlineStr">
@@ -25803,7 +25803,7 @@
       </c>
       <c r="G563" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H563" s="2" t="inlineStr">
@@ -25850,7 +25850,7 @@
       </c>
       <c r="G564" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H564" s="2" t="inlineStr">
@@ -25897,7 +25897,7 @@
       </c>
       <c r="G565" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H565" s="2" t="inlineStr">
@@ -26030,7 +26030,7 @@
       </c>
       <c r="G568" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H568" s="2" t="inlineStr">
@@ -26077,7 +26077,7 @@
       </c>
       <c r="G569" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H569" s="2" t="inlineStr">
@@ -26984,7 +26984,7 @@
       </c>
       <c r="G590" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H590" s="2" t="inlineStr">
@@ -27031,7 +27031,7 @@
       </c>
       <c r="G591" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H591" s="2" t="inlineStr">
@@ -27078,7 +27078,7 @@
       </c>
       <c r="G592" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H592" s="2" t="inlineStr">
@@ -27125,7 +27125,7 @@
       </c>
       <c r="G593" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H593" s="2" t="inlineStr">
@@ -27258,7 +27258,7 @@
       </c>
       <c r="G596" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H596" s="2" t="inlineStr">
@@ -27305,7 +27305,7 @@
       </c>
       <c r="G597" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H597" s="2" t="inlineStr">
@@ -28212,7 +28212,7 @@
       </c>
       <c r="G618" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H618" s="2" t="inlineStr">
@@ -28259,7 +28259,7 @@
       </c>
       <c r="G619" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H619" s="2" t="inlineStr">
@@ -28306,7 +28306,7 @@
       </c>
       <c r="G620" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H620" s="2" t="inlineStr">
@@ -28353,7 +28353,7 @@
       </c>
       <c r="G621" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H621" s="2" t="inlineStr">
@@ -28486,7 +28486,7 @@
       </c>
       <c r="G624" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H624" s="2" t="inlineStr">
@@ -28533,7 +28533,7 @@
       </c>
       <c r="G625" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H625" s="2" t="inlineStr">
@@ -29440,7 +29440,7 @@
       </c>
       <c r="G646" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H646" s="2" t="inlineStr">
@@ -29487,7 +29487,7 @@
       </c>
       <c r="G647" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H647" s="2" t="inlineStr">
@@ -29534,7 +29534,7 @@
       </c>
       <c r="G648" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H648" s="2" t="inlineStr">
@@ -29581,7 +29581,7 @@
       </c>
       <c r="G649" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H649" s="2" t="inlineStr">
@@ -29714,7 +29714,7 @@
       </c>
       <c r="G652" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H652" s="2" t="inlineStr">
@@ -29761,7 +29761,7 @@
       </c>
       <c r="G653" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>Administrator, Miss Dina Nasr</t>
         </is>
       </c>
       <c r="H653" s="2" t="inlineStr">

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -484,7 +484,7 @@
     <col width="9" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="31" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="22" customWidth="1" min="11" max="11"/>
@@ -576,11 +576,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G2" s="2" t="inlineStr"/>
       <c r="H2" s="2" t="inlineStr">
         <is>
           <t>22/27</t>
@@ -628,11 +624,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G3" s="2" t="inlineStr"/>
       <c r="H3" s="2" t="inlineStr">
         <is>
           <t>20/27</t>
@@ -685,11 +677,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G4" s="2" t="inlineStr"/>
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>21/27</t>
@@ -740,11 +728,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G5" s="2" t="inlineStr"/>
       <c r="H5" s="2" t="inlineStr">
         <is>
           <t>19/27</t>
@@ -897,11 +881,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G8" s="2" t="inlineStr"/>
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>18/27</t>
@@ -952,11 +932,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G9" s="2" t="inlineStr"/>
       <c r="H9" s="2" t="inlineStr">
         <is>
           <t>24/27</t>
@@ -2354,11 +2330,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G30" s="2" t="inlineStr"/>
       <c r="H30" s="2" t="inlineStr">
         <is>
           <t>22/27</t>
@@ -2416,11 +2388,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G31" s="2" t="inlineStr"/>
       <c r="H31" s="2" t="inlineStr">
         <is>
           <t>20/27</t>
@@ -2478,11 +2446,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" s="2" t="inlineStr">
         <is>
           <t>21/27</t>
@@ -2540,11 +2504,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G33" s="2" t="inlineStr"/>
       <c r="H33" s="2" t="inlineStr">
         <is>
           <t>19/27</t>
@@ -2688,11 +2648,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G36" s="2" t="inlineStr"/>
       <c r="H36" s="2" t="inlineStr">
         <is>
           <t>18/27</t>
@@ -2735,11 +2691,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G37" s="2" t="inlineStr"/>
       <c r="H37" s="2" t="inlineStr">
         <is>
           <t>24/27</t>
@@ -3642,11 +3594,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G58" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G58" s="2" t="inlineStr"/>
       <c r="H58" s="2" t="inlineStr">
         <is>
           <t>18/31</t>
@@ -3689,11 +3637,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G59" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G59" s="2" t="inlineStr"/>
       <c r="H59" s="2" t="inlineStr">
         <is>
           <t>18/31</t>
@@ -3736,11 +3680,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G60" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G60" s="2" t="inlineStr"/>
       <c r="H60" s="2" t="inlineStr">
         <is>
           <t>17/31</t>
@@ -3783,11 +3723,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G61" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G61" s="2" t="inlineStr"/>
       <c r="H61" s="2" t="inlineStr">
         <is>
           <t>15/31</t>
@@ -3916,11 +3852,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G64" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G64" s="2" t="inlineStr"/>
       <c r="H64" s="2" t="inlineStr">
         <is>
           <t>18/31</t>
@@ -3963,11 +3895,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G65" s="2" t="inlineStr"/>
       <c r="H65" s="2" t="inlineStr">
         <is>
           <t>13/31</t>
@@ -4870,11 +4798,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G86" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G86" s="2" t="inlineStr"/>
       <c r="H86" s="2" t="inlineStr">
         <is>
           <t>18/31</t>
@@ -4917,11 +4841,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G87" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G87" s="2" t="inlineStr"/>
       <c r="H87" s="2" t="inlineStr">
         <is>
           <t>18/31</t>
@@ -4964,11 +4884,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G88" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G88" s="2" t="inlineStr"/>
       <c r="H88" s="2" t="inlineStr">
         <is>
           <t>17/31</t>
@@ -5011,11 +4927,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G89" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G89" s="2" t="inlineStr"/>
       <c r="H89" s="2" t="inlineStr">
         <is>
           <t>15/31</t>
@@ -5144,11 +5056,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G92" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G92" s="2" t="inlineStr"/>
       <c r="H92" s="2" t="inlineStr">
         <is>
           <t>18/31</t>
@@ -5191,11 +5099,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G93" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G93" s="2" t="inlineStr"/>
       <c r="H93" s="2" t="inlineStr">
         <is>
           <t>13/31</t>
@@ -6098,11 +6002,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G114" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G114" s="2" t="inlineStr"/>
       <c r="H114" s="2" t="inlineStr">
         <is>
           <t>7/19</t>
@@ -6145,11 +6045,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G115" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G115" s="2" t="inlineStr"/>
       <c r="H115" s="2" t="inlineStr">
         <is>
           <t>6/19</t>
@@ -6192,11 +6088,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G116" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G116" s="2" t="inlineStr"/>
       <c r="H116" s="2" t="inlineStr">
         <is>
           <t>3/19</t>
@@ -6239,11 +6131,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G117" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G117" s="2" t="inlineStr"/>
       <c r="H117" s="2" t="inlineStr">
         <is>
           <t>7/19</t>
@@ -6372,11 +6260,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G120" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G120" s="2" t="inlineStr"/>
       <c r="H120" s="2" t="inlineStr">
         <is>
           <t>11/19</t>
@@ -6419,11 +6303,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G121" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G121" s="2" t="inlineStr"/>
       <c r="H121" s="2" t="inlineStr">
         <is>
           <t>10/19</t>
@@ -6681,11 +6561,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G127" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G127" s="2" t="inlineStr"/>
       <c r="H127" s="2" t="inlineStr">
         <is>
           <t>1/19</t>
@@ -7330,11 +7206,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G142" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G142" s="2" t="inlineStr"/>
       <c r="H142" s="2" t="inlineStr">
         <is>
           <t>7/19</t>
@@ -7377,11 +7249,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G143" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G143" s="2" t="inlineStr"/>
       <c r="H143" s="2" t="inlineStr">
         <is>
           <t>6/19</t>
@@ -7424,11 +7292,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G144" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G144" s="2" t="inlineStr"/>
       <c r="H144" s="2" t="inlineStr">
         <is>
           <t>3/19</t>
@@ -7471,11 +7335,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G145" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G145" s="2" t="inlineStr"/>
       <c r="H145" s="2" t="inlineStr">
         <is>
           <t>7/19</t>
@@ -7604,11 +7464,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G148" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G148" s="2" t="inlineStr"/>
       <c r="H148" s="2" t="inlineStr">
         <is>
           <t>11/19</t>
@@ -7651,11 +7507,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G149" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G149" s="2" t="inlineStr"/>
       <c r="H149" s="2" t="inlineStr">
         <is>
           <t>10/19</t>
@@ -7913,11 +7765,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G155" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G155" s="2" t="inlineStr"/>
       <c r="H155" s="2" t="inlineStr">
         <is>
           <t>1/19</t>
@@ -8562,11 +8410,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G170" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G170" s="2" t="inlineStr"/>
       <c r="H170" s="2" t="inlineStr">
         <is>
           <t>19/21</t>
@@ -8609,11 +8453,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G171" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G171" s="2" t="inlineStr"/>
       <c r="H171" s="2" t="inlineStr">
         <is>
           <t>16/21</t>
@@ -8656,11 +8496,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G172" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G172" s="2" t="inlineStr"/>
       <c r="H172" s="2" t="inlineStr">
         <is>
           <t>14/21</t>
@@ -8703,11 +8539,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G173" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G173" s="2" t="inlineStr"/>
       <c r="H173" s="2" t="inlineStr">
         <is>
           <t>14/21</t>
@@ -8836,11 +8668,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G176" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G176" s="2" t="inlineStr"/>
       <c r="H176" s="2" t="inlineStr">
         <is>
           <t>13/21</t>
@@ -8883,11 +8711,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G177" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G177" s="2" t="inlineStr"/>
       <c r="H177" s="2" t="inlineStr">
         <is>
           <t>19/21</t>
@@ -9790,11 +9614,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G198" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G198" s="2" t="inlineStr"/>
       <c r="H198" s="2" t="inlineStr">
         <is>
           <t>19/21</t>
@@ -9837,11 +9657,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G199" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G199" s="2" t="inlineStr"/>
       <c r="H199" s="2" t="inlineStr">
         <is>
           <t>16/21</t>
@@ -9884,11 +9700,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G200" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G200" s="2" t="inlineStr"/>
       <c r="H200" s="2" t="inlineStr">
         <is>
           <t>14/21</t>
@@ -9931,11 +9743,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G201" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G201" s="2" t="inlineStr"/>
       <c r="H201" s="2" t="inlineStr">
         <is>
           <t>14/21</t>
@@ -10064,11 +9872,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G204" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G204" s="2" t="inlineStr"/>
       <c r="H204" s="2" t="inlineStr">
         <is>
           <t>13/21</t>
@@ -10111,11 +9915,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G205" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G205" s="2" t="inlineStr"/>
       <c r="H205" s="2" t="inlineStr">
         <is>
           <t>19/21</t>
@@ -11018,11 +10818,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G226" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G226" s="2" t="inlineStr"/>
       <c r="H226" s="2" t="inlineStr">
         <is>
           <t>29/31</t>
@@ -11065,11 +10861,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G227" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G227" s="2" t="inlineStr"/>
       <c r="H227" s="2" t="inlineStr">
         <is>
           <t>30/31</t>
@@ -11112,11 +10904,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G228" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G228" s="2" t="inlineStr"/>
       <c r="H228" s="2" t="inlineStr">
         <is>
           <t>28/31</t>
@@ -11159,11 +10947,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G229" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G229" s="2" t="inlineStr"/>
       <c r="H229" s="2" t="inlineStr">
         <is>
           <t>28/31</t>
@@ -11292,11 +11076,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G232" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G232" s="2" t="inlineStr"/>
       <c r="H232" s="2" t="inlineStr">
         <is>
           <t>24/31</t>
@@ -11339,11 +11119,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G233" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G233" s="2" t="inlineStr"/>
       <c r="H233" s="2" t="inlineStr">
         <is>
           <t>31/31</t>
@@ -12246,11 +12022,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G254" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G254" s="2" t="inlineStr"/>
       <c r="H254" s="2" t="inlineStr">
         <is>
           <t>29/31</t>
@@ -12293,11 +12065,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G255" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G255" s="2" t="inlineStr"/>
       <c r="H255" s="2" t="inlineStr">
         <is>
           <t>30/31</t>
@@ -12340,11 +12108,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G256" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G256" s="2" t="inlineStr"/>
       <c r="H256" s="2" t="inlineStr">
         <is>
           <t>28/31</t>
@@ -12387,11 +12151,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G257" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G257" s="2" t="inlineStr"/>
       <c r="H257" s="2" t="inlineStr">
         <is>
           <t>28/31</t>
@@ -12520,11 +12280,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G260" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G260" s="2" t="inlineStr"/>
       <c r="H260" s="2" t="inlineStr">
         <is>
           <t>24/31</t>
@@ -12567,11 +12323,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G261" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G261" s="2" t="inlineStr"/>
       <c r="H261" s="2" t="inlineStr">
         <is>
           <t>31/31</t>
@@ -13474,11 +13226,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G282" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G282" s="2" t="inlineStr"/>
       <c r="H282" s="2" t="inlineStr">
         <is>
           <t>24/28</t>
@@ -13521,11 +13269,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G283" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G283" s="2" t="inlineStr"/>
       <c r="H283" s="2" t="inlineStr">
         <is>
           <t>23/28</t>
@@ -13568,11 +13312,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G284" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G284" s="2" t="inlineStr"/>
       <c r="H284" s="2" t="inlineStr">
         <is>
           <t>23/28</t>
@@ -13615,11 +13355,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G285" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G285" s="2" t="inlineStr"/>
       <c r="H285" s="2" t="inlineStr">
         <is>
           <t>27/28</t>
@@ -13748,11 +13484,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G288" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G288" s="2" t="inlineStr"/>
       <c r="H288" s="2" t="inlineStr">
         <is>
           <t>20/28</t>
@@ -13795,11 +13527,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G289" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G289" s="2" t="inlineStr"/>
       <c r="H289" s="2" t="inlineStr">
         <is>
           <t>26/28</t>
@@ -14702,11 +14430,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G310" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G310" s="2" t="inlineStr"/>
       <c r="H310" s="2" t="inlineStr">
         <is>
           <t>24/28</t>
@@ -14749,11 +14473,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G311" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G311" s="2" t="inlineStr"/>
       <c r="H311" s="2" t="inlineStr">
         <is>
           <t>23/28</t>
@@ -14796,11 +14516,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G312" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G312" s="2" t="inlineStr"/>
       <c r="H312" s="2" t="inlineStr">
         <is>
           <t>23/28</t>
@@ -14843,11 +14559,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G313" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G313" s="2" t="inlineStr"/>
       <c r="H313" s="2" t="inlineStr">
         <is>
           <t>27/28</t>
@@ -14976,11 +14688,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G316" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G316" s="2" t="inlineStr"/>
       <c r="H316" s="2" t="inlineStr">
         <is>
           <t>20/28</t>
@@ -15023,11 +14731,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G317" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G317" s="2" t="inlineStr"/>
       <c r="H317" s="2" t="inlineStr">
         <is>
           <t>26/28</t>
@@ -15930,11 +15634,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G338" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G338" s="2" t="inlineStr"/>
       <c r="H338" s="2" t="inlineStr">
         <is>
           <t>29/29</t>
@@ -15977,11 +15677,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G339" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G339" s="2" t="inlineStr"/>
       <c r="H339" s="2" t="inlineStr">
         <is>
           <t>26/29</t>
@@ -16024,11 +15720,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G340" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G340" s="2" t="inlineStr"/>
       <c r="H340" s="2" t="inlineStr">
         <is>
           <t>27/29</t>
@@ -16071,11 +15763,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G341" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G341" s="2" t="inlineStr"/>
       <c r="H341" s="2" t="inlineStr">
         <is>
           <t>24/29</t>
@@ -16204,11 +15892,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G344" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G344" s="2" t="inlineStr"/>
       <c r="H344" s="2" t="inlineStr">
         <is>
           <t>23/29</t>
@@ -16251,11 +15935,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G345" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G345" s="2" t="inlineStr"/>
       <c r="H345" s="2" t="inlineStr">
         <is>
           <t>22/29</t>
@@ -17158,11 +16838,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G366" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G366" s="2" t="inlineStr"/>
       <c r="H366" s="2" t="inlineStr">
         <is>
           <t>29/29</t>
@@ -17205,11 +16881,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G367" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G367" s="2" t="inlineStr"/>
       <c r="H367" s="2" t="inlineStr">
         <is>
           <t>26/29</t>
@@ -17252,11 +16924,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G368" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G368" s="2" t="inlineStr"/>
       <c r="H368" s="2" t="inlineStr">
         <is>
           <t>27/29</t>
@@ -17299,11 +16967,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G369" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G369" s="2" t="inlineStr"/>
       <c r="H369" s="2" t="inlineStr">
         <is>
           <t>24/29</t>
@@ -17432,11 +17096,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G372" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G372" s="2" t="inlineStr"/>
       <c r="H372" s="2" t="inlineStr">
         <is>
           <t>23/29</t>
@@ -17479,11 +17139,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G373" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G373" s="2" t="inlineStr"/>
       <c r="H373" s="2" t="inlineStr">
         <is>
           <t>22/29</t>
@@ -18386,11 +18042,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G394" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G394" s="2" t="inlineStr"/>
       <c r="H394" s="2" t="inlineStr">
         <is>
           <t>33/33</t>
@@ -18433,11 +18085,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G395" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G395" s="2" t="inlineStr"/>
       <c r="H395" s="2" t="inlineStr">
         <is>
           <t>31/33</t>
@@ -18480,11 +18128,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G396" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G396" s="2" t="inlineStr"/>
       <c r="H396" s="2" t="inlineStr">
         <is>
           <t>30/33</t>
@@ -18527,11 +18171,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G397" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G397" s="2" t="inlineStr"/>
       <c r="H397" s="2" t="inlineStr">
         <is>
           <t>28/33</t>
@@ -18660,11 +18300,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G400" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G400" s="2" t="inlineStr"/>
       <c r="H400" s="2" t="inlineStr">
         <is>
           <t>25/33</t>
@@ -18707,11 +18343,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G401" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G401" s="2" t="inlineStr"/>
       <c r="H401" s="2" t="inlineStr">
         <is>
           <t>30/33</t>
@@ -19614,11 +19246,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G422" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G422" s="2" t="inlineStr"/>
       <c r="H422" s="2" t="inlineStr">
         <is>
           <t>33/33</t>
@@ -19661,11 +19289,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G423" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G423" s="2" t="inlineStr"/>
       <c r="H423" s="2" t="inlineStr">
         <is>
           <t>31/33</t>
@@ -19708,11 +19332,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G424" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G424" s="2" t="inlineStr"/>
       <c r="H424" s="2" t="inlineStr">
         <is>
           <t>30/33</t>
@@ -19755,11 +19375,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G425" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G425" s="2" t="inlineStr"/>
       <c r="H425" s="2" t="inlineStr">
         <is>
           <t>28/33</t>
@@ -19888,11 +19504,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G428" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G428" s="2" t="inlineStr"/>
       <c r="H428" s="2" t="inlineStr">
         <is>
           <t>25/33</t>
@@ -19935,11 +19547,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G429" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G429" s="2" t="inlineStr"/>
       <c r="H429" s="2" t="inlineStr">
         <is>
           <t>30/33</t>
@@ -20842,11 +20450,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G450" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G450" s="2" t="inlineStr"/>
       <c r="H450" s="2" t="inlineStr">
         <is>
           <t>21/30</t>
@@ -20889,11 +20493,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G451" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G451" s="2" t="inlineStr"/>
       <c r="H451" s="2" t="inlineStr">
         <is>
           <t>22/30</t>
@@ -20936,11 +20536,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G452" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G452" s="2" t="inlineStr"/>
       <c r="H452" s="2" t="inlineStr">
         <is>
           <t>22/30</t>
@@ -20983,11 +20579,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G453" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G453" s="2" t="inlineStr"/>
       <c r="H453" s="2" t="inlineStr">
         <is>
           <t>18/30</t>
@@ -21116,11 +20708,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G456" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G456" s="2" t="inlineStr"/>
       <c r="H456" s="2" t="inlineStr">
         <is>
           <t>18/30</t>
@@ -21163,11 +20751,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G457" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G457" s="2" t="inlineStr"/>
       <c r="H457" s="2" t="inlineStr">
         <is>
           <t>22/30</t>
@@ -22070,11 +21654,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G478" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G478" s="2" t="inlineStr"/>
       <c r="H478" s="2" t="inlineStr">
         <is>
           <t>21/30</t>
@@ -22117,11 +21697,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G479" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G479" s="2" t="inlineStr"/>
       <c r="H479" s="2" t="inlineStr">
         <is>
           <t>22/30</t>
@@ -22164,11 +21740,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G480" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G480" s="2" t="inlineStr"/>
       <c r="H480" s="2" t="inlineStr">
         <is>
           <t>22/30</t>
@@ -22211,11 +21783,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G481" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G481" s="2" t="inlineStr"/>
       <c r="H481" s="2" t="inlineStr">
         <is>
           <t>18/30</t>
@@ -22344,11 +21912,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G484" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G484" s="2" t="inlineStr"/>
       <c r="H484" s="2" t="inlineStr">
         <is>
           <t>18/30</t>
@@ -22391,11 +21955,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G485" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G485" s="2" t="inlineStr"/>
       <c r="H485" s="2" t="inlineStr">
         <is>
           <t>22/30</t>
@@ -23298,11 +22858,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G506" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G506" s="2" t="inlineStr"/>
       <c r="H506" s="2" t="inlineStr">
         <is>
           <t>12/27</t>
@@ -23345,11 +22901,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G507" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G507" s="2" t="inlineStr"/>
       <c r="H507" s="2" t="inlineStr">
         <is>
           <t>12/27</t>
@@ -23392,11 +22944,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G508" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G508" s="2" t="inlineStr"/>
       <c r="H508" s="2" t="inlineStr">
         <is>
           <t>16/27</t>
@@ -23439,11 +22987,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G509" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G509" s="2" t="inlineStr"/>
       <c r="H509" s="2" t="inlineStr">
         <is>
           <t>5/27</t>
@@ -23572,11 +23116,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G512" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G512" s="2" t="inlineStr"/>
       <c r="H512" s="2" t="inlineStr">
         <is>
           <t>13/27</t>
@@ -23619,11 +23159,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G513" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G513" s="2" t="inlineStr"/>
       <c r="H513" s="2" t="inlineStr">
         <is>
           <t>13/27</t>
@@ -24526,11 +24062,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G534" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G534" s="2" t="inlineStr"/>
       <c r="H534" s="2" t="inlineStr">
         <is>
           <t>12/27</t>
@@ -24573,11 +24105,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G535" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G535" s="2" t="inlineStr"/>
       <c r="H535" s="2" t="inlineStr">
         <is>
           <t>12/27</t>
@@ -24620,11 +24148,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G536" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G536" s="2" t="inlineStr"/>
       <c r="H536" s="2" t="inlineStr">
         <is>
           <t>16/27</t>
@@ -24667,11 +24191,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G537" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G537" s="2" t="inlineStr"/>
       <c r="H537" s="2" t="inlineStr">
         <is>
           <t>5/27</t>
@@ -24800,11 +24320,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G540" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G540" s="2" t="inlineStr"/>
       <c r="H540" s="2" t="inlineStr">
         <is>
           <t>13/27</t>
@@ -24847,11 +24363,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G541" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G541" s="2" t="inlineStr"/>
       <c r="H541" s="2" t="inlineStr">
         <is>
           <t>13/27</t>
@@ -25754,11 +25266,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G562" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G562" s="2" t="inlineStr"/>
       <c r="H562" s="2" t="inlineStr">
         <is>
           <t>18/29</t>
@@ -25801,11 +25309,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G563" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G563" s="2" t="inlineStr"/>
       <c r="H563" s="2" t="inlineStr">
         <is>
           <t>17/29</t>
@@ -25848,11 +25352,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G564" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G564" s="2" t="inlineStr"/>
       <c r="H564" s="2" t="inlineStr">
         <is>
           <t>17/29</t>
@@ -25895,11 +25395,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G565" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G565" s="2" t="inlineStr"/>
       <c r="H565" s="2" t="inlineStr">
         <is>
           <t>15/29</t>
@@ -26028,11 +25524,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G568" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G568" s="2" t="inlineStr"/>
       <c r="H568" s="2" t="inlineStr">
         <is>
           <t>24/29</t>
@@ -26075,11 +25567,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G569" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G569" s="2" t="inlineStr"/>
       <c r="H569" s="2" t="inlineStr">
         <is>
           <t>19/29</t>
@@ -26982,11 +26470,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G590" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G590" s="2" t="inlineStr"/>
       <c r="H590" s="2" t="inlineStr">
         <is>
           <t>18/29</t>
@@ -27029,11 +26513,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G591" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G591" s="2" t="inlineStr"/>
       <c r="H591" s="2" t="inlineStr">
         <is>
           <t>17/29</t>
@@ -27076,11 +26556,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G592" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G592" s="2" t="inlineStr"/>
       <c r="H592" s="2" t="inlineStr">
         <is>
           <t>17/29</t>
@@ -27123,11 +26599,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G593" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G593" s="2" t="inlineStr"/>
       <c r="H593" s="2" t="inlineStr">
         <is>
           <t>15/29</t>
@@ -27256,11 +26728,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G596" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G596" s="2" t="inlineStr"/>
       <c r="H596" s="2" t="inlineStr">
         <is>
           <t>24/29</t>
@@ -27303,11 +26771,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G597" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G597" s="2" t="inlineStr"/>
       <c r="H597" s="2" t="inlineStr">
         <is>
           <t>19/29</t>
@@ -28210,11 +27674,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G618" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G618" s="2" t="inlineStr"/>
       <c r="H618" s="2" t="inlineStr">
         <is>
           <t>13/29</t>
@@ -28257,11 +27717,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G619" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G619" s="2" t="inlineStr"/>
       <c r="H619" s="2" t="inlineStr">
         <is>
           <t>12/29</t>
@@ -28304,11 +27760,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G620" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G620" s="2" t="inlineStr"/>
       <c r="H620" s="2" t="inlineStr">
         <is>
           <t>13/29</t>
@@ -28351,11 +27803,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G621" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G621" s="2" t="inlineStr"/>
       <c r="H621" s="2" t="inlineStr">
         <is>
           <t>10/29</t>
@@ -28484,11 +27932,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G624" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G624" s="2" t="inlineStr"/>
       <c r="H624" s="2" t="inlineStr">
         <is>
           <t>18/29</t>
@@ -28531,11 +27975,7 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G625" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G625" s="2" t="inlineStr"/>
       <c r="H625" s="2" t="inlineStr">
         <is>
           <t>21/29</t>
@@ -29438,11 +28878,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G646" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G646" s="2" t="inlineStr"/>
       <c r="H646" s="2" t="inlineStr">
         <is>
           <t>13/29</t>
@@ -29485,11 +28921,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G647" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G647" s="2" t="inlineStr"/>
       <c r="H647" s="2" t="inlineStr">
         <is>
           <t>12/29</t>
@@ -29532,11 +28964,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G648" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G648" s="2" t="inlineStr"/>
       <c r="H648" s="2" t="inlineStr">
         <is>
           <t>13/29</t>
@@ -29579,11 +29007,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G649" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G649" s="2" t="inlineStr"/>
       <c r="H649" s="2" t="inlineStr">
         <is>
           <t>10/29</t>
@@ -29712,11 +29136,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G652" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G652" s="2" t="inlineStr"/>
       <c r="H652" s="2" t="inlineStr">
         <is>
           <t>18/29</t>
@@ -29759,11 +29179,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G653" s="2" t="inlineStr">
-        <is>
-          <t>Administrator, Miss Dina Nasr</t>
-        </is>
-      </c>
+      <c r="G653" s="2" t="inlineStr"/>
       <c r="H653" s="2" t="inlineStr">
         <is>
           <t>21/29</t>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -484,7 +484,7 @@
     <col width="9" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="31" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="22" customWidth="1" min="11" max="11"/>
@@ -576,7 +576,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
           <t>22/27</t>
@@ -624,7 +628,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
           <t>20/27</t>
@@ -677,7 +685,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>21/27</t>
@@ -728,7 +740,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
           <t>19/27</t>
@@ -881,7 +897,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>18/27</t>
@@ -932,7 +952,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
           <t>24/27</t>
@@ -2330,7 +2354,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
           <t>22/27</t>
@@ -2388,7 +2416,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
           <t>20/27</t>
@@ -2446,7 +2478,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
           <t>21/27</t>
@@ -2504,7 +2540,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
           <t>19/27</t>
@@ -2648,7 +2688,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
           <t>18/27</t>
@@ -2691,7 +2735,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
           <t>24/27</t>
@@ -3594,7 +3642,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
           <t>18/31</t>
@@ -3637,7 +3689,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
           <t>18/31</t>
@@ -3680,7 +3736,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
           <t>17/31</t>
@@ -3723,7 +3783,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
           <t>15/31</t>
@@ -3852,7 +3916,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
           <t>18/31</t>
@@ -3895,7 +3963,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
           <t>13/31</t>
@@ -4798,7 +4870,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G86" s="2" t="inlineStr"/>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
           <t>18/31</t>
@@ -4841,7 +4917,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G87" s="2" t="inlineStr"/>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
           <t>18/31</t>
@@ -4884,7 +4964,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G88" s="2" t="inlineStr"/>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
           <t>17/31</t>
@@ -4927,7 +5011,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G89" s="2" t="inlineStr"/>
+      <c r="G89" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
           <t>15/31</t>
@@ -5056,7 +5144,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G92" s="2" t="inlineStr"/>
+      <c r="G92" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
           <t>18/31</t>
@@ -5099,7 +5191,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G93" s="2" t="inlineStr"/>
+      <c r="G93" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
           <t>13/31</t>
@@ -6002,7 +6098,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G114" s="2" t="inlineStr"/>
+      <c r="G114" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H114" s="2" t="inlineStr">
         <is>
           <t>7/19</t>
@@ -6045,7 +6145,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G115" s="2" t="inlineStr"/>
+      <c r="G115" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H115" s="2" t="inlineStr">
         <is>
           <t>6/19</t>
@@ -6088,7 +6192,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G116" s="2" t="inlineStr"/>
+      <c r="G116" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H116" s="2" t="inlineStr">
         <is>
           <t>3/19</t>
@@ -6131,7 +6239,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G117" s="2" t="inlineStr"/>
+      <c r="G117" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H117" s="2" t="inlineStr">
         <is>
           <t>7/19</t>
@@ -6260,7 +6372,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G120" s="2" t="inlineStr"/>
+      <c r="G120" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H120" s="2" t="inlineStr">
         <is>
           <t>11/19</t>
@@ -6303,7 +6419,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G121" s="2" t="inlineStr"/>
+      <c r="G121" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H121" s="2" t="inlineStr">
         <is>
           <t>10/19</t>
@@ -6561,7 +6681,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G127" s="2" t="inlineStr"/>
+      <c r="G127" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H127" s="2" t="inlineStr">
         <is>
           <t>1/19</t>
@@ -7206,7 +7330,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G142" s="2" t="inlineStr"/>
+      <c r="G142" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H142" s="2" t="inlineStr">
         <is>
           <t>7/19</t>
@@ -7249,7 +7377,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G143" s="2" t="inlineStr"/>
+      <c r="G143" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H143" s="2" t="inlineStr">
         <is>
           <t>6/19</t>
@@ -7292,7 +7424,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G144" s="2" t="inlineStr"/>
+      <c r="G144" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H144" s="2" t="inlineStr">
         <is>
           <t>3/19</t>
@@ -7335,7 +7471,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G145" s="2" t="inlineStr"/>
+      <c r="G145" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H145" s="2" t="inlineStr">
         <is>
           <t>7/19</t>
@@ -7464,7 +7604,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G148" s="2" t="inlineStr"/>
+      <c r="G148" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H148" s="2" t="inlineStr">
         <is>
           <t>11/19</t>
@@ -7507,7 +7651,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G149" s="2" t="inlineStr"/>
+      <c r="G149" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H149" s="2" t="inlineStr">
         <is>
           <t>10/19</t>
@@ -7765,7 +7913,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G155" s="2" t="inlineStr"/>
+      <c r="G155" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H155" s="2" t="inlineStr">
         <is>
           <t>1/19</t>
@@ -8410,7 +8562,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G170" s="2" t="inlineStr"/>
+      <c r="G170" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H170" s="2" t="inlineStr">
         <is>
           <t>19/21</t>
@@ -8453,7 +8609,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G171" s="2" t="inlineStr"/>
+      <c r="G171" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H171" s="2" t="inlineStr">
         <is>
           <t>16/21</t>
@@ -8496,7 +8656,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G172" s="2" t="inlineStr"/>
+      <c r="G172" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H172" s="2" t="inlineStr">
         <is>
           <t>14/21</t>
@@ -8539,7 +8703,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G173" s="2" t="inlineStr"/>
+      <c r="G173" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H173" s="2" t="inlineStr">
         <is>
           <t>14/21</t>
@@ -8668,7 +8836,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G176" s="2" t="inlineStr"/>
+      <c r="G176" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H176" s="2" t="inlineStr">
         <is>
           <t>13/21</t>
@@ -8711,7 +8883,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G177" s="2" t="inlineStr"/>
+      <c r="G177" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H177" s="2" t="inlineStr">
         <is>
           <t>19/21</t>
@@ -9614,7 +9790,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G198" s="2" t="inlineStr"/>
+      <c r="G198" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H198" s="2" t="inlineStr">
         <is>
           <t>19/21</t>
@@ -9657,7 +9837,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G199" s="2" t="inlineStr"/>
+      <c r="G199" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H199" s="2" t="inlineStr">
         <is>
           <t>16/21</t>
@@ -9700,7 +9884,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G200" s="2" t="inlineStr"/>
+      <c r="G200" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H200" s="2" t="inlineStr">
         <is>
           <t>14/21</t>
@@ -9743,7 +9931,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G201" s="2" t="inlineStr"/>
+      <c r="G201" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H201" s="2" t="inlineStr">
         <is>
           <t>14/21</t>
@@ -9872,7 +10064,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G204" s="2" t="inlineStr"/>
+      <c r="G204" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H204" s="2" t="inlineStr">
         <is>
           <t>13/21</t>
@@ -9915,7 +10111,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G205" s="2" t="inlineStr"/>
+      <c r="G205" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H205" s="2" t="inlineStr">
         <is>
           <t>19/21</t>
@@ -10818,7 +11018,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G226" s="2" t="inlineStr"/>
+      <c r="G226" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H226" s="2" t="inlineStr">
         <is>
           <t>29/31</t>
@@ -10861,7 +11065,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G227" s="2" t="inlineStr"/>
+      <c r="G227" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H227" s="2" t="inlineStr">
         <is>
           <t>30/31</t>
@@ -10904,7 +11112,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G228" s="2" t="inlineStr"/>
+      <c r="G228" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H228" s="2" t="inlineStr">
         <is>
           <t>28/31</t>
@@ -10947,7 +11159,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G229" s="2" t="inlineStr"/>
+      <c r="G229" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H229" s="2" t="inlineStr">
         <is>
           <t>28/31</t>
@@ -11076,7 +11292,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G232" s="2" t="inlineStr"/>
+      <c r="G232" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H232" s="2" t="inlineStr">
         <is>
           <t>24/31</t>
@@ -11119,7 +11339,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G233" s="2" t="inlineStr"/>
+      <c r="G233" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H233" s="2" t="inlineStr">
         <is>
           <t>31/31</t>
@@ -12022,7 +12246,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G254" s="2" t="inlineStr"/>
+      <c r="G254" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H254" s="2" t="inlineStr">
         <is>
           <t>29/31</t>
@@ -12065,7 +12293,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G255" s="2" t="inlineStr"/>
+      <c r="G255" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H255" s="2" t="inlineStr">
         <is>
           <t>30/31</t>
@@ -12108,7 +12340,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G256" s="2" t="inlineStr"/>
+      <c r="G256" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H256" s="2" t="inlineStr">
         <is>
           <t>28/31</t>
@@ -12151,7 +12387,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G257" s="2" t="inlineStr"/>
+      <c r="G257" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H257" s="2" t="inlineStr">
         <is>
           <t>28/31</t>
@@ -12280,7 +12520,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G260" s="2" t="inlineStr"/>
+      <c r="G260" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H260" s="2" t="inlineStr">
         <is>
           <t>24/31</t>
@@ -12323,7 +12567,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G261" s="2" t="inlineStr"/>
+      <c r="G261" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H261" s="2" t="inlineStr">
         <is>
           <t>31/31</t>
@@ -13226,7 +13474,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G282" s="2" t="inlineStr"/>
+      <c r="G282" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H282" s="2" t="inlineStr">
         <is>
           <t>24/28</t>
@@ -13269,7 +13521,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G283" s="2" t="inlineStr"/>
+      <c r="G283" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H283" s="2" t="inlineStr">
         <is>
           <t>23/28</t>
@@ -13312,7 +13568,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G284" s="2" t="inlineStr"/>
+      <c r="G284" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H284" s="2" t="inlineStr">
         <is>
           <t>23/28</t>
@@ -13355,7 +13615,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G285" s="2" t="inlineStr"/>
+      <c r="G285" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H285" s="2" t="inlineStr">
         <is>
           <t>27/28</t>
@@ -13484,7 +13748,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G288" s="2" t="inlineStr"/>
+      <c r="G288" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H288" s="2" t="inlineStr">
         <is>
           <t>20/28</t>
@@ -13527,7 +13795,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G289" s="2" t="inlineStr"/>
+      <c r="G289" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H289" s="2" t="inlineStr">
         <is>
           <t>26/28</t>
@@ -14430,7 +14702,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G310" s="2" t="inlineStr"/>
+      <c r="G310" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H310" s="2" t="inlineStr">
         <is>
           <t>24/28</t>
@@ -14473,7 +14749,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G311" s="2" t="inlineStr"/>
+      <c r="G311" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H311" s="2" t="inlineStr">
         <is>
           <t>23/28</t>
@@ -14516,7 +14796,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G312" s="2" t="inlineStr"/>
+      <c r="G312" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H312" s="2" t="inlineStr">
         <is>
           <t>23/28</t>
@@ -14559,7 +14843,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G313" s="2" t="inlineStr"/>
+      <c r="G313" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H313" s="2" t="inlineStr">
         <is>
           <t>27/28</t>
@@ -14688,7 +14976,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G316" s="2" t="inlineStr"/>
+      <c r="G316" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H316" s="2" t="inlineStr">
         <is>
           <t>20/28</t>
@@ -14731,7 +15023,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G317" s="2" t="inlineStr"/>
+      <c r="G317" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H317" s="2" t="inlineStr">
         <is>
           <t>26/28</t>
@@ -15634,7 +15930,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G338" s="2" t="inlineStr"/>
+      <c r="G338" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H338" s="2" t="inlineStr">
         <is>
           <t>29/29</t>
@@ -15677,7 +15977,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G339" s="2" t="inlineStr"/>
+      <c r="G339" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H339" s="2" t="inlineStr">
         <is>
           <t>26/29</t>
@@ -15720,7 +16024,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G340" s="2" t="inlineStr"/>
+      <c r="G340" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H340" s="2" t="inlineStr">
         <is>
           <t>27/29</t>
@@ -15763,7 +16071,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G341" s="2" t="inlineStr"/>
+      <c r="G341" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H341" s="2" t="inlineStr">
         <is>
           <t>24/29</t>
@@ -15892,7 +16204,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G344" s="2" t="inlineStr"/>
+      <c r="G344" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H344" s="2" t="inlineStr">
         <is>
           <t>23/29</t>
@@ -15935,7 +16251,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G345" s="2" t="inlineStr"/>
+      <c r="G345" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H345" s="2" t="inlineStr">
         <is>
           <t>22/29</t>
@@ -16838,7 +17158,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G366" s="2" t="inlineStr"/>
+      <c r="G366" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H366" s="2" t="inlineStr">
         <is>
           <t>29/29</t>
@@ -16881,7 +17205,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G367" s="2" t="inlineStr"/>
+      <c r="G367" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H367" s="2" t="inlineStr">
         <is>
           <t>26/29</t>
@@ -16924,7 +17252,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G368" s="2" t="inlineStr"/>
+      <c r="G368" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H368" s="2" t="inlineStr">
         <is>
           <t>27/29</t>
@@ -16967,7 +17299,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G369" s="2" t="inlineStr"/>
+      <c r="G369" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H369" s="2" t="inlineStr">
         <is>
           <t>24/29</t>
@@ -17096,7 +17432,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G372" s="2" t="inlineStr"/>
+      <c r="G372" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H372" s="2" t="inlineStr">
         <is>
           <t>23/29</t>
@@ -17139,7 +17479,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G373" s="2" t="inlineStr"/>
+      <c r="G373" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H373" s="2" t="inlineStr">
         <is>
           <t>22/29</t>
@@ -18042,7 +18386,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G394" s="2" t="inlineStr"/>
+      <c r="G394" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H394" s="2" t="inlineStr">
         <is>
           <t>33/33</t>
@@ -18085,7 +18433,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G395" s="2" t="inlineStr"/>
+      <c r="G395" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H395" s="2" t="inlineStr">
         <is>
           <t>31/33</t>
@@ -18128,7 +18480,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G396" s="2" t="inlineStr"/>
+      <c r="G396" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H396" s="2" t="inlineStr">
         <is>
           <t>30/33</t>
@@ -18171,7 +18527,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G397" s="2" t="inlineStr"/>
+      <c r="G397" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H397" s="2" t="inlineStr">
         <is>
           <t>28/33</t>
@@ -18300,7 +18660,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G400" s="2" t="inlineStr"/>
+      <c r="G400" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H400" s="2" t="inlineStr">
         <is>
           <t>25/33</t>
@@ -18343,7 +18707,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G401" s="2" t="inlineStr"/>
+      <c r="G401" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H401" s="2" t="inlineStr">
         <is>
           <t>30/33</t>
@@ -19246,7 +19614,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G422" s="2" t="inlineStr"/>
+      <c r="G422" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H422" s="2" t="inlineStr">
         <is>
           <t>33/33</t>
@@ -19289,7 +19661,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G423" s="2" t="inlineStr"/>
+      <c r="G423" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H423" s="2" t="inlineStr">
         <is>
           <t>31/33</t>
@@ -19332,7 +19708,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G424" s="2" t="inlineStr"/>
+      <c r="G424" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H424" s="2" t="inlineStr">
         <is>
           <t>30/33</t>
@@ -19375,7 +19755,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G425" s="2" t="inlineStr"/>
+      <c r="G425" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H425" s="2" t="inlineStr">
         <is>
           <t>28/33</t>
@@ -19504,7 +19888,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G428" s="2" t="inlineStr"/>
+      <c r="G428" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H428" s="2" t="inlineStr">
         <is>
           <t>25/33</t>
@@ -19547,7 +19935,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G429" s="2" t="inlineStr"/>
+      <c r="G429" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H429" s="2" t="inlineStr">
         <is>
           <t>30/33</t>
@@ -20450,7 +20842,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G450" s="2" t="inlineStr"/>
+      <c r="G450" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H450" s="2" t="inlineStr">
         <is>
           <t>21/30</t>
@@ -20493,7 +20889,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G451" s="2" t="inlineStr"/>
+      <c r="G451" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H451" s="2" t="inlineStr">
         <is>
           <t>22/30</t>
@@ -20536,7 +20936,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G452" s="2" t="inlineStr"/>
+      <c r="G452" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H452" s="2" t="inlineStr">
         <is>
           <t>22/30</t>
@@ -20579,7 +20983,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G453" s="2" t="inlineStr"/>
+      <c r="G453" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H453" s="2" t="inlineStr">
         <is>
           <t>18/30</t>
@@ -20708,7 +21116,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G456" s="2" t="inlineStr"/>
+      <c r="G456" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H456" s="2" t="inlineStr">
         <is>
           <t>18/30</t>
@@ -20751,7 +21163,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G457" s="2" t="inlineStr"/>
+      <c r="G457" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H457" s="2" t="inlineStr">
         <is>
           <t>22/30</t>
@@ -21654,7 +22070,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G478" s="2" t="inlineStr"/>
+      <c r="G478" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H478" s="2" t="inlineStr">
         <is>
           <t>21/30</t>
@@ -21697,7 +22117,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G479" s="2" t="inlineStr"/>
+      <c r="G479" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H479" s="2" t="inlineStr">
         <is>
           <t>22/30</t>
@@ -21740,7 +22164,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G480" s="2" t="inlineStr"/>
+      <c r="G480" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H480" s="2" t="inlineStr">
         <is>
           <t>22/30</t>
@@ -21783,7 +22211,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G481" s="2" t="inlineStr"/>
+      <c r="G481" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H481" s="2" t="inlineStr">
         <is>
           <t>18/30</t>
@@ -21912,7 +22344,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G484" s="2" t="inlineStr"/>
+      <c r="G484" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H484" s="2" t="inlineStr">
         <is>
           <t>18/30</t>
@@ -21955,7 +22391,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G485" s="2" t="inlineStr"/>
+      <c r="G485" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H485" s="2" t="inlineStr">
         <is>
           <t>22/30</t>
@@ -22858,7 +23298,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G506" s="2" t="inlineStr"/>
+      <c r="G506" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H506" s="2" t="inlineStr">
         <is>
           <t>12/27</t>
@@ -22901,7 +23345,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G507" s="2" t="inlineStr"/>
+      <c r="G507" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H507" s="2" t="inlineStr">
         <is>
           <t>12/27</t>
@@ -22944,7 +23392,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G508" s="2" t="inlineStr"/>
+      <c r="G508" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H508" s="2" t="inlineStr">
         <is>
           <t>16/27</t>
@@ -22987,7 +23439,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G509" s="2" t="inlineStr"/>
+      <c r="G509" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H509" s="2" t="inlineStr">
         <is>
           <t>5/27</t>
@@ -23116,7 +23572,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G512" s="2" t="inlineStr"/>
+      <c r="G512" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H512" s="2" t="inlineStr">
         <is>
           <t>13/27</t>
@@ -23159,7 +23619,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G513" s="2" t="inlineStr"/>
+      <c r="G513" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H513" s="2" t="inlineStr">
         <is>
           <t>13/27</t>
@@ -24062,7 +24526,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G534" s="2" t="inlineStr"/>
+      <c r="G534" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H534" s="2" t="inlineStr">
         <is>
           <t>12/27</t>
@@ -24105,7 +24573,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G535" s="2" t="inlineStr"/>
+      <c r="G535" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H535" s="2" t="inlineStr">
         <is>
           <t>12/27</t>
@@ -24148,7 +24620,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G536" s="2" t="inlineStr"/>
+      <c r="G536" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H536" s="2" t="inlineStr">
         <is>
           <t>16/27</t>
@@ -24191,7 +24667,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G537" s="2" t="inlineStr"/>
+      <c r="G537" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H537" s="2" t="inlineStr">
         <is>
           <t>5/27</t>
@@ -24320,7 +24800,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G540" s="2" t="inlineStr"/>
+      <c r="G540" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H540" s="2" t="inlineStr">
         <is>
           <t>13/27</t>
@@ -24363,7 +24847,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G541" s="2" t="inlineStr"/>
+      <c r="G541" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H541" s="2" t="inlineStr">
         <is>
           <t>13/27</t>
@@ -25266,7 +25754,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G562" s="2" t="inlineStr"/>
+      <c r="G562" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H562" s="2" t="inlineStr">
         <is>
           <t>18/29</t>
@@ -25309,7 +25801,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G563" s="2" t="inlineStr"/>
+      <c r="G563" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H563" s="2" t="inlineStr">
         <is>
           <t>17/29</t>
@@ -25352,7 +25848,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G564" s="2" t="inlineStr"/>
+      <c r="G564" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H564" s="2" t="inlineStr">
         <is>
           <t>17/29</t>
@@ -25395,7 +25895,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G565" s="2" t="inlineStr"/>
+      <c r="G565" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H565" s="2" t="inlineStr">
         <is>
           <t>15/29</t>
@@ -25524,7 +26028,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G568" s="2" t="inlineStr"/>
+      <c r="G568" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H568" s="2" t="inlineStr">
         <is>
           <t>24/29</t>
@@ -25567,7 +26075,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G569" s="2" t="inlineStr"/>
+      <c r="G569" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H569" s="2" t="inlineStr">
         <is>
           <t>19/29</t>
@@ -26470,7 +26982,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G590" s="2" t="inlineStr"/>
+      <c r="G590" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H590" s="2" t="inlineStr">
         <is>
           <t>18/29</t>
@@ -26513,7 +27029,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G591" s="2" t="inlineStr"/>
+      <c r="G591" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H591" s="2" t="inlineStr">
         <is>
           <t>17/29</t>
@@ -26556,7 +27076,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G592" s="2" t="inlineStr"/>
+      <c r="G592" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H592" s="2" t="inlineStr">
         <is>
           <t>17/29</t>
@@ -26599,7 +27123,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G593" s="2" t="inlineStr"/>
+      <c r="G593" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H593" s="2" t="inlineStr">
         <is>
           <t>15/29</t>
@@ -26728,7 +27256,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G596" s="2" t="inlineStr"/>
+      <c r="G596" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H596" s="2" t="inlineStr">
         <is>
           <t>24/29</t>
@@ -26771,7 +27303,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G597" s="2" t="inlineStr"/>
+      <c r="G597" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H597" s="2" t="inlineStr">
         <is>
           <t>19/29</t>
@@ -27674,7 +28210,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G618" s="2" t="inlineStr"/>
+      <c r="G618" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H618" s="2" t="inlineStr">
         <is>
           <t>13/29</t>
@@ -27717,7 +28257,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G619" s="2" t="inlineStr"/>
+      <c r="G619" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H619" s="2" t="inlineStr">
         <is>
           <t>12/29</t>
@@ -27760,7 +28304,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G620" s="2" t="inlineStr"/>
+      <c r="G620" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H620" s="2" t="inlineStr">
         <is>
           <t>13/29</t>
@@ -27803,7 +28351,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G621" s="2" t="inlineStr"/>
+      <c r="G621" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H621" s="2" t="inlineStr">
         <is>
           <t>10/29</t>
@@ -27932,7 +28484,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G624" s="2" t="inlineStr"/>
+      <c r="G624" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H624" s="2" t="inlineStr">
         <is>
           <t>18/29</t>
@@ -27975,7 +28531,11 @@
           <t>08:30:00</t>
         </is>
       </c>
-      <c r="G625" s="2" t="inlineStr"/>
+      <c r="G625" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H625" s="2" t="inlineStr">
         <is>
           <t>21/29</t>
@@ -28878,7 +29438,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G646" s="2" t="inlineStr"/>
+      <c r="G646" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H646" s="2" t="inlineStr">
         <is>
           <t>13/29</t>
@@ -28921,7 +29485,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G647" s="2" t="inlineStr"/>
+      <c r="G647" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H647" s="2" t="inlineStr">
         <is>
           <t>12/29</t>
@@ -28964,7 +29532,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G648" s="2" t="inlineStr"/>
+      <c r="G648" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H648" s="2" t="inlineStr">
         <is>
           <t>13/29</t>
@@ -29007,7 +29579,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G649" s="2" t="inlineStr"/>
+      <c r="G649" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H649" s="2" t="inlineStr">
         <is>
           <t>10/29</t>
@@ -29136,7 +29712,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G652" s="2" t="inlineStr"/>
+      <c r="G652" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H652" s="2" t="inlineStr">
         <is>
           <t>18/29</t>
@@ -29179,7 +29759,11 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G653" s="2" t="inlineStr"/>
+      <c r="G653" s="2" t="inlineStr">
+        <is>
+          <t>Miss Dina Nasr, Administrator</t>
+        </is>
+      </c>
       <c r="H653" s="2" t="inlineStr">
         <is>
           <t>21/29</t>

--- a/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
+++ b/attendance_reports/Y5_B2526_Surgery_Pop_Quiz_2_B1_session_analysis.xlsx
@@ -484,7 +484,7 @@
     <col width="9" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="31" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="22" customWidth="1" min="11" max="11"/>
@@ -578,7 +578,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -6100,7 +6100,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6147,7 +6147,7 @@
       </c>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
@@ -6194,7 +6194,7 @@
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
@@ -6374,7 +6374,7 @@
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -7379,7 +7379,7 @@
       </c>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
@@ -7426,7 +7426,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7473,7 +7473,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -7915,7 +7915,7 @@
       </c>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -8658,7 +8658,7 @@
       </c>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
@@ -8705,7 +8705,7 @@
       </c>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr">
@@ -8885,7 +8885,7 @@
       </c>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
@@ -9792,7 +9792,7 @@
       </c>
       <c r="G198" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H198" s="2" t="inlineStr">
@@ -9839,7 +9839,7 @@
       </c>
       <c r="G199" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H199" s="2" t="inlineStr">
@@ -9886,7 +9886,7 @@
       </c>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
@@ -9933,7 +9933,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -10066,7 +10066,7 @@
       </c>
       <c r="G204" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H204" s="2" t="inlineStr">
@@ -10113,7 +10113,7 @@
       </c>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H205" s="2" t="inlineStr">
@@ -11020,7 +11020,7 @@
       </c>
       <c r="G226" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H226" s="2" t="inlineStr">
@@ -11067,7 +11067,7 @@
       </c>
       <c r="G227" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H227" s="2" t="inlineStr">
@@ -11114,7 +11114,7 @@
       </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="G229" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H229" s="2" t="inlineStr">
@@ -11294,7 +11294,7 @@
       </c>
       <c r="G232" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H232" s="2" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="G233" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H233" s="2" t="inlineStr">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="G254" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H254" s="2" t="inlineStr">
@@ -12295,7 +12295,7 @@
       </c>
       <c r="G255" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H255" s="2" t="inlineStr">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="G256" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H256" s="2" t="inlineStr">
@@ -12389,7 +12389,7 @@
       </c>
       <c r="G257" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H257" s="2" t="inlineStr">
@@ -12522,7 +12522,7 @@
       </c>
       <c r="G260" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H260" s="2" t="inlineStr">
@@ -12569,7 +12569,7 @@
       </c>
       <c r="G261" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H261" s="2" t="inlineStr">
@@ -13476,7 +13476,7 @@
       </c>
       <c r="G282" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H282" s="2" t="inlineStr">
@@ -13523,7 +13523,7 @@
       </c>
       <c r="G283" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H283" s="2" t="inlineStr">
@@ -13570,7 +13570,7 @@
       </c>
       <c r="G284" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H284" s="2" t="inlineStr">
@@ -13617,7 +13617,7 @@
       </c>
       <c r="G285" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H285" s="2" t="inlineStr">
@@ -13750,7 +13750,7 @@
       </c>
       <c r="G288" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H288" s="2" t="inlineStr">
@@ -13797,7 +13797,7 @@
       </c>
       <c r="G289" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H289" s="2" t="inlineStr">
@@ -14704,7 +14704,7 @@
       </c>
       <c r="G310" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H310" s="2" t="inlineStr">
@@ -14751,7 +14751,7 @@
       </c>
       <c r="G311" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H311" s="2" t="inlineStr">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="G312" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H312" s="2" t="inlineStr">
@@ -14845,7 +14845,7 @@
       </c>
       <c r="G313" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H313" s="2" t="inlineStr">
@@ -14978,7 +14978,7 @@
       </c>
       <c r="G316" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H316" s="2" t="inlineStr">
@@ -15025,7 +15025,7 @@
       </c>
       <c r="G317" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H317" s="2" t="inlineStr">
@@ -15932,7 +15932,7 @@
       </c>
       <c r="G338" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H338" s="2" t="inlineStr">
@@ -15979,7 +15979,7 @@
       </c>
       <c r="G339" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H339" s="2" t="inlineStr">
@@ -16026,7 +16026,7 @@
       </c>
       <c r="G340" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H340" s="2" t="inlineStr">
@@ -16073,7 +16073,7 @@
       </c>
       <c r="G341" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H341" s="2" t="inlineStr">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="G344" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H344" s="2" t="inlineStr">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="G345" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H345" s="2" t="inlineStr">
@@ -17160,7 +17160,7 @@
       </c>
       <c r="G366" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H366" s="2" t="inlineStr">
@@ -17207,7 +17207,7 @@
       </c>
       <c r="G367" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H367" s="2" t="inlineStr">
@@ -17254,7 +17254,7 @@
       </c>
       <c r="G368" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H368" s="2" t="inlineStr">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="G369" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H369" s="2" t="inlineStr">
@@ -17434,7 +17434,7 @@
       </c>
       <c r="G372" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H372" s="2" t="inlineStr">
@@ -17481,7 +17481,7 @@
       </c>
       <c r="G373" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H373" s="2" t="inlineStr">
@@ -18388,7 +18388,7 @@
       </c>
       <c r="G394" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H394" s="2" t="inlineStr">
@@ -18435,7 +18435,7 @@
       </c>
       <c r="G395" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H395" s="2" t="inlineStr">
@@ -18482,7 +18482,7 @@
       </c>
       <c r="G396" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H396" s="2" t="inlineStr">
@@ -18529,7 +18529,7 @@
       </c>
       <c r="G397" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H397" s="2" t="inlineStr">
@@ -18662,7 +18662,7 @@
       </c>
       <c r="G400" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H400" s="2" t="inlineStr">
@@ -18709,7 +18709,7 @@
       </c>
       <c r="G401" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H401" s="2" t="inlineStr">
@@ -19616,7 +19616,7 @@
       </c>
       <c r="G422" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H422" s="2" t="inlineStr">
@@ -19663,7 +19663,7 @@
       </c>
       <c r="G423" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H423" s="2" t="inlineStr">
@@ -19710,7 +19710,7 @@
       </c>
       <c r="G424" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H424" s="2" t="inlineStr">
@@ -19757,7 +19757,7 @@
       </c>
       <c r="G425" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H425" s="2" t="inlineStr">
@@ -19890,7 +19890,7 @@
       </c>
       <c r="G428" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H428" s="2" t="inlineStr">
@@ -19937,7 +19937,7 @@
       </c>
       <c r="G429" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H429" s="2" t="inlineStr">
@@ -20844,7 +20844,7 @@
       </c>
       <c r="G450" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H450" s="2" t="inlineStr">
@@ -20891,7 +20891,7 @@
       </c>
       <c r="G451" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H451" s="2" t="inlineStr">
@@ -20938,7 +20938,7 @@
       </c>
       <c r="G452" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H452" s="2" t="inlineStr">
@@ -20985,7 +20985,7 @@
       </c>
       <c r="G453" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H453" s="2" t="inlineStr">
@@ -21118,7 +21118,7 @@
       </c>
       <c r="G456" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H456" s="2" t="inlineStr">
@@ -21165,7 +21165,7 @@
       </c>
       <c r="G457" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H457" s="2" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="G478" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H478" s="2" t="inlineStr">
@@ -22119,7 +22119,7 @@
       </c>
       <c r="G479" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H479" s="2" t="inlineStr">
@@ -22166,7 +22166,7 @@
       </c>
       <c r="G480" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H480" s="2" t="inlineStr">
@@ -22213,7 +22213,7 @@
       </c>
       <c r="G481" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H481" s="2" t="inlineStr">
@@ -22346,7 +22346,7 @@
       </c>
       <c r="G484" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H484" s="2" t="inlineStr">
@@ -22393,7 +22393,7 @@
       </c>
       <c r="G485" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H485" s="2" t="inlineStr">
@@ -23300,7 +23300,7 @@
       </c>
       <c r="G506" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H506" s="2" t="inlineStr">
@@ -23347,7 +23347,7 @@
       </c>
       <c r="G507" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H507" s="2" t="inlineStr">
@@ -23394,7 +23394,7 @@
       </c>
       <c r="G508" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H508" s="2" t="inlineStr">
@@ -23441,7 +23441,7 @@
       </c>
       <c r="G509" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H509" s="2" t="inlineStr">
@@ -23574,7 +23574,7 @@
       </c>
       <c r="G512" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H512" s="2" t="inlineStr">
@@ -23621,7 +23621,7 @@
       </c>
       <c r="G513" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H513" s="2" t="inlineStr">
@@ -24528,7 +24528,7 @@
       </c>
       <c r="G534" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H534" s="2" t="inlineStr">
@@ -24575,7 +24575,7 @@
       </c>
       <c r="G535" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H535" s="2" t="inlineStr">
@@ -24622,7 +24622,7 @@
       </c>
       <c r="G536" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H536" s="2" t="inlineStr">
@@ -24669,7 +24669,7 @@
       </c>
       <c r="G537" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H537" s="2" t="inlineStr">
@@ -24802,7 +24802,7 @@
       </c>
       <c r="G540" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H540" s="2" t="inlineStr">
@@ -24849,7 +24849,7 @@
       </c>
       <c r="G541" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H541" s="2" t="inlineStr">
@@ -25756,7 +25756,7 @@
       </c>
       <c r="G562" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H562" s="2" t="inlineStr">
@@ -25803,7 +25803,7 @@
       </c>
       <c r="G563" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H563" s="2" t="inlineStr">
@@ -25850,7 +25850,7 @@
       </c>
       <c r="G564" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H564" s="2" t="inlineStr">
@@ -25897,7 +25897,7 @@
       </c>
       <c r="G565" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H565" s="2" t="inlineStr">
@@ -26030,7 +26030,7 @@
       </c>
       <c r="G568" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H568" s="2" t="inlineStr">
@@ -26077,7 +26077,7 @@
       </c>
       <c r="G569" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H569" s="2" t="inlineStr">
@@ -26984,7 +26984,7 @@
       </c>
       <c r="G590" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H590" s="2" t="inlineStr">
@@ -27031,7 +27031,7 @@
       </c>
       <c r="G591" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H591" s="2" t="inlineStr">
@@ -27078,7 +27078,7 @@
       </c>
       <c r="G592" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H592" s="2" t="inlineStr">
@@ -27125,7 +27125,7 @@
       </c>
       <c r="G593" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H593" s="2" t="inlineStr">
@@ -27258,7 +27258,7 @@
       </c>
       <c r="G596" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H596" s="2" t="inlineStr">
@@ -27305,7 +27305,7 @@
       </c>
       <c r="G597" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H597" s="2" t="inlineStr">
@@ -28212,7 +28212,7 @@
       </c>
       <c r="G618" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H618" s="2" t="inlineStr">
@@ -28259,7 +28259,7 @@
       </c>
       <c r="G619" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H619" s="2" t="inlineStr">
@@ -28306,7 +28306,7 @@
       </c>
       <c r="G620" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H620" s="2" t="inlineStr">
@@ -28353,7 +28353,7 @@
       </c>
       <c r="G621" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H621" s="2" t="inlineStr">
@@ -28486,7 +28486,7 @@
       </c>
       <c r="G624" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H624" s="2" t="inlineStr">
@@ -28533,7 +28533,7 @@
       </c>
       <c r="G625" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H625" s="2" t="inlineStr">
@@ -29440,7 +29440,7 @@
       </c>
       <c r="G646" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H646" s="2" t="inlineStr">
@@ -29487,7 +29487,7 @@
       </c>
       <c r="G647" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H647" s="2" t="inlineStr">
@@ -29534,7 +29534,7 @@
       </c>
       <c r="G648" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H648" s="2" t="inlineStr">
@@ -29581,7 +29581,7 @@
       </c>
       <c r="G649" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H649" s="2" t="inlineStr">
@@ -29714,7 +29714,7 @@
       </c>
       <c r="G652" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H652" s="2" t="inlineStr">
@@ -29761,7 +29761,7 @@
       </c>
       <c r="G653" s="2" t="inlineStr">
         <is>
-          <t>Miss Dina Nasr, Administrator</t>
+          <t>2025/2026</t>
         </is>
       </c>
       <c r="H653" s="2" t="inlineStr">
